--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Таблица выработки  ф-тов\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE1D3D5-D171-4B8A-8FB4-78D3E7D8929B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="14952" windowHeight="8700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Выработка формокомплектов" sheetId="1" r:id="rId1"/>
@@ -57,7 +58,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$K$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$J$46</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -256,14 +264,14 @@
     <t>"Аквадив 0,35" XXI-В-28-2-350</t>
   </si>
   <si>
-    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.04.2020 г.</t>
+    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.05.2020 г.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -843,9 +851,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Мой стиль" xfId="1"/>
+    <cellStyle name="Мой стиль" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 7" xfId="2"/>
+    <cellStyle name="Обычный 7" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1362,10 +1370,10 @@
         </row>
         <row r="32">
           <cell r="E32">
-            <v>4860601</v>
+            <v>6375401</v>
           </cell>
           <cell r="F32">
-            <v>5315006</v>
+            <v>6856227</v>
           </cell>
         </row>
       </sheetData>
@@ -1465,10 +1473,10 @@
         </row>
         <row r="31">
           <cell r="E31">
-            <v>2187850</v>
+            <v>2504390</v>
           </cell>
           <cell r="F31">
-            <v>6758080</v>
+            <v>7080317</v>
           </cell>
         </row>
       </sheetData>
@@ -1496,15 +1504,15 @@
         </row>
         <row r="37">
           <cell r="E37">
-            <v>8320286</v>
+            <v>10166286</v>
           </cell>
           <cell r="F37">
-            <v>9174267</v>
+            <v>11113073</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1527,10 +1535,10 @@
         </row>
         <row r="35">
           <cell r="E35">
-            <v>3761455</v>
+            <v>4644685</v>
           </cell>
           <cell r="F35">
-            <v>7438117</v>
+            <v>8385402</v>
           </cell>
         </row>
       </sheetData>
@@ -1558,10 +1566,10 @@
         </row>
         <row r="34">
           <cell r="E34">
-            <v>8535348</v>
+            <v>9557286</v>
           </cell>
           <cell r="F34">
-            <v>11195836</v>
+            <v>12266723</v>
           </cell>
         </row>
       </sheetData>
@@ -1651,15 +1659,15 @@
         </row>
         <row r="31">
           <cell r="E31">
-            <v>11979961</v>
+            <v>15018451</v>
           </cell>
           <cell r="F31">
-            <v>12504632</v>
+            <v>15700031</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1828,10 +1836,10 @@
         </row>
         <row r="30">
           <cell r="E30">
-            <v>15918082</v>
+            <v>17757370</v>
           </cell>
           <cell r="F30">
-            <v>19503919</v>
+            <v>21473493</v>
           </cell>
         </row>
       </sheetData>
@@ -1890,15 +1898,15 @@
         </row>
         <row r="29">
           <cell r="E29">
-            <v>25935466</v>
+            <v>29865621</v>
           </cell>
           <cell r="F29">
-            <v>27154042</v>
+            <v>31213618</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2287,6 +2295,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2322,6 +2347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2497,35 +2539,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>64</v>
       </c>
@@ -2540,14 +2582,14 @@
       <c r="J1" s="53"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="13.8" thickBot="1">
+    <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D2" s="51"/>
       <c r="E2" s="52"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="66">
+    <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2620,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="55"/>
       <c r="C4" s="65"/>
@@ -2599,7 +2641,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -2626,7 +2668,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <f t="shared" ref="A6:A44" si="0">A5+1</f>
         <v>2</v>
@@ -2657,7 +2699,7 @@
       <c r="J6" s="11"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2694,7 +2736,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2727,7 +2769,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2764,7 +2806,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2797,7 +2839,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2827,11 +2869,14 @@
         <f>[5]Паспорт!$A$20-F11</f>
         <v>16132474</v>
       </c>
-      <c r="I11" s="26"/>
+      <c r="I11" s="26">
+        <f>E11/F11</f>
+        <v>0.92677738395208575</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2862,13 +2907,13 @@
         <v>12722567</v>
       </c>
       <c r="I12" s="39">
-        <f t="shared" ref="I12:I29" si="1">E12/F12</f>
+        <f t="shared" ref="I12:I30" si="1">E12/F12</f>
         <v>0.85100782255257323</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2904,7 +2949,7 @@
       </c>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2938,7 +2983,7 @@
       </c>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2972,7 +3017,7 @@
       </c>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3004,7 +3049,7 @@
       </c>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3041,7 +3086,7 @@
       <c r="J17" s="11"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3074,7 +3119,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3110,7 +3155,7 @@
       </c>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:11" s="22" customFormat="1" ht="45.6" customHeight="1">
+    <row r="20" spans="1:11" s="22" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3147,7 +3192,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3180,7 +3225,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3217,7 +3262,7 @@
       <c r="J22" s="40"/>
       <c r="K22" s="42"/>
     </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3254,7 +3299,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3287,7 +3332,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3324,7 +3369,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="26" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3356,7 +3401,7 @@
       </c>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="27" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3388,7 +3433,7 @@
       </c>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="28" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3424,7 +3469,7 @@
       </c>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="29" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3436,28 +3481,28 @@
       <c r="D29" s="15"/>
       <c r="E29" s="33">
         <f>[20]Паспорт!$E$32</f>
-        <v>4860601</v>
+        <v>6375401</v>
       </c>
       <c r="F29" s="33">
         <f>[20]Паспорт!$F$32</f>
-        <v>5315006</v>
+        <v>6856227</v>
       </c>
       <c r="G29" s="31">
         <f>100%-F29/[20]Паспорт!$A$21</f>
-        <v>0.68363059523809522</v>
+        <v>0.59189124999999998</v>
       </c>
       <c r="H29" s="30">
         <f>[20]Паспорт!$A$21-F29</f>
-        <v>11484994</v>
+        <v>9943773</v>
       </c>
       <c r="I29" s="26">
         <f t="shared" si="1"/>
-        <v>0.91450527054908315</v>
+        <v>0.92987017495190871</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="30" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3485,10 +3530,13 @@
         <f>[21]Лист1!$A$20-F30</f>
         <v>11331067</v>
       </c>
-      <c r="I30" s="26"/>
+      <c r="I30" s="26">
+        <f t="shared" si="1"/>
+        <v>0.95073463141713388</v>
+      </c>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="31" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3524,7 +3572,7 @@
       </c>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="32" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3540,27 +3588,27 @@
       </c>
       <c r="E32" s="32">
         <f>[23]Лист1!$E$31</f>
-        <v>2187850</v>
+        <v>2504390</v>
       </c>
       <c r="F32" s="27">
         <f>[23]Лист1!$F$31</f>
-        <v>6758080</v>
+        <v>7080317</v>
       </c>
       <c r="G32" s="12">
         <f>100%-F32/[23]Лист1!$A$20</f>
-        <v>0.59773333333333334</v>
+        <v>0.57855255952380946</v>
       </c>
       <c r="H32" s="13">
         <f>[23]Лист1!$A$20-F32</f>
-        <v>10041920</v>
+        <v>9719683</v>
       </c>
       <c r="I32" s="26">
         <f t="shared" si="2"/>
-        <v>0.32373839907192575</v>
+        <v>0.35371156404437826</v>
       </c>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="33" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3576,28 +3624,28 @@
       </c>
       <c r="E33" s="27">
         <f>[24]Лист1!$E$37</f>
-        <v>8320286</v>
+        <v>10166286</v>
       </c>
       <c r="F33" s="27">
         <f>[24]Лист1!$F$37</f>
-        <v>9174267</v>
+        <v>11113073</v>
       </c>
       <c r="G33" s="12">
         <f>100%-F33/[24]Лист1!$A$24</f>
-        <v>0.51458904761904756</v>
+        <v>0.41200671957671953</v>
       </c>
       <c r="H33" s="13">
         <f>[24]Лист1!$A$24-F33</f>
-        <v>9725733</v>
+        <v>7786927</v>
       </c>
       <c r="I33" s="26">
         <f t="shared" si="2"/>
-        <v>0.90691561516576746</v>
+        <v>0.91480421302010706</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="34" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3613,28 +3661,28 @@
       </c>
       <c r="E34" s="28">
         <f>[25]Лист1!$E$35</f>
-        <v>3761455</v>
+        <v>4644685</v>
       </c>
       <c r="F34" s="24">
         <f>[25]Лист1!$F$35</f>
-        <v>7438117</v>
+        <v>8385402</v>
       </c>
       <c r="G34" s="31">
         <f>100%-F34/[25]Лист1!$A$24</f>
-        <v>0.46870592857142857</v>
+        <v>0.40104271428571425</v>
       </c>
       <c r="H34" s="30">
         <f>[25]Лист1!$A$24-F34</f>
-        <v>6561883</v>
+        <v>5614598</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="2"/>
-        <v>0.5056998968959483</v>
+        <v>0.55390129179256997</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="35" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3650,28 +3698,28 @@
       </c>
       <c r="E35" s="32">
         <f>[26]Лист1!$E$34</f>
-        <v>8535348</v>
+        <v>9557286</v>
       </c>
       <c r="F35" s="27">
         <f>[26]Лист1!$F$34</f>
-        <v>11195836</v>
+        <v>12266723</v>
       </c>
       <c r="G35" s="12">
         <f>100%-F35/[26]Лист1!$A$19</f>
-        <v>0.3335811904761905</v>
+        <v>0.26983791666666668</v>
       </c>
       <c r="H35" s="13">
         <f>[26]Лист1!$A$19-F35</f>
-        <v>5604164</v>
+        <v>4533277</v>
       </c>
       <c r="I35" s="26">
         <f t="shared" si="2"/>
-        <v>0.76236808041846982</v>
+        <v>0.77912299804927532</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="36" spans="1:11" s="41" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3708,7 +3756,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="37" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3745,7 +3793,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="38" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3761,28 +3809,28 @@
       </c>
       <c r="E38" s="24">
         <f>[29]Лист1!$E$31</f>
-        <v>11979961</v>
+        <v>15018451</v>
       </c>
       <c r="F38" s="24">
         <f>[29]Лист1!$F$31</f>
-        <v>12504632</v>
+        <v>15700031</v>
       </c>
       <c r="G38" s="29">
         <f>100%-F38/[29]Лист1!$A$20</f>
-        <v>0.25567666666666666</v>
+        <v>6.5474345238095255E-2</v>
       </c>
       <c r="H38" s="30">
         <f>[29]Лист1!$A$20-F38</f>
-        <v>4295368</v>
+        <v>1099969</v>
       </c>
       <c r="I38" s="26">
         <f t="shared" si="2"/>
-        <v>0.95804186800539193</v>
+        <v>0.9565873468657482</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="39" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3819,7 +3867,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="40" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3856,7 +3904,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="41" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3893,7 +3941,7 @@
       <c r="J41" s="40"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="42" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3909,28 +3957,28 @@
       </c>
       <c r="E42" s="27">
         <f>[33]Лист1!$E$30</f>
-        <v>15918082</v>
+        <v>17757370</v>
       </c>
       <c r="F42" s="27">
         <f>[33]Лист1!$F$30</f>
-        <v>19503919</v>
+        <v>21473493</v>
       </c>
       <c r="G42" s="19">
         <f>100%-F42/[33]Лист1!$A$19</f>
-        <v>7.1241952380952434E-2</v>
+        <v>-2.2547285714285659E-2</v>
       </c>
       <c r="H42" s="20">
         <f>[33]Лист1!$A$19-F42</f>
-        <v>1496081</v>
+        <v>-473493</v>
       </c>
       <c r="I42" s="26">
         <f t="shared" si="2"/>
-        <v>0.81614787264036526</v>
+        <v>0.82694371148652901</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="43" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3967,7 +4015,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="44" spans="1:11" s="41" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3983,28 +4031,28 @@
       </c>
       <c r="E44" s="27">
         <f>[35]Лист1!$E$29</f>
-        <v>25935466</v>
+        <v>29865621</v>
       </c>
       <c r="F44" s="27">
         <f>[35]Лист1!$F$29</f>
-        <v>27154042</v>
+        <v>31213618</v>
       </c>
       <c r="G44" s="19">
         <f>100%-F44/[35]Лист1!$A$15</f>
-        <v>-0.61631202380952388</v>
+        <v>-0.85795345238095244</v>
       </c>
       <c r="H44" s="13">
         <f>[35]Лист1!$A$15-F44</f>
-        <v>-10354042</v>
+        <v>-14413618</v>
       </c>
       <c r="I44" s="26">
         <f t="shared" si="2"/>
-        <v>0.95512358712562939</v>
+        <v>0.95681381760999318</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E46" s="45" t="s">
         <v>56</v>
       </c>
@@ -4013,7 +4061,7 @@
       <c r="H46" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K19">
+  <autoFilter ref="A3:K19" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="6" showButton="0"/>
     <sortState ref="A6:K44">
       <sortCondition descending="1" ref="G3:G19"/>
@@ -4033,36 +4081,36 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="66.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="71.400000000000006" customHeight="1">
+    <row r="1" spans="1:12" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -4096,7 +4144,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="13.8" thickBot="1">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
       <c r="B2" s="55"/>
       <c r="C2" s="65"/>
@@ -4118,7 +4166,7 @@
       <c r="K2" s="67"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="30.6">
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>

--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Таблица выработки  ф-тов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE1D3D5-D171-4B8A-8FB4-78D3E7D8929B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49265929-FAAA-455B-B973-48EC0D57A5DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,10 +53,12 @@
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
     <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
+    <externalReference r:id="rId40"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$K$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$J$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$J$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
   <si>
     <t>№п/п</t>
   </si>
@@ -264,7 +266,13 @@
     <t>"Аквадив 0,35" XXI-В-28-2-350</t>
   </si>
   <si>
-    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.05.2020 г.</t>
+    <t xml:space="preserve"> "Брест колоски" ХXI-В-28-2.1-500-14</t>
+  </si>
+  <si>
+    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.06.2020 г.</t>
+  </si>
+  <si>
+    <t>Забрали</t>
   </si>
 </sst>
 </file>
@@ -656,7 +664,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,6 +799,42 @@
     </xf>
     <xf numFmtId="9" fontId="11" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -873,8 +917,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Паспорт"/>
       <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
       <sheetName val="Чист.  поддон"/>
@@ -888,22 +932,22 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0">
         <row r="21">
           <cell r="A21">
-            <v>16800000</v>
+            <v>14000000</v>
           </cell>
         </row>
         <row r="32">
           <cell r="E32">
-            <v>253260</v>
+            <v>246960</v>
           </cell>
           <cell r="F32">
-            <v>301118</v>
+            <v>275256</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -955,48 +999,28 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="20">
           <cell r="A20">
-            <v>15400000</v>
+            <v>12600000</v>
           </cell>
         </row>
         <row r="31">
           <cell r="E31">
-            <v>1071084</v>
+            <v>986442</v>
           </cell>
           <cell r="F31">
-            <v>1302257</v>
+            <v>1121670</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1012,17 +1036,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>12600000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>986442</v>
-          </cell>
-          <cell r="F31">
-            <v>1121670</v>
+        <row r="21">
+          <cell r="A21">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>1036020</v>
+          </cell>
+          <cell r="F32">
+            <v>1292677</v>
           </cell>
         </row>
       </sheetData>
@@ -1037,28 +1061,48 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="21">
           <cell r="A21">
-            <v>14000000</v>
+            <v>16800000</v>
           </cell>
         </row>
         <row r="32">
           <cell r="E32">
-            <v>1036020</v>
+            <v>1589616</v>
           </cell>
           <cell r="F32">
-            <v>1292677</v>
+            <v>1687489</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1121,6 +1165,57 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>15400000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>1490724</v>
+          </cell>
+          <cell r="F31">
+            <v>1783277</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Данные"/>
       <sheetName val="Паспорт"/>
       <sheetName val="Акт приемки"/>
@@ -1168,63 +1263,52 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>12600000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>1223262</v>
-          </cell>
-          <cell r="F31">
-            <v>1886978</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="22">
-          <cell r="A22">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
             <v>16800000</v>
           </cell>
         </row>
-        <row r="33">
-          <cell r="E33">
-            <v>2880934</v>
-          </cell>
-          <cell r="F33">
-            <v>3213050</v>
+        <row r="32">
+          <cell r="E32">
+            <v>2315808</v>
+          </cell>
+          <cell r="F32">
+            <v>2451889</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1240,17 +1324,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>1115136</v>
-          </cell>
-          <cell r="F32">
-            <v>3369696</v>
+        <row r="20">
+          <cell r="A20">
+            <v>12600000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>1654830</v>
+          </cell>
+          <cell r="F31">
+            <v>2339419</v>
           </cell>
         </row>
       </sheetData>
@@ -1271,17 +1355,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>15400000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>3720516</v>
-          </cell>
-          <cell r="F32">
-            <v>3921050</v>
+        <row r="22">
+          <cell r="A22">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>2880934</v>
+          </cell>
+          <cell r="F33">
+            <v>3213050</v>
           </cell>
         </row>
       </sheetData>
@@ -1293,387 +1377,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>246960</v>
-          </cell>
-          <cell r="F32">
-            <v>275256</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>6375401</v>
-          </cell>
-          <cell r="F32">
-            <v>6856227</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>5199504</v>
-          </cell>
-          <cell r="F31">
-            <v>5468933</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>18900000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>6255857</v>
-          </cell>
-          <cell r="F30">
-            <v>6692357</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>2504390</v>
-          </cell>
-          <cell r="F31">
-            <v>7080317</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="24">
-          <cell r="A24">
-            <v>18900000</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>10166286</v>
-          </cell>
-          <cell r="F37">
-            <v>11113073</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="24">
-          <cell r="A24">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>4644685</v>
-          </cell>
-          <cell r="F35">
-            <v>8385402</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>9557286</v>
-          </cell>
-          <cell r="F34">
-            <v>12266723</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="25">
-          <cell r="A25">
-            <v>18200000</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>5733720</v>
-          </cell>
-          <cell r="F31">
-            <v>9710255</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>15018451</v>
-          </cell>
-          <cell r="F31">
-            <v>15700031</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1726,7 +1429,288 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>1115136</v>
+          </cell>
+          <cell r="F32">
+            <v>3369696</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>15400000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>3720516</v>
+          </cell>
+          <cell r="F32">
+            <v>3921050</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="32">
+          <cell r="E32">
+            <v>4536156</v>
+          </cell>
+          <cell r="F32">
+            <v>4718139</v>
+          </cell>
+          <cell r="H32">
+            <v>12081861</v>
+          </cell>
+          <cell r="I32">
+            <v>0.71915839285714278</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>5471145</v>
+          </cell>
+          <cell r="F32">
+            <v>5691052</v>
+          </cell>
+          <cell r="I32">
+            <v>0.66124690476190473</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="A19">
+            <v>19600000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>12298205</v>
+          </cell>
+          <cell r="F30">
+            <v>20393108</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="A19">
+            <v>18900000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>6255857</v>
+          </cell>
+          <cell r="F30">
+            <v>6692357</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>6375401</v>
+          </cell>
+          <cell r="F32">
+            <v>6856227</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1743,10 +1727,129 @@
         </row>
         <row r="31">
           <cell r="E31">
-            <v>11951372</v>
+            <v>2504390</v>
           </cell>
           <cell r="F31">
-            <v>13138354</v>
+            <v>7080317</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>6911216</v>
+          </cell>
+          <cell r="F31">
+            <v>7273905</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="24">
+          <cell r="A24">
+            <v>18900000</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>10299150</v>
+          </cell>
+          <cell r="F41">
+            <v>11254225</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="E31">
+            <v>449036</v>
+          </cell>
+          <cell r="F31">
+            <v>524968</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="24">
+          <cell r="A24">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>4644685</v>
+          </cell>
+          <cell r="F35">
+            <v>8385402</v>
           </cell>
         </row>
       </sheetData>
@@ -1767,17 +1870,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>5883192</v>
-          </cell>
-          <cell r="F31">
-            <v>14305517</v>
+        <row r="25">
+          <cell r="A25">
+            <v>18200000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
@@ -1798,17 +1901,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
+        <row r="19">
+          <cell r="A19">
             <v>16800000</v>
           </cell>
         </row>
-        <row r="35">
-          <cell r="E35">
-            <v>10130281</v>
-          </cell>
-          <cell r="F35">
-            <v>15078890</v>
+        <row r="34">
+          <cell r="E34">
+            <v>9557286</v>
+          </cell>
+          <cell r="F34">
+            <v>12266723</v>
           </cell>
         </row>
       </sheetData>
@@ -1829,17 +1932,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>21000000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>17757370</v>
-          </cell>
-          <cell r="F30">
-            <v>21473493</v>
+        <row r="20">
+          <cell r="A20">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>6585300</v>
+          </cell>
+          <cell r="F31">
+            <v>10601261</v>
           </cell>
         </row>
       </sheetData>
@@ -1860,17 +1963,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>19600000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>12298205</v>
-          </cell>
-          <cell r="F30">
-            <v>20393108</v>
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>12908414</v>
+          </cell>
+          <cell r="F36">
+            <v>14155800</v>
           </cell>
         </row>
       </sheetData>
@@ -1891,22 +1994,22 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="15">
-          <cell r="A15">
+        <row r="20">
+          <cell r="A20">
             <v>16800000</v>
           </cell>
         </row>
-        <row r="29">
-          <cell r="E29">
-            <v>29865621</v>
-          </cell>
-          <cell r="F29">
-            <v>31213618</v>
+        <row r="35">
+          <cell r="E35">
+            <v>10130281</v>
+          </cell>
+          <cell r="F35">
+            <v>15078890</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1922,6 +2025,68 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>6965028</v>
+          </cell>
+          <cell r="F31">
+            <v>15426229</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>15646925</v>
+          </cell>
+          <cell r="F36">
+            <v>16344633</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
         <row r="32">
           <cell r="E32">
             <v>8848812</v>
@@ -1939,32 +2104,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>449036</v>
-          </cell>
-          <cell r="F31">
-            <v>524968</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2015,7 +2154,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2066,7 +2205,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2080,24 +2219,19 @@
       <sheetName val="Горл. кольцо"/>
       <sheetName val="Финиш. кольцо"/>
       <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
+      <sheetName val="Охладитель плунжера"/>
       <sheetName val="Дут. головка"/>
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
         <row r="32">
           <cell r="E32">
-            <v>895356</v>
+            <v>1019392</v>
           </cell>
           <cell r="F32">
-            <v>942062</v>
+            <v>1071619</v>
           </cell>
         </row>
       </sheetData>
@@ -2112,6 +2246,29 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="A19">
+            <v>21000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2145,10 +2302,10 @@
         </row>
         <row r="32">
           <cell r="E32">
-            <v>891792</v>
+            <v>833490</v>
           </cell>
           <cell r="F32">
-            <v>955453</v>
+            <v>911671</v>
           </cell>
         </row>
       </sheetData>
@@ -2543,13 +2700,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29:I30"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2568,38 +2725,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="A1" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="72" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2608,23 +2765,23 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="62" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="61" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="61"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2637,8 +2794,8 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="50"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2670,7 +2827,7 @@
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
-        <f t="shared" ref="A6:A44" si="0">A5+1</f>
+        <f t="shared" ref="A6:A45" si="0">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="46" t="s">
@@ -2693,48 +2850,44 @@
         <v>18900000</v>
       </c>
       <c r="I6" s="26" t="e">
-        <f>E6/F6</f>
+        <f t="shared" ref="I6:I45" si="1">E6/F6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="A7" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="B7" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="53">
         <f>[1]Паспорт!$E$32</f>
-        <v>253260</v>
-      </c>
-      <c r="F7" s="27">
+        <v>246960</v>
+      </c>
+      <c r="F7" s="53">
         <f>[1]Паспорт!$F$32</f>
-        <v>301118</v>
-      </c>
-      <c r="G7" s="19">
+        <v>275256</v>
+      </c>
+      <c r="G7" s="54">
         <f>100%-F7/[1]Паспорт!$A$21</f>
-        <v>0.98207630952380953</v>
-      </c>
-      <c r="H7" s="20">
+        <v>0.98033885714285718</v>
+      </c>
+      <c r="H7" s="53">
         <f>[1]Паспорт!$A$21-F7</f>
-        <v>16498882</v>
-      </c>
-      <c r="I7" s="26">
-        <f>E7/F7</f>
-        <v>0.84106562875683288</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14"/>
+        <v>13724744</v>
+      </c>
+      <c r="I7" s="55">
+        <f t="shared" si="1"/>
+        <v>0.8972011509285901</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
@@ -2742,69 +2895,69 @@
         <v>4</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="33">
         <f>[2]Паспорт!$E$32</f>
-        <v>246960</v>
+        <v>468000</v>
       </c>
       <c r="F8" s="24">
         <f>[2]Паспорт!$F$32</f>
-        <v>275256</v>
+        <v>521755</v>
       </c>
       <c r="G8" s="25">
         <f>100%-F8/[2]Паспорт!$A$21</f>
-        <v>0.98033885714285718</v>
+        <v>0.96611980519480523</v>
       </c>
       <c r="H8" s="24">
         <f>[2]Паспорт!$A$21-F8</f>
-        <v>13724744</v>
+        <v>14878245</v>
       </c>
       <c r="I8" s="26">
-        <f>E8/F8</f>
-        <v>0.8972011509285901</v>
+        <f t="shared" si="1"/>
+        <v>0.89697271707985549</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="A9" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="33">
-        <f>[3]Паспорт!$E$32</f>
-        <v>468000</v>
-      </c>
-      <c r="F9" s="24">
-        <f>[3]Паспорт!$F$32</f>
-        <v>521755</v>
-      </c>
-      <c r="G9" s="25">
-        <f>100%-F9/[3]Паспорт!$A$21</f>
-        <v>0.96611980519480523</v>
-      </c>
-      <c r="H9" s="24">
-        <f>[3]Паспорт!$A$21-F9</f>
-        <v>14878245</v>
-      </c>
-      <c r="I9" s="26">
-        <f>E9/F9</f>
-        <v>0.89697271707985549</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="18"/>
+      <c r="B9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="57">
+        <f>[3]Лист1!$E$31</f>
+        <v>449036</v>
+      </c>
+      <c r="F9" s="57">
+        <f>[3]Лист1!$F$31</f>
+        <v>524968</v>
+      </c>
+      <c r="G9" s="58">
+        <f>100%-F9/15400000</f>
+        <v>0.96591116883116879</v>
+      </c>
+      <c r="H9" s="59">
+        <f>15400000-F9</f>
+        <v>14875032</v>
+      </c>
+      <c r="I9" s="55">
+        <f t="shared" si="1"/>
+        <v>0.85535880282226728</v>
+      </c>
+      <c r="J9" s="56"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
@@ -2812,29 +2965,33 @@
         <v>6</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="15"/>
+        <v>62</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="27">
-        <f>[4]Лист1!$E$31</f>
-        <v>449036</v>
+        <f>[4]Паспорт!$E$31</f>
+        <v>618648</v>
       </c>
       <c r="F10" s="27">
-        <f>[4]Лист1!$F$31</f>
-        <v>524968</v>
+        <f>[4]Паспорт!$F$31</f>
+        <v>667526</v>
       </c>
       <c r="G10" s="19">
-        <f>100%-F10/15400000</f>
-        <v>0.96591116883116879</v>
+        <f>100%-F10/[4]Паспорт!$A$20</f>
+        <v>0.96026630952380954</v>
       </c>
       <c r="H10" s="20">
-        <f>15400000-F10</f>
-        <v>14875032</v>
+        <f>[4]Паспорт!$A$20-F10</f>
+        <v>16132474</v>
       </c>
       <c r="I10" s="26">
-        <f>E10/F10</f>
-        <v>0.85535880282226728</v>
+        <f t="shared" si="1"/>
+        <v>0.92677738395208575</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="14"/>
@@ -2844,74 +3001,74 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="27">
-        <f>[5]Паспорт!$E$31</f>
-        <v>618648</v>
-      </c>
-      <c r="F11" s="27">
-        <f>[5]Паспорт!$F$31</f>
-        <v>667526</v>
-      </c>
-      <c r="G11" s="19">
-        <f>100%-F11/[5]Паспорт!$A$20</f>
-        <v>0.96026630952380954</v>
-      </c>
-      <c r="H11" s="20">
-        <f>[5]Паспорт!$A$20-F11</f>
-        <v>16132474</v>
-      </c>
-      <c r="I11" s="26">
-        <f>E11/F11</f>
-        <v>0.92677738395208575</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="14"/>
+      <c r="E11" s="37">
+        <f>[5]Паспорт!$E$37</f>
+        <v>491400</v>
+      </c>
+      <c r="F11" s="37">
+        <f>[5]Паспорт!$F$37</f>
+        <v>577433</v>
+      </c>
+      <c r="G11" s="38">
+        <f>100%-F11/[5]Паспорт!$A$21</f>
+        <v>0.95658398496240604</v>
+      </c>
+      <c r="H11" s="43">
+        <f>[5]Паспорт!$A$21-F11</f>
+        <v>12722567</v>
+      </c>
+      <c r="I11" s="39">
+        <f t="shared" si="1"/>
+        <v>0.85100782255257323</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="37">
-        <f>[6]Паспорт!$E$37</f>
-        <v>491400</v>
-      </c>
-      <c r="F12" s="37">
-        <f>[6]Паспорт!$F$37</f>
-        <v>577433</v>
-      </c>
-      <c r="G12" s="38">
-        <f>100%-F12/[6]Паспорт!$A$21</f>
-        <v>0.95658398496240604</v>
-      </c>
-      <c r="H12" s="43">
-        <f>[6]Паспорт!$A$21-F12</f>
-        <v>12722567</v>
-      </c>
-      <c r="I12" s="39">
-        <f t="shared" ref="I12:I30" si="1">E12/F12</f>
-        <v>0.85100782255257323</v>
-      </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+        <f>[6]Паспорт!$E$32</f>
+        <v>1019392</v>
+      </c>
+      <c r="F12" s="27">
+        <f>[6]Паспорт!$F$32</f>
+        <v>1071619</v>
+      </c>
+      <c r="G12" s="19">
+        <f>100%-F12/[7]Лист1!$A$19</f>
+        <v>0.94897052380952385</v>
+      </c>
+      <c r="H12" s="20">
+        <f>[7]Лист1!$A$19-F12</f>
+        <v>19928381</v>
+      </c>
+      <c r="I12" s="26">
+        <f t="shared" si="1"/>
+        <v>0.95126346210733481</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
@@ -2919,33 +3076,33 @@
         <v>9</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E13" s="27">
-        <f>[7]Паспорт!$E$32</f>
-        <v>895356</v>
+        <f>[8]Паспорт!$E$32</f>
+        <v>833490</v>
       </c>
       <c r="F13" s="27">
-        <f>[7]Паспорт!$F$32</f>
-        <v>942062</v>
+        <f>[8]Паспорт!$F$32</f>
+        <v>911671</v>
       </c>
       <c r="G13" s="19">
-        <f>100%-F13/[7]Паспорт!$A$21</f>
-        <v>0.94392488095238092</v>
+        <f>100%-F13/[8]Паспорт!$A$21</f>
+        <v>0.94573386904761902</v>
       </c>
       <c r="H13" s="20">
-        <f>[7]Паспорт!$A$21-F13</f>
-        <v>15857938</v>
+        <f>[8]Паспорт!$A$21-F13</f>
+        <v>15888329</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="1"/>
-        <v>0.95042152215034681</v>
+        <v>0.91424428329956753</v>
       </c>
       <c r="J13" s="11"/>
     </row>
@@ -2955,31 +3112,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="27">
-        <f>[8]Паспорт!$E$32</f>
-        <v>891792</v>
+        <v>763476</v>
       </c>
       <c r="F14" s="27">
-        <f>[8]Паспорт!$F$32</f>
-        <v>955453</v>
+        <v>975569</v>
       </c>
       <c r="G14" s="19">
-        <f>100%-F14/[8]Паспорт!$A$21</f>
-        <v>0.94312779761904764</v>
+        <f>100%-F14/16800000</f>
+        <v>0.94193041666666666</v>
       </c>
       <c r="H14" s="20">
-        <f>[8]Паспорт!$A$21-F14</f>
-        <v>15844547</v>
+        <f>16800000-F14</f>
+        <v>15824431</v>
       </c>
       <c r="I14" s="26">
         <f t="shared" si="1"/>
-        <v>0.93337087224593984</v>
+        <v>0.78259559293089465</v>
       </c>
       <c r="J14" s="11"/>
     </row>
@@ -2989,31 +3146,29 @@
         <v>11</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>13</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="27">
-        <v>763476</v>
+        <f>[9]Паспорт!$E$32</f>
+        <v>1296300</v>
       </c>
       <c r="F15" s="27">
-        <v>975569</v>
+        <f>[9]Паспорт!$F$32</f>
+        <v>1399851</v>
       </c>
       <c r="G15" s="19">
-        <f>100%-F15/16800000</f>
-        <v>0.94193041666666666</v>
+        <f>100%-F15/[9]Паспорт!$A$21</f>
+        <v>0.92308510989010983</v>
       </c>
       <c r="H15" s="20">
-        <f>16800000-F15</f>
-        <v>15824431</v>
+        <f>[9]Паспорт!$A$21-F15</f>
+        <v>16800149</v>
       </c>
       <c r="I15" s="26">
         <f t="shared" si="1"/>
-        <v>0.78259559293089465</v>
+        <v>0.92602712717282054</v>
       </c>
       <c r="J15" s="11"/>
     </row>
@@ -3023,31 +3178,36 @@
         <v>12</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="27">
-        <f>[9]Паспорт!$E$32</f>
-        <v>1296300</v>
+        <f>[10]Лист1!$E$30</f>
+        <v>1140480</v>
       </c>
       <c r="F16" s="27">
-        <f>[9]Паспорт!$F$32</f>
-        <v>1399851</v>
+        <f>[10]Лист1!$F$30</f>
+        <v>1411002</v>
       </c>
       <c r="G16" s="12">
-        <f>100%-F16/[9]Паспорт!$A$21</f>
-        <v>0.92308510989010983</v>
+        <f>100%-F16/[10]Лист1!$A$19</f>
+        <v>0.9224724175824176</v>
       </c>
       <c r="H16" s="13">
-        <f>[9]Паспорт!$A$21-F16</f>
-        <v>16800149</v>
+        <f>[10]Лист1!$A$19-F16</f>
+        <v>16788998</v>
       </c>
       <c r="I16" s="26">
         <f t="shared" si="1"/>
-        <v>0.92602712717282054</v>
+        <v>0.80827667147176263</v>
       </c>
       <c r="J16" s="11"/>
+      <c r="K16"/>
     </row>
     <row r="17" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
@@ -3055,7 +3215,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>12</v>
@@ -3064,27 +3224,26 @@
         <v>13</v>
       </c>
       <c r="E17" s="27">
-        <f>[10]Лист1!$E$30</f>
-        <v>1140480</v>
+        <f>[11]Лист1!$E$31</f>
+        <v>986442</v>
       </c>
       <c r="F17" s="27">
-        <f>[10]Лист1!$F$30</f>
-        <v>1411002</v>
+        <f>[11]Лист1!$F$31</f>
+        <v>1121670</v>
       </c>
       <c r="G17" s="12">
-        <f>100%-F17/[10]Лист1!$A$19</f>
-        <v>0.9224724175824176</v>
+        <f>100%-F17/[11]Лист1!$A$20</f>
+        <v>0.91097857142857142</v>
       </c>
       <c r="H17" s="13">
-        <f>[10]Лист1!$A$19-F17</f>
-        <v>16788998</v>
+        <f>[11]Лист1!$A$20-F17</f>
+        <v>11478330</v>
       </c>
       <c r="I17" s="26">
         <f t="shared" si="1"/>
-        <v>0.80827667147176263</v>
+        <v>0.87944047714568452</v>
       </c>
       <c r="J17" s="11"/>
-      <c r="K17"/>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
@@ -3092,32 +3251,35 @@
         <v>14</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="34">
-        <f>[11]Паспорт!$E$31</f>
-        <v>1071084</v>
-      </c>
-      <c r="F18" s="30">
-        <f>[11]Паспорт!$F$31</f>
-        <v>1302257</v>
-      </c>
-      <c r="G18" s="29">
-        <f>100%-F18/[11]Паспорт!$A$20</f>
-        <v>0.91543785714285719</v>
-      </c>
-      <c r="H18" s="30">
-        <f>[11]Паспорт!$A$20-F18</f>
-        <v>14097743</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="49">
+        <f>[12]Лист1!$E$32</f>
+        <v>1036020</v>
+      </c>
+      <c r="F18" s="49">
+        <f>[12]Лист1!$F$32</f>
+        <v>1292677</v>
+      </c>
+      <c r="G18" s="12">
+        <f>100%-F18/[12]Лист1!$A$21</f>
+        <v>0.90766592857142858</v>
+      </c>
+      <c r="H18" s="13">
+        <f>[12]Лист1!$A$21-F18</f>
+        <v>12707323</v>
       </c>
       <c r="I18" s="26">
         <f t="shared" si="1"/>
-        <v>0.82248281253239564</v>
+        <v>0.80145310854915808</v>
       </c>
       <c r="J18" s="11"/>
-      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
@@ -3125,7 +3287,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>12</v>
@@ -3134,24 +3296,24 @@
         <v>13</v>
       </c>
       <c r="E19" s="27">
-        <f>[12]Лист1!$E$31</f>
-        <v>986442</v>
+        <f>[13]Паспорт!$E$32</f>
+        <v>1589616</v>
       </c>
       <c r="F19" s="27">
-        <f>[12]Лист1!$F$31</f>
-        <v>1121670</v>
+        <f>[13]Паспорт!$F$32</f>
+        <v>1687489</v>
       </c>
       <c r="G19" s="12">
-        <f>100%-F19/[12]Лист1!$A$20</f>
-        <v>0.91097857142857142</v>
+        <f>100%-F19/[13]Паспорт!$A$21</f>
+        <v>0.8995542261904762</v>
       </c>
       <c r="H19" s="13">
-        <f>[12]Лист1!$A$20-F19</f>
-        <v>11478330</v>
+        <f>[13]Паспорт!$A$21-F19</f>
+        <v>15112511</v>
       </c>
       <c r="I19" s="26">
         <f t="shared" si="1"/>
-        <v>0.87944047714568452</v>
+        <v>0.94200080711637235</v>
       </c>
       <c r="J19" s="11"/>
     </row>
@@ -3161,36 +3323,32 @@
         <v>16</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="27">
-        <f>[13]Лист1!$E$32</f>
-        <v>1036020</v>
-      </c>
-      <c r="F20" s="27">
-        <f>[13]Лист1!$F$32</f>
-        <v>1292677</v>
-      </c>
-      <c r="G20" s="12">
-        <f>100%-F20/[13]Лист1!$A$21</f>
-        <v>0.90766592857142858</v>
-      </c>
-      <c r="H20" s="13">
-        <f>[13]Лист1!$A$21-F20</f>
-        <v>12707323</v>
+        <v>43</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="33">
+        <f>[14]Паспорт!$E$32</f>
+        <v>1572846</v>
+      </c>
+      <c r="F20" s="24">
+        <f>[14]Паспорт!$F$32</f>
+        <v>1762816</v>
+      </c>
+      <c r="G20" s="29">
+        <f>100%-F20/[14]Паспорт!$A$21</f>
+        <v>0.88553142857142852</v>
+      </c>
+      <c r="H20" s="30">
+        <f>[14]Паспорт!$A$21-F20</f>
+        <v>13637184</v>
       </c>
       <c r="I20" s="26">
         <f t="shared" si="1"/>
-        <v>0.80145310854915808</v>
+        <v>0.8922349241214057</v>
       </c>
       <c r="J20" s="11"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
@@ -3198,29 +3356,29 @@
         <v>17</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="15"/>
       <c r="E21" s="33">
-        <f>[14]Паспорт!$E$32</f>
-        <v>1572846</v>
+        <f>[15]Паспорт!$E$31</f>
+        <v>1490724</v>
       </c>
       <c r="F21" s="24">
-        <f>[14]Паспорт!$F$32</f>
-        <v>1762816</v>
+        <f>[15]Паспорт!$F$31</f>
+        <v>1783277</v>
       </c>
       <c r="G21" s="29">
-        <f>100%-F21/[14]Паспорт!$A$21</f>
-        <v>0.88553142857142852</v>
+        <f>100%-F21/[15]Паспорт!$A$20</f>
+        <v>0.88420279220779219</v>
       </c>
       <c r="H21" s="30">
-        <f>[14]Паспорт!$A$21-F21</f>
-        <v>13637184</v>
+        <f>[15]Паспорт!$A$20-F21</f>
+        <v>13616723</v>
       </c>
       <c r="I21" s="26">
         <f t="shared" si="1"/>
-        <v>0.8922349241214057</v>
+        <v>0.83594640653134655</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="18"/>
@@ -3240,19 +3398,19 @@
         <v>52</v>
       </c>
       <c r="E22" s="33">
-        <f>[15]Паспорт!$E$32</f>
+        <f>[16]Паспорт!$E$32</f>
         <v>1740108</v>
       </c>
       <c r="F22" s="33">
-        <f>[15]Паспорт!$F$32</f>
+        <f>[16]Паспорт!$F$32</f>
         <v>1879263</v>
       </c>
       <c r="G22" s="44">
-        <f>100%-F22/[15]Паспорт!$A$21</f>
+        <f>100%-F22/[16]Паспорт!$A$21</f>
         <v>0.87796993506493504</v>
       </c>
       <c r="H22" s="34">
-        <f>[15]Паспорт!$A$21-F22</f>
+        <f>[16]Паспорт!$A$21-F22</f>
         <v>13520737</v>
       </c>
       <c r="I22" s="39">
@@ -3268,36 +3426,33 @@
         <v>19</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="28">
-        <f>[16]Лист1!$E$31</f>
-        <v>1223262</v>
-      </c>
-      <c r="F23" s="24">
-        <f>[16]Лист1!$F$31</f>
-        <v>1886978</v>
-      </c>
-      <c r="G23" s="29">
-        <f>100%-F23/[16]Лист1!$A$20</f>
-        <v>0.85023984126984131</v>
-      </c>
-      <c r="H23" s="30">
-        <f>[16]Лист1!$A$20-F23</f>
-        <v>10713022</v>
+        <v>58</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="27">
+        <f>[17]Паспорт!$E$32</f>
+        <v>2315808</v>
+      </c>
+      <c r="F23" s="27">
+        <f>[17]Паспорт!$F$32</f>
+        <v>2451889</v>
+      </c>
+      <c r="G23" s="12">
+        <f>100%-F23/[17]Паспорт!$A$21</f>
+        <v>0.85405422619047622</v>
+      </c>
+      <c r="H23" s="13">
+        <f>[17]Паспорт!$A$21-F23</f>
+        <v>14348111</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="1"/>
-        <v>0.64826510960912109</v>
+        <v>0.9444995266914612</v>
       </c>
       <c r="J23" s="11"/>
-      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
@@ -3305,32 +3460,36 @@
         <v>20</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="33">
-        <f>[17]Лист1!$E$33</f>
-        <v>2880934</v>
+        <v>22</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="28">
+        <f>[18]Лист1!$E$31</f>
+        <v>1654830</v>
       </c>
       <c r="F24" s="24">
-        <f>[17]Лист1!$F$33</f>
-        <v>3213050</v>
+        <f>[18]Лист1!$F$31</f>
+        <v>2339419</v>
       </c>
       <c r="G24" s="29">
-        <f>100%-F24/[17]Лист1!$A$22</f>
-        <v>0.80874702380952379</v>
+        <f>100%-F24/[18]Лист1!$A$20</f>
+        <v>0.81433182539682536</v>
       </c>
       <c r="H24" s="30">
-        <f>[17]Лист1!$A$22-F24</f>
-        <v>13586950</v>
+        <f>[18]Лист1!$A$20-F24</f>
+        <v>10260581</v>
       </c>
       <c r="I24" s="26">
         <f t="shared" si="1"/>
-        <v>0.89663528423149341</v>
+        <v>0.70736794050146634</v>
       </c>
       <c r="J24" s="11"/>
-      <c r="K24" s="18"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
@@ -3338,36 +3497,32 @@
         <v>21</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="28">
-        <f>[18]Лист1!$E$32</f>
-        <v>1115136</v>
+        <v>48</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="33">
+        <f>[19]Лист1!$E$33</f>
+        <v>2880934</v>
       </c>
       <c r="F25" s="24">
-        <f>[18]Лист1!$F$32</f>
-        <v>3369696</v>
+        <f>[19]Лист1!$F$33</f>
+        <v>3213050</v>
       </c>
       <c r="G25" s="29">
-        <f>100%-F25/[18]Лист1!$A$21</f>
-        <v>0.7994228571428571</v>
+        <f>100%-F25/[19]Лист1!$A$22</f>
+        <v>0.80874702380952379</v>
       </c>
       <c r="H25" s="30">
-        <f>[18]Лист1!$A$21-F25</f>
-        <v>13430304</v>
+        <f>[19]Лист1!$A$22-F25</f>
+        <v>13586950</v>
       </c>
       <c r="I25" s="26">
         <f t="shared" si="1"/>
-        <v>0.33093074271388279</v>
+        <v>0.89663528423149341</v>
       </c>
       <c r="J25" s="11"/>
-      <c r="K25" s="16"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
@@ -3375,7 +3530,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>12</v>
@@ -3383,23 +3538,28 @@
       <c r="D26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27">
-        <v>3080000</v>
-      </c>
-      <c r="G26" s="12">
-        <f>100%-F26/14000000</f>
-        <v>0.78</v>
-      </c>
-      <c r="H26" s="13">
-        <f>14000000-F26</f>
-        <v>10920000</v>
+      <c r="E26" s="28">
+        <f>[20]Лист1!$E$32</f>
+        <v>1115136</v>
+      </c>
+      <c r="F26" s="24">
+        <f>[20]Лист1!$F$32</f>
+        <v>3369696</v>
+      </c>
+      <c r="G26" s="29">
+        <f>100%-F26/[20]Лист1!$A$21</f>
+        <v>0.7994228571428571</v>
+      </c>
+      <c r="H26" s="30">
+        <f>[20]Лист1!$A$21-F26</f>
+        <v>13430304</v>
       </c>
       <c r="I26" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33093074271388279</v>
       </c>
       <c r="J26" s="11"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
@@ -3407,7 +3567,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>12</v>
@@ -3415,17 +3575,17 @@
       <c r="D27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24">
-        <v>4055359</v>
-      </c>
-      <c r="G27" s="29">
-        <f>100%-F27/16800000</f>
-        <v>0.75860958333333328</v>
-      </c>
-      <c r="H27" s="30">
-        <f>18900000-F27</f>
-        <v>14844641</v>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27">
+        <v>3080000</v>
+      </c>
+      <c r="G27" s="12">
+        <f>100%-F27/14000000</f>
+        <v>0.78</v>
+      </c>
+      <c r="H27" s="13">
+        <f>14000000-F27</f>
+        <v>10920000</v>
       </c>
       <c r="I27" s="26">
         <f t="shared" si="1"/>
@@ -3439,33 +3599,29 @@
         <v>24</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="27">
-        <f>[19]Лист1!$E$32</f>
-        <v>3720516</v>
-      </c>
-      <c r="F28" s="27">
-        <f>[19]Лист1!$F$32</f>
-        <v>3921050</v>
-      </c>
-      <c r="G28" s="12">
-        <f>100%-F28/[19]Лист1!$A$21</f>
-        <v>0.74538636363636357</v>
-      </c>
-      <c r="H28" s="13">
-        <f>[19]Лист1!$A$21-F28</f>
-        <v>11478950</v>
+        <v>13</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24">
+        <v>4055359</v>
+      </c>
+      <c r="G28" s="29">
+        <f>100%-F28/16800000</f>
+        <v>0.75860958333333328</v>
+      </c>
+      <c r="H28" s="30">
+        <f>18900000-F28</f>
+        <v>14844641</v>
       </c>
       <c r="I28" s="26">
         <f t="shared" si="1"/>
-        <v>0.94885706634702438</v>
+        <v>0</v>
       </c>
       <c r="J28" s="11"/>
     </row>
@@ -3475,32 +3631,35 @@
         <v>25</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="33">
-        <f>[20]Паспорт!$E$32</f>
-        <v>6375401</v>
-      </c>
-      <c r="F29" s="33">
-        <f>[20]Паспорт!$F$32</f>
-        <v>6856227</v>
-      </c>
-      <c r="G29" s="31">
-        <f>100%-F29/[20]Паспорт!$A$21</f>
-        <v>0.59189124999999998</v>
-      </c>
-      <c r="H29" s="30">
-        <f>[20]Паспорт!$A$21-F29</f>
-        <v>9943773</v>
+        <v>31</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="27">
+        <f>[21]Лист1!$E$32</f>
+        <v>3720516</v>
+      </c>
+      <c r="F29" s="27">
+        <f>[21]Лист1!$F$32</f>
+        <v>3921050</v>
+      </c>
+      <c r="G29" s="12">
+        <f>100%-F29/[21]Лист1!$A$21</f>
+        <v>0.74538636363636357</v>
+      </c>
+      <c r="H29" s="13">
+        <f>[21]Лист1!$A$21-F29</f>
+        <v>11478950</v>
       </c>
       <c r="I29" s="26">
         <f t="shared" si="1"/>
-        <v>0.92987017495190871</v>
+        <v>0.94885706634702438</v>
       </c>
       <c r="J29" s="11"/>
-      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
@@ -3508,31 +3667,33 @@
         <v>26</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="27">
-        <f>[21]Лист1!$E$31</f>
-        <v>5199504</v>
+        <v>12</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="37">
+        <f>[22]Паспорт!$E$32</f>
+        <v>4536156</v>
       </c>
       <c r="F30" s="27">
-        <f>[21]Лист1!$F$31</f>
-        <v>5468933</v>
+        <f>[22]Паспорт!$F$32</f>
+        <v>4718139</v>
       </c>
       <c r="G30" s="12">
-        <f>100%-F30/[21]Лист1!$A$20</f>
-        <v>0.67446827380952379</v>
+        <f>[22]Паспорт!$I$32</f>
+        <v>0.71915839285714278</v>
       </c>
       <c r="H30" s="13">
-        <f>[21]Лист1!$A$20-F30</f>
-        <v>11331067</v>
+        <f>[22]Паспорт!$H$32</f>
+        <v>12081861</v>
       </c>
       <c r="I30" s="26">
         <f t="shared" si="1"/>
-        <v>0.95073463141713388</v>
+        <v>0.96142907192857185</v>
       </c>
       <c r="J30" s="11"/>
     </row>
@@ -3542,7 +3703,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>12</v>
@@ -3550,27 +3711,28 @@
       <c r="D31" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="27">
-        <f>[22]Лист1!$E$30</f>
-        <v>6255857</v>
-      </c>
-      <c r="F31" s="27">
-        <f>[22]Лист1!$F$30</f>
-        <v>6692357</v>
-      </c>
-      <c r="G31" s="12">
-        <f>100%-F31/[22]Лист1!$A$19</f>
-        <v>0.645907037037037</v>
+      <c r="E31" s="33">
+        <f>[23]Паспорт!$E$32</f>
+        <v>5471145</v>
+      </c>
+      <c r="F31" s="24">
+        <f>[23]Паспорт!$F$32</f>
+        <v>5691052</v>
+      </c>
+      <c r="G31" s="29">
+        <f>[23]Паспорт!$I$32</f>
+        <v>0.66124690476190473</v>
       </c>
       <c r="H31" s="13">
-        <f>[22]Лист1!$A$19-F31</f>
-        <v>12207643</v>
+        <f>[23]Паспорт!$A$21-F31</f>
+        <v>11108948</v>
       </c>
       <c r="I31" s="26">
-        <f t="shared" ref="I31:I44" si="2">E31/F31</f>
-        <v>0.93477634262487785</v>
+        <f t="shared" si="1"/>
+        <v>0.96135916522990827</v>
       </c>
       <c r="J31" s="11"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
@@ -3578,7 +3740,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>12</v>
@@ -3586,25 +3748,25 @@
       <c r="D32" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="32">
-        <f>[23]Лист1!$E$31</f>
-        <v>2504390</v>
+      <c r="E32" s="27">
+        <f>[25]Лист1!$E$30</f>
+        <v>6255857</v>
       </c>
       <c r="F32" s="27">
-        <f>[23]Лист1!$F$31</f>
-        <v>7080317</v>
+        <f>[25]Лист1!$F$30</f>
+        <v>6692357</v>
       </c>
       <c r="G32" s="12">
-        <f>100%-F32/[23]Лист1!$A$20</f>
-        <v>0.57855255952380946</v>
+        <f>100%-F32/[25]Лист1!$A$19</f>
+        <v>0.645907037037037</v>
       </c>
       <c r="H32" s="13">
-        <f>[23]Лист1!$A$20-F32</f>
-        <v>9719683</v>
+        <f>[25]Лист1!$A$19-F32</f>
+        <v>12207643</v>
       </c>
       <c r="I32" s="26">
-        <f t="shared" si="2"/>
-        <v>0.35371156404437826</v>
+        <f t="shared" si="1"/>
+        <v>0.93477634262487785</v>
       </c>
       <c r="J32" s="11"/>
     </row>
@@ -3614,36 +3776,32 @@
         <v>29</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="27">
-        <f>[24]Лист1!$E$37</f>
-        <v>10166286</v>
-      </c>
-      <c r="F33" s="27">
-        <f>[24]Лист1!$F$37</f>
-        <v>11113073</v>
-      </c>
-      <c r="G33" s="12">
-        <f>100%-F33/[24]Лист1!$A$24</f>
-        <v>0.41200671957671953</v>
-      </c>
-      <c r="H33" s="13">
-        <f>[24]Лист1!$A$24-F33</f>
-        <v>7786927</v>
+        <v>44</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="33">
+        <f>[26]Паспорт!$E$32</f>
+        <v>6375401</v>
+      </c>
+      <c r="F33" s="33">
+        <f>[26]Паспорт!$F$32</f>
+        <v>6856227</v>
+      </c>
+      <c r="G33" s="31">
+        <f>100%-F33/[26]Паспорт!$A$21</f>
+        <v>0.59189124999999998</v>
+      </c>
+      <c r="H33" s="30">
+        <f>[26]Паспорт!$A$21-F33</f>
+        <v>9943773</v>
       </c>
       <c r="I33" s="26">
-        <f t="shared" si="2"/>
-        <v>0.91480421302010706</v>
+        <f t="shared" si="1"/>
+        <v>0.92987017495190871</v>
       </c>
       <c r="J33" s="11"/>
-      <c r="K33" s="14"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
@@ -3651,7 +3809,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>12</v>
@@ -3659,28 +3817,28 @@
       <c r="D34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="28">
-        <f>[25]Лист1!$E$35</f>
-        <v>4644685</v>
-      </c>
-      <c r="F34" s="24">
-        <f>[25]Лист1!$F$35</f>
-        <v>8385402</v>
-      </c>
-      <c r="G34" s="31">
-        <f>100%-F34/[25]Лист1!$A$24</f>
-        <v>0.40104271428571425</v>
-      </c>
-      <c r="H34" s="30">
-        <f>[25]Лист1!$A$24-F34</f>
-        <v>5614598</v>
+      <c r="E34" s="32">
+        <f>[27]Лист1!$E$31</f>
+        <v>2504390</v>
+      </c>
+      <c r="F34" s="27">
+        <f>[27]Лист1!$F$31</f>
+        <v>7080317</v>
+      </c>
+      <c r="G34" s="12">
+        <f>100%-F34/[27]Лист1!$A$20</f>
+        <v>0.57855255952380946</v>
+      </c>
+      <c r="H34" s="13">
+        <f>[27]Лист1!$A$20-F34</f>
+        <v>9719683</v>
       </c>
       <c r="I34" s="26">
-        <f t="shared" si="2"/>
-        <v>0.55390129179256997</v>
+        <f t="shared" si="1"/>
+        <v>0.35371156404437826</v>
       </c>
       <c r="J34" s="11"/>
-      <c r="K34" s="16"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
@@ -3688,33 +3846,31 @@
         <v>31</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="32">
-        <f>[26]Лист1!$E$34</f>
-        <v>9557286</v>
+        <v>59</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="27">
+        <f>[28]Лист1!$E$31</f>
+        <v>6911216</v>
       </c>
       <c r="F35" s="27">
-        <f>[26]Лист1!$F$34</f>
-        <v>12266723</v>
+        <f>[28]Лист1!$F$31</f>
+        <v>7273905</v>
       </c>
       <c r="G35" s="12">
-        <f>100%-F35/[26]Лист1!$A$19</f>
-        <v>0.26983791666666668</v>
+        <f>100%-F35/[28]Лист1!$A$20</f>
+        <v>0.56702946428571432</v>
       </c>
       <c r="H35" s="13">
-        <f>[26]Лист1!$A$19-F35</f>
-        <v>4533277</v>
+        <f>[28]Лист1!$A$20-F35</f>
+        <v>9526095</v>
       </c>
       <c r="I35" s="26">
-        <f t="shared" si="2"/>
-        <v>0.77912299804927532</v>
+        <f t="shared" si="1"/>
+        <v>0.95013833697305639</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="14"/>
@@ -3725,7 +3881,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>12</v>
@@ -3733,28 +3889,28 @@
       <c r="D36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="24">
-        <f>[27]Лист1!$E$39</f>
-        <v>11248736</v>
-      </c>
-      <c r="F36" s="24">
-        <f>[27]Лист1!$F$39</f>
-        <v>12230442</v>
-      </c>
-      <c r="G36" s="29">
-        <f>100%-F36/[27]Лист1!$A$25</f>
-        <v>0.32799769230769227</v>
-      </c>
-      <c r="H36" s="30">
-        <f>[27]Лист1!$A$25-F36</f>
-        <v>5969558</v>
+      <c r="E36" s="27">
+        <f>[29]Лист1!$E$41</f>
+        <v>10299150</v>
+      </c>
+      <c r="F36" s="27">
+        <f>[29]Лист1!$F$41</f>
+        <v>11254225</v>
+      </c>
+      <c r="G36" s="12">
+        <f>100%-F36/[29]Лист1!$A$24</f>
+        <v>0.40453835978835984</v>
+      </c>
+      <c r="H36" s="13">
+        <f>[29]Лист1!$A$24-F36</f>
+        <v>7645775</v>
       </c>
       <c r="I36" s="26">
-        <f t="shared" si="2"/>
-        <v>0.91973258202769781</v>
+        <f t="shared" si="1"/>
+        <v>0.91513631547263363</v>
       </c>
       <c r="J36" s="11"/>
-      <c r="K36" s="16"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
@@ -3762,7 +3918,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>12</v>
@@ -3770,28 +3926,28 @@
       <c r="D37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="32">
-        <f>[28]Лист1!$E$31</f>
-        <v>5733720</v>
-      </c>
-      <c r="F37" s="27">
-        <f>[28]Лист1!$F$31</f>
-        <v>9710255</v>
-      </c>
-      <c r="G37" s="12">
-        <f>100%-F37/[28]Лист1!$A$20</f>
-        <v>0.30641035714285714</v>
-      </c>
-      <c r="H37" s="13">
-        <f>[28]Лист1!$A$20-F37</f>
-        <v>4289745</v>
+      <c r="E37" s="28">
+        <f>[30]Лист1!$E$35</f>
+        <v>4644685</v>
+      </c>
+      <c r="F37" s="24">
+        <f>[30]Лист1!$F$35</f>
+        <v>8385402</v>
+      </c>
+      <c r="G37" s="31">
+        <f>100%-F37/[30]Лист1!$A$24</f>
+        <v>0.40104271428571425</v>
+      </c>
+      <c r="H37" s="30">
+        <f>[30]Лист1!$A$24-F37</f>
+        <v>5614598</v>
       </c>
       <c r="I37" s="26">
-        <f t="shared" si="2"/>
-        <v>0.59048088850395797</v>
+        <f t="shared" si="1"/>
+        <v>0.55390129179256997</v>
       </c>
       <c r="J37" s="11"/>
-      <c r="K37" s="14"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
@@ -3799,7 +3955,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>12</v>
@@ -3808,24 +3964,24 @@
         <v>13</v>
       </c>
       <c r="E38" s="24">
-        <f>[29]Лист1!$E$31</f>
-        <v>15018451</v>
+        <f>[31]Лист1!$E$39</f>
+        <v>11248736</v>
       </c>
       <c r="F38" s="24">
-        <f>[29]Лист1!$F$31</f>
-        <v>15700031</v>
+        <f>[31]Лист1!$F$39</f>
+        <v>12230442</v>
       </c>
       <c r="G38" s="29">
-        <f>100%-F38/[29]Лист1!$A$20</f>
-        <v>6.5474345238095255E-2</v>
+        <f>100%-F38/[31]Лист1!$A$25</f>
+        <v>0.32799769230769227</v>
       </c>
       <c r="H38" s="30">
-        <f>[29]Лист1!$A$20-F38</f>
-        <v>1099969</v>
+        <f>[31]Лист1!$A$25-F38</f>
+        <v>5969558</v>
       </c>
       <c r="I38" s="26">
-        <f t="shared" si="2"/>
-        <v>0.9565873468657482</v>
+        <f t="shared" si="1"/>
+        <v>0.91973258202769781</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="16"/>
@@ -3836,7 +3992,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>12</v>
@@ -3844,28 +4000,28 @@
       <c r="D39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="24">
-        <f>[30]Лист1!$E$31</f>
-        <v>11951372</v>
-      </c>
-      <c r="F39" s="24">
-        <f>[30]Лист1!$F$31</f>
-        <v>13138354</v>
-      </c>
-      <c r="G39" s="29">
-        <f>100%-F39/[30]Лист1!$A$20</f>
-        <v>0.21795511904761899</v>
-      </c>
-      <c r="H39" s="30">
-        <f>[30]Лист1!$A$20-F39</f>
-        <v>3661646</v>
+      <c r="E39" s="32">
+        <f>[32]Лист1!$E$34</f>
+        <v>9557286</v>
+      </c>
+      <c r="F39" s="27">
+        <f>[32]Лист1!$F$34</f>
+        <v>12266723</v>
+      </c>
+      <c r="G39" s="12">
+        <f>100%-F39/[32]Лист1!$A$19</f>
+        <v>0.26983791666666668</v>
+      </c>
+      <c r="H39" s="13">
+        <f>[32]Лист1!$A$19-F39</f>
+        <v>4533277</v>
       </c>
       <c r="I39" s="26">
-        <f t="shared" si="2"/>
-        <v>0.90965519729488187</v>
+        <f t="shared" si="1"/>
+        <v>0.77912299804927532</v>
       </c>
       <c r="J39" s="11"/>
-      <c r="K39" s="16"/>
+      <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
@@ -3873,7 +4029,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>12</v>
@@ -3882,24 +4038,24 @@
         <v>13</v>
       </c>
       <c r="E40" s="32">
-        <f>[31]Лист1!$E$31</f>
-        <v>5883192</v>
+        <f>[33]Лист1!$E$31</f>
+        <v>6585300</v>
       </c>
       <c r="F40" s="27">
-        <f>[31]Лист1!$F$31</f>
-        <v>14305517</v>
+        <f>[33]Лист1!$F$31</f>
+        <v>10601261</v>
       </c>
       <c r="G40" s="12">
-        <f>100%-F40/[31]Лист1!$A$20</f>
-        <v>0.14848113095238091</v>
+        <f>100%-F40/[33]Лист1!$A$20</f>
+        <v>0.24276707142857146</v>
       </c>
       <c r="H40" s="13">
-        <f>[31]Лист1!$A$20-F40</f>
-        <v>2494483</v>
+        <f>[33]Лист1!$A$20-F40</f>
+        <v>3398739</v>
       </c>
       <c r="I40" s="26">
-        <f t="shared" si="2"/>
-        <v>0.41125336469838875</v>
+        <f t="shared" si="1"/>
+        <v>0.62118081990434915</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="14"/>
@@ -3909,73 +4065,73 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="36" t="s">
+      <c r="B41" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="32">
-        <f>[32]Лист1!$E$35</f>
-        <v>10130281</v>
-      </c>
-      <c r="F41" s="37">
-        <f>[32]Лист1!$F$35</f>
-        <v>15078890</v>
-      </c>
-      <c r="G41" s="38">
-        <f>100%-F41/[32]Лист1!$A$20</f>
-        <v>0.10244702380952386</v>
-      </c>
-      <c r="H41" s="43">
-        <f>[32]Лист1!$A$20-F41</f>
-        <v>1721110</v>
-      </c>
-      <c r="I41" s="48">
-        <f t="shared" si="2"/>
-        <v>0.67181874793171115</v>
-      </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="14"/>
+      <c r="E41" s="24">
+        <f>[34]Лист1!$E$36</f>
+        <v>12908414</v>
+      </c>
+      <c r="F41" s="24">
+        <f>[34]Лист1!$F$36</f>
+        <v>14155800</v>
+      </c>
+      <c r="G41" s="25">
+        <f>100%-F41/[34]Лист1!$A$20</f>
+        <v>0.15739285714285711</v>
+      </c>
+      <c r="H41" s="24">
+        <f>[34]Лист1!$A$20-F41</f>
+        <v>2644200</v>
+      </c>
+      <c r="I41" s="26">
+        <f t="shared" si="1"/>
+        <v>0.91188163155738289</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="27">
-        <f>[33]Лист1!$E$30</f>
-        <v>17757370</v>
-      </c>
-      <c r="F42" s="27">
-        <f>[33]Лист1!$F$30</f>
-        <v>21473493</v>
-      </c>
-      <c r="G42" s="19">
-        <f>100%-F42/[33]Лист1!$A$19</f>
-        <v>-2.2547285714285659E-2</v>
-      </c>
-      <c r="H42" s="20">
-        <f>[33]Лист1!$A$19-F42</f>
-        <v>-473493</v>
-      </c>
-      <c r="I42" s="26">
-        <f t="shared" si="2"/>
-        <v>0.82694371148652901</v>
-      </c>
-      <c r="J42" s="11"/>
+      <c r="E42" s="32">
+        <f>[35]Лист1!$E$35</f>
+        <v>10130281</v>
+      </c>
+      <c r="F42" s="37">
+        <f>[35]Лист1!$F$35</f>
+        <v>15078890</v>
+      </c>
+      <c r="G42" s="38">
+        <f>100%-F42/[35]Лист1!$A$20</f>
+        <v>0.10244702380952386</v>
+      </c>
+      <c r="H42" s="43">
+        <f>[35]Лист1!$A$20-F42</f>
+        <v>1721110</v>
+      </c>
+      <c r="I42" s="48">
+        <f t="shared" si="1"/>
+        <v>0.67181874793171115</v>
+      </c>
+      <c r="J42" s="40"/>
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3984,7 +4140,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>12</v>
@@ -3992,36 +4148,36 @@
       <c r="D43" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="28">
-        <f>[34]Лист1!$E$30</f>
-        <v>12298205</v>
-      </c>
-      <c r="F43" s="24">
-        <f>[34]Лист1!$F$30</f>
-        <v>20393108</v>
-      </c>
-      <c r="G43" s="25">
-        <f>100%-F43/[34]Лист1!$A$19</f>
-        <v>-4.0464693877551028E-2</v>
-      </c>
-      <c r="H43" s="24">
-        <f>[34]Лист1!$A$19-F43</f>
-        <v>-793108</v>
+      <c r="E43" s="32">
+        <f>[36]Лист1!$E$31</f>
+        <v>6965028</v>
+      </c>
+      <c r="F43" s="27">
+        <f>[36]Лист1!$F$31</f>
+        <v>15426229</v>
+      </c>
+      <c r="G43" s="19">
+        <f>100%-F43/[36]Лист1!$A$20</f>
+        <v>8.1772083333333301E-2</v>
+      </c>
+      <c r="H43" s="20">
+        <f>[36]Лист1!$A$20-F43</f>
+        <v>1373771</v>
       </c>
       <c r="I43" s="26">
-        <f t="shared" si="2"/>
-        <v>0.60305692491796736</v>
+        <f t="shared" si="1"/>
+        <v>0.45150554941197879</v>
       </c>
       <c r="J43" s="11"/>
-      <c r="K43" s="16"/>
-    </row>
-    <row r="44" spans="1:11" s="41" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>12</v>
@@ -4029,41 +4185,81 @@
       <c r="D44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="27">
-        <f>[35]Лист1!$E$29</f>
-        <v>29865621</v>
-      </c>
-      <c r="F44" s="27">
-        <f>[35]Лист1!$F$29</f>
-        <v>31213618</v>
-      </c>
-      <c r="G44" s="19">
-        <f>100%-F44/[35]Лист1!$A$15</f>
-        <v>-0.85795345238095244</v>
-      </c>
-      <c r="H44" s="13">
-        <f>[35]Лист1!$A$15-F44</f>
-        <v>-14413618</v>
+      <c r="E44" s="24">
+        <f>[37]Лист1!$E$36</f>
+        <v>15646925</v>
+      </c>
+      <c r="F44" s="24">
+        <f>[37]Лист1!$F$36</f>
+        <v>16344633</v>
+      </c>
+      <c r="G44" s="25">
+        <f>100%-F44/[37]Лист1!$A$20</f>
+        <v>2.7105178571428579E-2</v>
+      </c>
+      <c r="H44" s="24">
+        <f>[37]Лист1!$A$20-F44</f>
+        <v>455367</v>
       </c>
       <c r="I44" s="26">
-        <f t="shared" si="2"/>
-        <v>0.95681381760999318</v>
+        <f t="shared" si="1"/>
+        <v>0.95731271543386753</v>
       </c>
       <c r="J44" s="11"/>
-      <c r="K44" s="14"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E46" s="45" t="s">
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="23">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="28">
+        <f>[24]Лист1!$E$30</f>
+        <v>12298205</v>
+      </c>
+      <c r="F45" s="24">
+        <f>[24]Лист1!$F$30</f>
+        <v>20393108</v>
+      </c>
+      <c r="G45" s="25">
+        <f>100%-F45/[24]Лист1!$A$19</f>
+        <v>-4.0464693877551028E-2</v>
+      </c>
+      <c r="H45" s="24">
+        <f>[24]Лист1!$A$19-F45</f>
+        <v>-793108</v>
+      </c>
+      <c r="I45" s="26">
+        <f t="shared" si="1"/>
+        <v>0.60305692491796736</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:K19" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="6" showButton="0"/>
-    <sortState ref="A6:K44">
+    <sortState ref="A6:K45">
       <sortCondition descending="1" ref="G3:G19"/>
     </sortState>
   </autoFilter>
@@ -4081,7 +4277,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4111,16 +4307,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="72" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -4129,26 +4325,26 @@
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="62" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="78" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="61"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4161,9 +4357,9 @@
       <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="67"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -4181,11 +4377,11 @@
         <v>13</v>
       </c>
       <c r="E3" s="28">
-        <f>[36]Лист1!$E$32</f>
+        <f>[38]Лист1!$E$32</f>
         <v>8848812</v>
       </c>
       <c r="F3" s="24">
-        <f>[36]Лист1!$F$32</f>
+        <f>[38]Лист1!$F$32</f>
         <v>18119313</v>
       </c>
       <c r="G3" s="29">

--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Таблица выработки  ф-тов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49265929-FAAA-455B-B973-48EC0D57A5DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F03E5-B6E4-4CFC-804E-212BE79081CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,12 @@
     <externalReference r:id="rId38"/>
     <externalReference r:id="rId39"/>
     <externalReference r:id="rId40"/>
+    <externalReference r:id="rId41"/>
+    <externalReference r:id="rId42"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$K$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$J$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$J$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t>№п/п</t>
   </si>
@@ -269,10 +271,19 @@
     <t xml:space="preserve"> "Брест колоски" ХXI-В-28-2.1-500-14</t>
   </si>
   <si>
-    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.06.2020 г.</t>
-  </si>
-  <si>
     <t>Забрали</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>XXI-КПМ-30-1-500-4 (Аква Мятая)</t>
+  </si>
+  <si>
+    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.07.2020 г.</t>
+  </si>
+  <si>
+    <t>Ice Cube</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1573,7 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="21">
           <cell r="A21">
@@ -1571,27 +1582,27 @@
         </row>
         <row r="32">
           <cell r="E32">
-            <v>5471145</v>
+            <v>5675265</v>
           </cell>
           <cell r="F32">
-            <v>5691052</v>
+            <v>5897033</v>
           </cell>
           <cell r="I32">
-            <v>0.66124690476190473</v>
+            <v>0.648986130952381</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1609,15 +1620,15 @@
       <sheetData sheetId="0">
         <row r="19">
           <cell r="A19">
-            <v>19600000</v>
+            <v>18900000</v>
           </cell>
         </row>
         <row r="30">
           <cell r="E30">
-            <v>12298205</v>
+            <v>6255857</v>
           </cell>
           <cell r="F30">
-            <v>20393108</v>
+            <v>6692357</v>
           </cell>
         </row>
       </sheetData>
@@ -1629,37 +1640,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>18900000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>6255857</v>
-          </cell>
-          <cell r="F30">
-            <v>6692357</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1710,6 +1690,37 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>2504390</v>
+          </cell>
+          <cell r="F31">
+            <v>7080317</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1727,10 +1738,10 @@
         </row>
         <row r="31">
           <cell r="E31">
-            <v>2504390</v>
+            <v>6911216</v>
           </cell>
           <cell r="F31">
-            <v>7080317</v>
+            <v>7273905</v>
           </cell>
         </row>
       </sheetData>
@@ -1751,17 +1762,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>6911216</v>
-          </cell>
-          <cell r="F31">
-            <v>7273905</v>
+        <row r="24">
+          <cell r="A24">
+            <v>18900000</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>10299150</v>
+          </cell>
+          <cell r="F41">
+            <v>11254225</v>
           </cell>
         </row>
       </sheetData>
@@ -1784,15 +1795,15 @@
       <sheetData sheetId="0">
         <row r="24">
           <cell r="A24">
-            <v>18900000</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>10299150</v>
-          </cell>
-          <cell r="F41">
-            <v>11254225</v>
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>4644685</v>
+          </cell>
+          <cell r="F35">
+            <v>8385402</v>
           </cell>
         </row>
       </sheetData>
@@ -1839,17 +1850,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="24">
-          <cell r="A24">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>4644685</v>
-          </cell>
-          <cell r="F35">
-            <v>8385402</v>
+        <row r="25">
+          <cell r="A25">
+            <v>18200000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
@@ -1870,17 +1881,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="25">
-          <cell r="A25">
-            <v>18200000</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="19">
+          <cell r="A19">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>9557286</v>
+          </cell>
+          <cell r="F34">
+            <v>12266723</v>
           </cell>
         </row>
       </sheetData>
@@ -1901,17 +1912,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>9557286</v>
-          </cell>
-          <cell r="F34">
-            <v>12266723</v>
+        <row r="20">
+          <cell r="A20">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>6585300</v>
+          </cell>
+          <cell r="F31">
+            <v>10601261</v>
           </cell>
         </row>
       </sheetData>
@@ -1934,15 +1945,15 @@
       <sheetData sheetId="0">
         <row r="20">
           <cell r="A20">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>6585300</v>
-          </cell>
-          <cell r="F31">
-            <v>10601261</v>
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>12908414</v>
+          </cell>
+          <cell r="F36">
+            <v>14155800</v>
           </cell>
         </row>
       </sheetData>
@@ -1968,17 +1979,17 @@
             <v>16800000</v>
           </cell>
         </row>
-        <row r="36">
-          <cell r="E36">
-            <v>12908414</v>
-          </cell>
-          <cell r="F36">
-            <v>14155800</v>
+        <row r="35">
+          <cell r="E35">
+            <v>11163985</v>
+          </cell>
+          <cell r="F35">
+            <v>16149768</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1999,12 +2010,12 @@
             <v>16800000</v>
           </cell>
         </row>
-        <row r="35">
-          <cell r="E35">
-            <v>10130281</v>
-          </cell>
-          <cell r="F35">
-            <v>15078890</v>
+        <row r="31">
+          <cell r="E31">
+            <v>6965028</v>
+          </cell>
+          <cell r="F31">
+            <v>15426229</v>
           </cell>
         </row>
       </sheetData>
@@ -2030,12 +2041,12 @@
             <v>16800000</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="E31">
-            <v>6965028</v>
-          </cell>
-          <cell r="F31">
-            <v>15426229</v>
+        <row r="36">
+          <cell r="E36">
+            <v>15646925</v>
+          </cell>
+          <cell r="F36">
+            <v>16344633</v>
           </cell>
         </row>
       </sheetData>
@@ -2056,17 +2067,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>15646925</v>
-          </cell>
-          <cell r="F36">
-            <v>16344633</v>
+        <row r="32">
+          <cell r="E32">
+            <v>8848812</v>
+          </cell>
+          <cell r="F32">
+            <v>18119313</v>
           </cell>
         </row>
       </sheetData>
@@ -2081,23 +2087,101 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="32">
           <cell r="E32">
-            <v>8848812</v>
+            <v>436272</v>
           </cell>
           <cell r="F32">
-            <v>18119313</v>
+            <v>462924</v>
+          </cell>
+          <cell r="H32">
+            <v>16337076</v>
+          </cell>
+          <cell r="I32">
+            <v>0.972445</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Охладитель плунжера"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="32">
+          <cell r="E32">
+            <v>745790</v>
+          </cell>
+          <cell r="F32">
+            <v>820325</v>
+          </cell>
+          <cell r="H32">
+            <v>15979675</v>
+          </cell>
+          <cell r="I32">
+            <v>0.95117113095238093</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2149,6 +2233,58 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="32">
+          <cell r="E32">
+            <v>0</v>
+          </cell>
+          <cell r="F32">
+            <v>0</v>
+          </cell>
+          <cell r="H32">
+            <v>16800000</v>
+          </cell>
+          <cell r="I32">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2224,28 +2360,28 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="32">
           <cell r="E32">
-            <v>1019392</v>
+            <v>2726288</v>
           </cell>
           <cell r="F32">
-            <v>1071619</v>
+            <v>2844075</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2700,13 +2836,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2726,7 +2862,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -2827,7 +2963,7 @@
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
-        <f t="shared" ref="A6:A45" si="0">A5+1</f>
+        <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="46" t="s">
@@ -2850,7 +2986,7 @@
         <v>18900000</v>
       </c>
       <c r="I6" s="26" t="e">
-        <f t="shared" ref="I6:I45" si="1">E6/F6</f>
+        <f>E6/F6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J6" s="11"/>
@@ -2858,7 +2994,7 @@
     </row>
     <row r="7" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="51" t="s">
@@ -2883,933 +3019,931 @@
         <v>13724744</v>
       </c>
       <c r="I7" s="55">
-        <f t="shared" si="1"/>
+        <f>E7/F7</f>
         <v>0.8972011509285901</v>
       </c>
       <c r="J7" s="56"/>
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="A8" s="23"/>
       <c r="B8" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="24">
+        <f>[38]Паспорт!$E$32</f>
+        <v>436272</v>
+      </c>
+      <c r="F8" s="24">
+        <f>[38]Паспорт!$F$32</f>
+        <v>462924</v>
+      </c>
+      <c r="G8" s="25">
+        <f>[38]Паспорт!$I$32</f>
+        <v>0.972445</v>
+      </c>
+      <c r="H8" s="24">
+        <f>[38]Паспорт!$H$32</f>
+        <v>16337076</v>
+      </c>
+      <c r="I8" s="26">
+        <f>E8/F8</f>
+        <v>0.94242683464240351</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <f>A8+1</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E9" s="33">
         <f>[2]Паспорт!$E$32</f>
         <v>468000</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F9" s="24">
         <f>[2]Паспорт!$F$32</f>
         <v>521755</v>
       </c>
-      <c r="G8" s="25">
-        <f>100%-F8/[2]Паспорт!$A$21</f>
+      <c r="G9" s="25">
+        <f>100%-F9/[2]Паспорт!$A$21</f>
         <v>0.96611980519480523</v>
       </c>
-      <c r="H8" s="24">
-        <f>[2]Паспорт!$A$21-F8</f>
+      <c r="H9" s="24">
+        <f>[2]Паспорт!$A$21-F9</f>
         <v>14878245</v>
       </c>
-      <c r="I8" s="26">
-        <f t="shared" si="1"/>
+      <c r="I9" s="26">
+        <f>E9/F9</f>
         <v>0.89697271707985549</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="51" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="57">
+      <c r="C10" s="52"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="57">
         <f>[3]Лист1!$E$31</f>
         <v>449036</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F10" s="57">
         <f>[3]Лист1!$F$31</f>
         <v>524968</v>
       </c>
-      <c r="G9" s="58">
-        <f>100%-F9/15400000</f>
+      <c r="G10" s="58">
+        <f>100%-F10/15400000</f>
         <v>0.96591116883116879</v>
       </c>
-      <c r="H9" s="59">
-        <f>15400000-F9</f>
+      <c r="H10" s="59">
+        <f>15400000-F10</f>
         <v>14875032</v>
       </c>
-      <c r="I9" s="55">
-        <f t="shared" si="1"/>
+      <c r="I10" s="55">
+        <f>E10/F10</f>
         <v>0.85535880282226728</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="46" t="s">
+      <c r="J10" s="56"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <f>A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="D11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="27">
         <f>[4]Паспорт!$E$31</f>
         <v>618648</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F11" s="27">
         <f>[4]Паспорт!$F$31</f>
         <v>667526</v>
       </c>
-      <c r="G10" s="19">
-        <f>100%-F10/[4]Паспорт!$A$20</f>
+      <c r="G11" s="19">
+        <f>100%-F11/[4]Паспорт!$A$20</f>
         <v>0.96026630952380954</v>
       </c>
-      <c r="H10" s="20">
-        <f>[4]Паспорт!$A$20-F10</f>
+      <c r="H11" s="20">
+        <f>[4]Паспорт!$A$20-F11</f>
         <v>16132474</v>
       </c>
-      <c r="I10" s="26">
-        <f t="shared" si="1"/>
+      <c r="I11" s="26">
+        <f>E11/F11</f>
         <v>0.92677738395208575</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="47" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <f>A11+1</f>
+        <v>4</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E12" s="37">
         <f>[5]Паспорт!$E$37</f>
         <v>491400</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F12" s="37">
         <f>[5]Паспорт!$F$37</f>
         <v>577433</v>
       </c>
-      <c r="G11" s="38">
-        <f>100%-F11/[5]Паспорт!$A$21</f>
+      <c r="G12" s="38">
+        <f>100%-F12/[5]Паспорт!$A$21</f>
         <v>0.95658398496240604</v>
       </c>
-      <c r="H11" s="43">
-        <f>[5]Паспорт!$A$21-F11</f>
+      <c r="H12" s="43">
+        <f>[5]Паспорт!$A$21-F12</f>
         <v>12722567</v>
       </c>
-      <c r="I11" s="39">
-        <f t="shared" si="1"/>
+      <c r="I12" s="39">
+        <f>E12/F12</f>
         <v>0.85100782255257323</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="37">
-        <f>[6]Паспорт!$E$32</f>
-        <v>1019392</v>
-      </c>
-      <c r="F12" s="27">
-        <f>[6]Паспорт!$F$32</f>
-        <v>1071619</v>
-      </c>
-      <c r="G12" s="19">
-        <f>100%-F12/[7]Лист1!$A$19</f>
-        <v>0.94897052380952385</v>
-      </c>
-      <c r="H12" s="20">
-        <f>[7]Лист1!$A$19-F12</f>
-        <v>19928381</v>
-      </c>
-      <c r="I12" s="26">
-        <f t="shared" si="1"/>
-        <v>0.95126346210733481</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="14"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>A11+1</f>
+        <v>4</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="33">
+        <f>[39]Паспорт!$E$32</f>
+        <v>745790</v>
+      </c>
+      <c r="F13" s="24">
+        <f>[39]Паспорт!$F$32</f>
+        <v>820325</v>
+      </c>
+      <c r="G13" s="25">
+        <f>[39]Паспорт!$I$32</f>
+        <v>0.95117113095238093</v>
+      </c>
+      <c r="H13" s="24">
+        <f>[39]Паспорт!$H$32</f>
+        <v>15979675</v>
+      </c>
+      <c r="I13" s="26">
+        <f>E13/F13</f>
+        <v>0.90913967025264375</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <f>A13+1</f>
+        <v>5</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="37">
+        <f>[6]Паспорт!$E$32</f>
+        <v>2726288</v>
+      </c>
+      <c r="F14" s="27">
+        <f>[6]Паспорт!$F$32</f>
+        <v>2844075</v>
+      </c>
+      <c r="G14" s="19">
+        <f>100%-F14/[7]Лист1!$A$19</f>
+        <v>0.86456785714285711</v>
+      </c>
+      <c r="H14" s="20">
+        <f>[7]Лист1!$A$19-F14</f>
+        <v>18155925</v>
+      </c>
+      <c r="I14" s="26">
+        <f>E14/F14</f>
+        <v>0.95858512873254043</v>
+      </c>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <f>A14+1</f>
+        <v>6</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E15" s="27">
         <f>[8]Паспорт!$E$32</f>
         <v>833490</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F15" s="27">
         <f>[8]Паспорт!$F$32</f>
         <v>911671</v>
       </c>
-      <c r="G13" s="19">
-        <f>100%-F13/[8]Паспорт!$A$21</f>
+      <c r="G15" s="19">
+        <f>100%-F15/[8]Паспорт!$A$21</f>
         <v>0.94573386904761902</v>
       </c>
-      <c r="H13" s="20">
-        <f>[8]Паспорт!$A$21-F13</f>
+      <c r="H15" s="20">
+        <f>[8]Паспорт!$A$21-F15</f>
         <v>15888329</v>
       </c>
-      <c r="I13" s="26">
-        <f t="shared" si="1"/>
+      <c r="I15" s="26">
+        <f>E15/F15</f>
         <v>0.91424428329956753</v>
       </c>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="46" t="s">
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <f>A15+1</f>
+        <v>7</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E16" s="27">
         <v>763476</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F16" s="27">
         <v>975569</v>
       </c>
-      <c r="G14" s="19">
-        <f>100%-F14/16800000</f>
+      <c r="G16" s="12">
+        <f>100%-F16/16800000</f>
         <v>0.94193041666666666</v>
       </c>
-      <c r="H14" s="20">
-        <f>16800000-F14</f>
+      <c r="H16" s="13">
+        <f>16800000-F16</f>
         <v>15824431</v>
       </c>
-      <c r="I14" s="26">
-        <f t="shared" si="1"/>
+      <c r="I16" s="26">
+        <f>E16/F16</f>
         <v>0.78259559293089465</v>
       </c>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="46" t="s">
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <f>A16+1</f>
+        <v>8</v>
+      </c>
+      <c r="B17" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="27">
+      <c r="C17" s="10"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="27">
         <f>[9]Паспорт!$E$32</f>
         <v>1296300</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F17" s="27">
         <f>[9]Паспорт!$F$32</f>
         <v>1399851</v>
       </c>
-      <c r="G15" s="19">
-        <f>100%-F15/[9]Паспорт!$A$21</f>
+      <c r="G17" s="12">
+        <f>100%-F17/[9]Паспорт!$A$21</f>
         <v>0.92308510989010983</v>
       </c>
-      <c r="H15" s="20">
-        <f>[9]Паспорт!$A$21-F15</f>
+      <c r="H17" s="13">
+        <f>[9]Паспорт!$A$21-F17</f>
         <v>16800149</v>
       </c>
-      <c r="I15" s="26">
-        <f t="shared" si="1"/>
+      <c r="I17" s="26">
+        <f>E17/F17</f>
         <v>0.92602712717282054</v>
       </c>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <f t="shared" si="0"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <f>A17+1</f>
+        <v>9</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E18" s="49">
         <f>[10]Лист1!$E$30</f>
         <v>1140480</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F18" s="49">
         <f>[10]Лист1!$F$30</f>
         <v>1411002</v>
       </c>
-      <c r="G16" s="12">
-        <f>100%-F16/[10]Лист1!$A$19</f>
+      <c r="G18" s="12">
+        <f>100%-F18/[10]Лист1!$A$19</f>
         <v>0.9224724175824176</v>
       </c>
-      <c r="H16" s="13">
-        <f>[10]Лист1!$A$19-F16</f>
+      <c r="H18" s="13">
+        <f>[10]Лист1!$A$19-F18</f>
         <v>16788998</v>
       </c>
-      <c r="I16" s="26">
-        <f t="shared" si="1"/>
+      <c r="I18" s="26">
+        <f>E18/F18</f>
         <v>0.80827667147176263</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <f t="shared" si="0"/>
+      <c r="J18" s="11"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <f>A18+1</f>
+        <v>10</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="27">
+      <c r="E19" s="27">
         <f>[11]Лист1!$E$31</f>
         <v>986442</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F19" s="27">
         <f>[11]Лист1!$F$31</f>
         <v>1121670</v>
       </c>
-      <c r="G17" s="12">
-        <f>100%-F17/[11]Лист1!$A$20</f>
+      <c r="G19" s="12">
+        <f>100%-F19/[11]Лист1!$A$20</f>
         <v>0.91097857142857142</v>
       </c>
-      <c r="H17" s="13">
-        <f>[11]Лист1!$A$20-F17</f>
+      <c r="H19" s="13">
+        <f>[11]Лист1!$A$20-F19</f>
         <v>11478330</v>
       </c>
-      <c r="I17" s="26">
-        <f t="shared" si="1"/>
+      <c r="I19" s="26">
+        <f>E19/F19</f>
         <v>0.87944047714568452</v>
       </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="46" t="s">
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" s="22" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <f>A19+1</f>
+        <v>11</v>
+      </c>
+      <c r="B20" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E20" s="27">
         <f>[12]Лист1!$E$32</f>
         <v>1036020</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F20" s="27">
         <f>[12]Лист1!$F$32</f>
         <v>1292677</v>
       </c>
-      <c r="G18" s="12">
-        <f>100%-F18/[12]Лист1!$A$21</f>
+      <c r="G20" s="12">
+        <f>100%-F20/[12]Лист1!$A$21</f>
         <v>0.90766592857142858</v>
       </c>
-      <c r="H18" s="13">
-        <f>[12]Лист1!$A$21-F18</f>
+      <c r="H20" s="13">
+        <f>[12]Лист1!$A$21-F20</f>
         <v>12707323</v>
       </c>
-      <c r="I18" s="26">
-        <f t="shared" si="1"/>
+      <c r="I20" s="26">
+        <f>E20/F20</f>
         <v>0.80145310854915808</v>
       </c>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="46" t="s">
+      <c r="J20" s="11"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <f>A20+1</f>
+        <v>12</v>
+      </c>
+      <c r="B21" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E21" s="27">
         <f>[13]Паспорт!$E$32</f>
         <v>1589616</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F21" s="27">
         <f>[13]Паспорт!$F$32</f>
         <v>1687489</v>
       </c>
-      <c r="G19" s="12">
-        <f>100%-F19/[13]Паспорт!$A$21</f>
+      <c r="G21" s="12">
+        <f>100%-F21/[13]Паспорт!$A$21</f>
         <v>0.8995542261904762</v>
       </c>
-      <c r="H19" s="13">
-        <f>[13]Паспорт!$A$21-F19</f>
+      <c r="H21" s="13">
+        <f>[13]Паспорт!$A$21-F21</f>
         <v>15112511</v>
       </c>
-      <c r="I19" s="26">
-        <f t="shared" si="1"/>
+      <c r="I21" s="26">
+        <f>E21/F21</f>
         <v>0.94200080711637235</v>
       </c>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" s="22" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="46" t="s">
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <f>A21+1</f>
+        <v>13</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="33">
+      <c r="C22" s="10"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="33">
         <f>[14]Паспорт!$E$32</f>
         <v>1572846</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F22" s="24">
         <f>[14]Паспорт!$F$32</f>
         <v>1762816</v>
       </c>
-      <c r="G20" s="29">
-        <f>100%-F20/[14]Паспорт!$A$21</f>
+      <c r="G22" s="29">
+        <f>100%-F22/[14]Паспорт!$A$21</f>
         <v>0.88553142857142852</v>
       </c>
-      <c r="H20" s="30">
-        <f>[14]Паспорт!$A$21-F20</f>
+      <c r="H22" s="30">
+        <f>[14]Паспорт!$A$21-F22</f>
         <v>13637184</v>
       </c>
-      <c r="I20" s="26">
-        <f t="shared" si="1"/>
+      <c r="I22" s="26">
+        <f>E22/F22</f>
         <v>0.8922349241214057</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="46" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <f>A22+1</f>
+        <v>14</v>
+      </c>
+      <c r="B23" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="33">
+      <c r="C23" s="10"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="33">
         <f>[15]Паспорт!$E$31</f>
         <v>1490724</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F23" s="24">
         <f>[15]Паспорт!$F$31</f>
         <v>1783277</v>
       </c>
-      <c r="G21" s="29">
-        <f>100%-F21/[15]Паспорт!$A$20</f>
+      <c r="G23" s="29">
+        <f>100%-F23/[15]Паспорт!$A$20</f>
         <v>0.88420279220779219</v>
       </c>
-      <c r="H21" s="30">
-        <f>[15]Паспорт!$A$20-F21</f>
+      <c r="H23" s="30">
+        <f>[15]Паспорт!$A$20-F23</f>
         <v>13616723</v>
       </c>
-      <c r="I21" s="26">
-        <f t="shared" si="1"/>
+      <c r="I23" s="26">
+        <f>E23/F23</f>
         <v>0.83594640653134655</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="47" t="s">
+      <c r="J23" s="11"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <f>A23+1</f>
+        <v>15</v>
+      </c>
+      <c r="B24" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C24" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D24" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E24" s="33">
         <f>[16]Паспорт!$E$32</f>
         <v>1740108</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F24" s="33">
         <f>[16]Паспорт!$F$32</f>
         <v>1879263</v>
       </c>
-      <c r="G22" s="44">
-        <f>100%-F22/[16]Паспорт!$A$21</f>
+      <c r="G24" s="44">
+        <f>100%-F24/[16]Паспорт!$A$21</f>
         <v>0.87796993506493504</v>
       </c>
-      <c r="H22" s="34">
-        <f>[16]Паспорт!$A$21-F22</f>
+      <c r="H24" s="34">
+        <f>[16]Паспорт!$A$21-F24</f>
         <v>13520737</v>
       </c>
-      <c r="I22" s="39">
-        <f t="shared" si="1"/>
+      <c r="I24" s="39">
+        <f>E24/F24</f>
         <v>0.92595235472629434</v>
       </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="42"/>
-    </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="46" t="s">
+      <c r="J24" s="40"/>
+      <c r="K24" s="42"/>
+    </row>
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <f>A24+1</f>
+        <v>16</v>
+      </c>
+      <c r="B25" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="27">
+      <c r="D25" s="15"/>
+      <c r="E25" s="27">
         <f>[17]Паспорт!$E$32</f>
         <v>2315808</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F25" s="27">
         <f>[17]Паспорт!$F$32</f>
         <v>2451889</v>
       </c>
-      <c r="G23" s="12">
-        <f>100%-F23/[17]Паспорт!$A$21</f>
+      <c r="G25" s="12">
+        <f>100%-F25/[17]Паспорт!$A$21</f>
         <v>0.85405422619047622</v>
       </c>
-      <c r="H23" s="13">
-        <f>[17]Паспорт!$A$21-F23</f>
+      <c r="H25" s="13">
+        <f>[17]Паспорт!$A$21-F25</f>
         <v>14348111</v>
       </c>
-      <c r="I23" s="26">
-        <f t="shared" si="1"/>
+      <c r="I25" s="26">
+        <f>E25/F25</f>
         <v>0.9444995266914612</v>
       </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="46" t="s">
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
+        <f>A25+1</f>
+        <v>17</v>
+      </c>
+      <c r="B26" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E26" s="28">
         <f>[18]Лист1!$E$31</f>
         <v>1654830</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F26" s="24">
         <f>[18]Лист1!$F$31</f>
         <v>2339419</v>
       </c>
-      <c r="G24" s="29">
-        <f>100%-F24/[18]Лист1!$A$20</f>
+      <c r="G26" s="29">
+        <f>100%-F26/[18]Лист1!$A$20</f>
         <v>0.81433182539682536</v>
       </c>
-      <c r="H24" s="30">
-        <f>[18]Лист1!$A$20-F24</f>
+      <c r="H26" s="30">
+        <f>[18]Лист1!$A$20-F26</f>
         <v>10260581</v>
       </c>
-      <c r="I24" s="26">
-        <f t="shared" si="1"/>
+      <c r="I26" s="26">
+        <f>E26/F26</f>
         <v>0.70736794050146634</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="46" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <f>A26+1</f>
+        <v>18</v>
+      </c>
+      <c r="B27" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="33">
+      <c r="C27" s="10"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="33">
         <f>[19]Лист1!$E$33</f>
         <v>2880934</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F27" s="24">
         <f>[19]Лист1!$F$33</f>
         <v>3213050</v>
       </c>
-      <c r="G25" s="29">
-        <f>100%-F25/[19]Лист1!$A$22</f>
+      <c r="G27" s="29">
+        <f>100%-F27/[19]Лист1!$A$22</f>
         <v>0.80874702380952379</v>
       </c>
-      <c r="H25" s="30">
-        <f>[19]Лист1!$A$22-F25</f>
+      <c r="H27" s="30">
+        <f>[19]Лист1!$A$22-F27</f>
         <v>13586950</v>
       </c>
-      <c r="I25" s="26">
-        <f t="shared" si="1"/>
+      <c r="I27" s="26">
+        <f>E27/F27</f>
         <v>0.89663528423149341</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="46" t="s">
+      <c r="J27" s="11"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
+        <f>A27+1</f>
+        <v>19</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E28" s="28">
         <f>[20]Лист1!$E$32</f>
         <v>1115136</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F28" s="24">
         <f>[20]Лист1!$F$32</f>
         <v>3369696</v>
       </c>
-      <c r="G26" s="29">
-        <f>100%-F26/[20]Лист1!$A$21</f>
+      <c r="G28" s="29">
+        <f>100%-F28/[20]Лист1!$A$21</f>
         <v>0.7994228571428571</v>
       </c>
-      <c r="H26" s="30">
-        <f>[20]Лист1!$A$21-F26</f>
+      <c r="H28" s="30">
+        <f>[20]Лист1!$A$21-F28</f>
         <v>13430304</v>
       </c>
-      <c r="I26" s="26">
-        <f t="shared" si="1"/>
+      <c r="I28" s="26">
+        <f>E28/F28</f>
         <v>0.33093074271388279</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27">
-        <v>3080000</v>
-      </c>
-      <c r="G27" s="12">
-        <f>100%-F27/14000000</f>
-        <v>0.78</v>
-      </c>
-      <c r="H27" s="13">
-        <f>14000000-F27</f>
-        <v>10920000</v>
-      </c>
-      <c r="I27" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24">
-        <v>4055359</v>
-      </c>
-      <c r="G28" s="29">
-        <f>100%-F28/16800000</f>
-        <v>0.75860958333333328</v>
-      </c>
-      <c r="H28" s="30">
-        <f>18900000-F28</f>
-        <v>14844641</v>
-      </c>
-      <c r="I28" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="J28" s="11"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>A28+1</f>
+        <v>20</v>
       </c>
       <c r="B29" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27">
+        <v>3080000</v>
+      </c>
+      <c r="G29" s="12">
+        <f>100%-F29/14000000</f>
+        <v>0.78</v>
+      </c>
+      <c r="H29" s="13">
+        <f>14000000-F29</f>
+        <v>10920000</v>
+      </c>
+      <c r="I29" s="26">
+        <f>E29/F29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <f>A29+1</f>
+        <v>21</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24">
+        <v>4055359</v>
+      </c>
+      <c r="G30" s="29">
+        <f>100%-F30/16800000</f>
+        <v>0.75860958333333328</v>
+      </c>
+      <c r="H30" s="30">
+        <f>18900000-F30</f>
+        <v>14844641</v>
+      </c>
+      <c r="I30" s="26">
+        <f>E30/F30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <f>A30+1</f>
+        <v>22</v>
+      </c>
+      <c r="B31" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E31" s="27">
         <f>[21]Лист1!$E$32</f>
         <v>3720516</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F31" s="27">
         <f>[21]Лист1!$F$32</f>
         <v>3921050</v>
       </c>
-      <c r="G29" s="12">
-        <f>100%-F29/[21]Лист1!$A$21</f>
+      <c r="G31" s="12">
+        <f>100%-F31/[21]Лист1!$A$21</f>
         <v>0.74538636363636357</v>
       </c>
-      <c r="H29" s="13">
-        <f>[21]Лист1!$A$21-F29</f>
+      <c r="H31" s="13">
+        <f>[21]Лист1!$A$21-F31</f>
         <v>11478950</v>
       </c>
-      <c r="I29" s="26">
-        <f t="shared" si="1"/>
+      <c r="I31" s="26">
+        <f>E31/F31</f>
         <v>0.94885706634702438</v>
       </c>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="46" t="s">
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <f>A31+1</f>
+        <v>23</v>
+      </c>
+      <c r="B32" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E32" s="37">
         <f>[22]Паспорт!$E$32</f>
         <v>4536156</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F32" s="27">
         <f>[22]Паспорт!$F$32</f>
         <v>4718139</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G32" s="12">
         <f>[22]Паспорт!$I$32</f>
         <v>0.71915839285714278</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H32" s="13">
         <f>[22]Паспорт!$H$32</f>
         <v>12081861</v>
       </c>
-      <c r="I30" s="26">
-        <f t="shared" si="1"/>
+      <c r="I32" s="26">
+        <f>E32/F32</f>
         <v>0.96142907192857185</v>
-      </c>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="33">
-        <f>[23]Паспорт!$E$32</f>
-        <v>5471145</v>
-      </c>
-      <c r="F31" s="24">
-        <f>[23]Паспорт!$F$32</f>
-        <v>5691052</v>
-      </c>
-      <c r="G31" s="29">
-        <f>[23]Паспорт!$I$32</f>
-        <v>0.66124690476190473</v>
-      </c>
-      <c r="H31" s="13">
-        <f>[23]Паспорт!$A$21-F31</f>
-        <v>11108948</v>
-      </c>
-      <c r="I31" s="26">
-        <f t="shared" si="1"/>
-        <v>0.96135916522990827</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="27">
-        <f>[25]Лист1!$E$30</f>
-        <v>6255857</v>
-      </c>
-      <c r="F32" s="27">
-        <f>[25]Лист1!$F$30</f>
-        <v>6692357</v>
-      </c>
-      <c r="G32" s="12">
-        <f>100%-F32/[25]Лист1!$A$19</f>
-        <v>0.645907037037037</v>
-      </c>
-      <c r="H32" s="13">
-        <f>[25]Лист1!$A$19-F32</f>
-        <v>12207643</v>
-      </c>
-      <c r="I32" s="26">
-        <f t="shared" si="1"/>
-        <v>0.93477634262487785</v>
       </c>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>A32+1</f>
+        <v>24</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="E33" s="33">
-        <f>[26]Паспорт!$E$32</f>
-        <v>6375401</v>
-      </c>
-      <c r="F33" s="33">
-        <f>[26]Паспорт!$F$32</f>
-        <v>6856227</v>
-      </c>
-      <c r="G33" s="31">
-        <f>100%-F33/[26]Паспорт!$A$21</f>
-        <v>0.59189124999999998</v>
-      </c>
-      <c r="H33" s="30">
-        <f>[26]Паспорт!$A$21-F33</f>
-        <v>9943773</v>
+        <f>[23]Паспорт!$E$32</f>
+        <v>5675265</v>
+      </c>
+      <c r="F33" s="24">
+        <f>[23]Паспорт!$F$32</f>
+        <v>5897033</v>
+      </c>
+      <c r="G33" s="29">
+        <f>[23]Паспорт!$I$32</f>
+        <v>0.648986130952381</v>
+      </c>
+      <c r="H33" s="13">
+        <f>[23]Паспорт!$A$21-F33</f>
+        <v>10902967</v>
       </c>
       <c r="I33" s="26">
-        <f t="shared" si="1"/>
-        <v>0.92987017495190871</v>
+        <f>E33/F33</f>
+        <v>0.9623932916773571</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>A33+1</f>
+        <v>25</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>12</v>
@@ -3817,71 +3951,69 @@
       <c r="D34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="32">
-        <f>[27]Лист1!$E$31</f>
-        <v>2504390</v>
+      <c r="E34" s="27">
+        <f>[24]Лист1!$E$30</f>
+        <v>6255857</v>
       </c>
       <c r="F34" s="27">
-        <f>[27]Лист1!$F$31</f>
-        <v>7080317</v>
+        <f>[24]Лист1!$F$30</f>
+        <v>6692357</v>
       </c>
       <c r="G34" s="12">
-        <f>100%-F34/[27]Лист1!$A$20</f>
-        <v>0.57855255952380946</v>
+        <f>100%-F34/[24]Лист1!$A$19</f>
+        <v>0.645907037037037</v>
       </c>
       <c r="H34" s="13">
-        <f>[27]Лист1!$A$20-F34</f>
-        <v>9719683</v>
+        <f>[24]Лист1!$A$19-F34</f>
+        <v>12207643</v>
       </c>
       <c r="I34" s="26">
-        <f t="shared" si="1"/>
-        <v>0.35371156404437826</v>
+        <f>E34/F34</f>
+        <v>0.93477634262487785</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>A34+1</f>
+        <v>26</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="27">
-        <f>[28]Лист1!$E$31</f>
-        <v>6911216</v>
-      </c>
-      <c r="F35" s="27">
-        <f>[28]Лист1!$F$31</f>
-        <v>7273905</v>
-      </c>
-      <c r="G35" s="12">
-        <f>100%-F35/[28]Лист1!$A$20</f>
-        <v>0.56702946428571432</v>
-      </c>
-      <c r="H35" s="13">
-        <f>[28]Лист1!$A$20-F35</f>
-        <v>9526095</v>
+      <c r="E35" s="33">
+        <f>[25]Паспорт!$E$32</f>
+        <v>6375401</v>
+      </c>
+      <c r="F35" s="33">
+        <f>[25]Паспорт!$F$32</f>
+        <v>6856227</v>
+      </c>
+      <c r="G35" s="31">
+        <f>100%-F35/[25]Паспорт!$A$21</f>
+        <v>0.59189124999999998</v>
+      </c>
+      <c r="H35" s="30">
+        <f>[25]Паспорт!$A$21-F35</f>
+        <v>9943773</v>
       </c>
       <c r="I35" s="26">
-        <f t="shared" si="1"/>
-        <v>0.95013833697305639</v>
+        <f>E35/F35</f>
+        <v>0.92987017495190871</v>
       </c>
       <c r="J35" s="11"/>
-      <c r="K35" s="14"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="1:11" s="41" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>A35+1</f>
+        <v>27</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>12</v>
@@ -3889,73 +4021,71 @@
       <c r="D36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="27">
-        <f>[29]Лист1!$E$41</f>
-        <v>10299150</v>
+      <c r="E36" s="32">
+        <f>[26]Лист1!$E$31</f>
+        <v>2504390</v>
       </c>
       <c r="F36" s="27">
-        <f>[29]Лист1!$F$41</f>
-        <v>11254225</v>
+        <f>[26]Лист1!$F$31</f>
+        <v>7080317</v>
       </c>
       <c r="G36" s="12">
-        <f>100%-F36/[29]Лист1!$A$24</f>
-        <v>0.40453835978835984</v>
+        <f>100%-F36/[26]Лист1!$A$20</f>
+        <v>0.57855255952380946</v>
       </c>
       <c r="H36" s="13">
-        <f>[29]Лист1!$A$24-F36</f>
-        <v>7645775</v>
+        <f>[26]Лист1!$A$20-F36</f>
+        <v>9719683</v>
       </c>
       <c r="I36" s="26">
-        <f t="shared" si="1"/>
-        <v>0.91513631547263363</v>
+        <f>E36/F36</f>
+        <v>0.35371156404437826</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>A36+1</f>
+        <v>28</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="28">
-        <f>[30]Лист1!$E$35</f>
-        <v>4644685</v>
-      </c>
-      <c r="F37" s="24">
-        <f>[30]Лист1!$F$35</f>
-        <v>8385402</v>
-      </c>
-      <c r="G37" s="31">
-        <f>100%-F37/[30]Лист1!$A$24</f>
-        <v>0.40104271428571425</v>
-      </c>
-      <c r="H37" s="30">
-        <f>[30]Лист1!$A$24-F37</f>
-        <v>5614598</v>
+        <v>59</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="27">
+        <f>[27]Лист1!$E$31</f>
+        <v>6911216</v>
+      </c>
+      <c r="F37" s="27">
+        <f>[27]Лист1!$F$31</f>
+        <v>7273905</v>
+      </c>
+      <c r="G37" s="12">
+        <f>100%-F37/[27]Лист1!$A$20</f>
+        <v>0.56702946428571432</v>
+      </c>
+      <c r="H37" s="13">
+        <f>[27]Лист1!$A$20-F37</f>
+        <v>9526095</v>
       </c>
       <c r="I37" s="26">
-        <f t="shared" si="1"/>
-        <v>0.55390129179256997</v>
+        <f>E37/F37</f>
+        <v>0.95013833697305639</v>
       </c>
       <c r="J37" s="11"/>
-      <c r="K37" s="16"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>A37+1</f>
+        <v>29</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>12</v>
@@ -3963,36 +4093,36 @@
       <c r="D38" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="24">
-        <f>[31]Лист1!$E$39</f>
-        <v>11248736</v>
-      </c>
-      <c r="F38" s="24">
-        <f>[31]Лист1!$F$39</f>
-        <v>12230442</v>
-      </c>
-      <c r="G38" s="29">
-        <f>100%-F38/[31]Лист1!$A$25</f>
-        <v>0.32799769230769227</v>
-      </c>
-      <c r="H38" s="30">
-        <f>[31]Лист1!$A$25-F38</f>
-        <v>5969558</v>
+      <c r="E38" s="27">
+        <f>[28]Лист1!$E$41</f>
+        <v>10299150</v>
+      </c>
+      <c r="F38" s="27">
+        <f>[28]Лист1!$F$41</f>
+        <v>11254225</v>
+      </c>
+      <c r="G38" s="12">
+        <f>100%-F38/[28]Лист1!$A$24</f>
+        <v>0.40453835978835984</v>
+      </c>
+      <c r="H38" s="13">
+        <f>[28]Лист1!$A$24-F38</f>
+        <v>7645775</v>
       </c>
       <c r="I38" s="26">
-        <f t="shared" si="1"/>
-        <v>0.91973258202769781</v>
+        <f>E38/F38</f>
+        <v>0.91513631547263363</v>
       </c>
       <c r="J38" s="11"/>
-      <c r="K38" s="16"/>
+      <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>A38+1</f>
+        <v>30</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>12</v>
@@ -4000,36 +4130,36 @@
       <c r="D39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="32">
-        <f>[32]Лист1!$E$34</f>
-        <v>9557286</v>
-      </c>
-      <c r="F39" s="27">
-        <f>[32]Лист1!$F$34</f>
-        <v>12266723</v>
-      </c>
-      <c r="G39" s="12">
-        <f>100%-F39/[32]Лист1!$A$19</f>
-        <v>0.26983791666666668</v>
-      </c>
-      <c r="H39" s="13">
-        <f>[32]Лист1!$A$19-F39</f>
-        <v>4533277</v>
+      <c r="E39" s="28">
+        <f>[29]Лист1!$E$35</f>
+        <v>4644685</v>
+      </c>
+      <c r="F39" s="24">
+        <f>[29]Лист1!$F$35</f>
+        <v>8385402</v>
+      </c>
+      <c r="G39" s="31">
+        <f>100%-F39/[29]Лист1!$A$24</f>
+        <v>0.40104271428571425</v>
+      </c>
+      <c r="H39" s="30">
+        <f>[29]Лист1!$A$24-F39</f>
+        <v>5614598</v>
       </c>
       <c r="I39" s="26">
-        <f t="shared" si="1"/>
-        <v>0.77912299804927532</v>
+        <f>E39/F39</f>
+        <v>0.55390129179256997</v>
       </c>
       <c r="J39" s="11"/>
-      <c r="K39" s="14"/>
+      <c r="K39" s="16"/>
     </row>
     <row r="40" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>A39+1</f>
+        <v>31</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>12</v>
@@ -4037,36 +4167,36 @@
       <c r="D40" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="32">
-        <f>[33]Лист1!$E$31</f>
-        <v>6585300</v>
-      </c>
-      <c r="F40" s="27">
-        <f>[33]Лист1!$F$31</f>
-        <v>10601261</v>
-      </c>
-      <c r="G40" s="12">
-        <f>100%-F40/[33]Лист1!$A$20</f>
-        <v>0.24276707142857146</v>
-      </c>
-      <c r="H40" s="13">
-        <f>[33]Лист1!$A$20-F40</f>
-        <v>3398739</v>
+      <c r="E40" s="24">
+        <f>[30]Лист1!$E$39</f>
+        <v>11248736</v>
+      </c>
+      <c r="F40" s="24">
+        <f>[30]Лист1!$F$39</f>
+        <v>12230442</v>
+      </c>
+      <c r="G40" s="29">
+        <f>100%-F40/[30]Лист1!$A$25</f>
+        <v>0.32799769230769227</v>
+      </c>
+      <c r="H40" s="30">
+        <f>[30]Лист1!$A$25-F40</f>
+        <v>5969558</v>
       </c>
       <c r="I40" s="26">
-        <f t="shared" si="1"/>
-        <v>0.62118081990434915</v>
+        <f>E40/F40</f>
+        <v>0.91973258202769781</v>
       </c>
       <c r="J40" s="11"/>
-      <c r="K40" s="14"/>
+      <c r="K40" s="16"/>
     </row>
     <row r="41" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f>A40+1</f>
+        <v>32</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>12</v>
@@ -4074,73 +4204,73 @@
       <c r="D41" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="24">
-        <f>[34]Лист1!$E$36</f>
-        <v>12908414</v>
-      </c>
-      <c r="F41" s="24">
-        <f>[34]Лист1!$F$36</f>
-        <v>14155800</v>
-      </c>
-      <c r="G41" s="25">
-        <f>100%-F41/[34]Лист1!$A$20</f>
-        <v>0.15739285714285711</v>
-      </c>
-      <c r="H41" s="24">
-        <f>[34]Лист1!$A$20-F41</f>
-        <v>2644200</v>
+      <c r="E41" s="32">
+        <f>[31]Лист1!$E$34</f>
+        <v>9557286</v>
+      </c>
+      <c r="F41" s="27">
+        <f>[31]Лист1!$F$34</f>
+        <v>12266723</v>
+      </c>
+      <c r="G41" s="19">
+        <f>100%-F41/[31]Лист1!$A$19</f>
+        <v>0.26983791666666668</v>
+      </c>
+      <c r="H41" s="20">
+        <f>[31]Лист1!$A$19-F41</f>
+        <v>4533277</v>
       </c>
       <c r="I41" s="26">
-        <f t="shared" si="1"/>
-        <v>0.91188163155738289</v>
+        <f>E41/F41</f>
+        <v>0.77912299804927532</v>
       </c>
       <c r="J41" s="11"/>
-      <c r="K41" s="16"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
-        <f t="shared" si="0"/>
+        <f>A41+1</f>
+        <v>33</v>
+      </c>
+      <c r="B42" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="32">
-        <f>[35]Лист1!$E$35</f>
-        <v>10130281</v>
-      </c>
-      <c r="F42" s="37">
-        <f>[35]Лист1!$F$35</f>
-        <v>15078890</v>
-      </c>
-      <c r="G42" s="38">
-        <f>100%-F42/[35]Лист1!$A$20</f>
-        <v>0.10244702380952386</v>
-      </c>
-      <c r="H42" s="43">
-        <f>[35]Лист1!$A$20-F42</f>
-        <v>1721110</v>
-      </c>
-      <c r="I42" s="48">
-        <f t="shared" si="1"/>
-        <v>0.67181874793171115</v>
-      </c>
-      <c r="J42" s="40"/>
+        <f>[32]Лист1!$E$31</f>
+        <v>6585300</v>
+      </c>
+      <c r="F42" s="27">
+        <f>[32]Лист1!$F$31</f>
+        <v>10601261</v>
+      </c>
+      <c r="G42" s="19">
+        <f>100%-F42/[32]Лист1!$A$20</f>
+        <v>0.24276707142857146</v>
+      </c>
+      <c r="H42" s="20">
+        <f>[32]Лист1!$A$20-F42</f>
+        <v>3398739</v>
+      </c>
+      <c r="I42" s="26">
+        <f>E42/F42</f>
+        <v>0.62118081990434915</v>
+      </c>
+      <c r="J42" s="11"/>
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f>A42+1</f>
+        <v>34</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>12</v>
@@ -4148,73 +4278,73 @@
       <c r="D43" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="32">
-        <f>[36]Лист1!$E$31</f>
-        <v>6965028</v>
-      </c>
-      <c r="F43" s="27">
-        <f>[36]Лист1!$F$31</f>
-        <v>15426229</v>
-      </c>
-      <c r="G43" s="19">
-        <f>100%-F43/[36]Лист1!$A$20</f>
-        <v>8.1772083333333301E-2</v>
-      </c>
-      <c r="H43" s="20">
-        <f>[36]Лист1!$A$20-F43</f>
-        <v>1373771</v>
+      <c r="E43" s="24">
+        <f>[33]Лист1!$E$36</f>
+        <v>12908414</v>
+      </c>
+      <c r="F43" s="24">
+        <f>[33]Лист1!$F$36</f>
+        <v>14155800</v>
+      </c>
+      <c r="G43" s="25">
+        <f>100%-F43/[33]Лист1!$A$20</f>
+        <v>0.15739285714285711</v>
+      </c>
+      <c r="H43" s="24">
+        <f>[33]Лист1!$A$20-F43</f>
+        <v>2644200</v>
       </c>
       <c r="I43" s="26">
-        <f t="shared" si="1"/>
-        <v>0.45150554941197879</v>
+        <f>E43/F43</f>
+        <v>0.91188163155738289</v>
       </c>
       <c r="J43" s="11"/>
-      <c r="K43" s="14"/>
+      <c r="K43" s="16"/>
     </row>
     <row r="44" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="10" t="s">
+        <f>A43+1</f>
+        <v>35</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="24">
-        <f>[37]Лист1!$E$36</f>
-        <v>15646925</v>
-      </c>
-      <c r="F44" s="24">
-        <f>[37]Лист1!$F$36</f>
-        <v>16344633</v>
-      </c>
-      <c r="G44" s="25">
-        <f>100%-F44/[37]Лист1!$A$20</f>
-        <v>2.7105178571428579E-2</v>
-      </c>
-      <c r="H44" s="24">
-        <f>[37]Лист1!$A$20-F44</f>
-        <v>455367</v>
-      </c>
-      <c r="I44" s="26">
-        <f t="shared" si="1"/>
-        <v>0.95731271543386753</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="16"/>
+      <c r="E44" s="32">
+        <f>[34]Лист1!$E$35</f>
+        <v>11163985</v>
+      </c>
+      <c r="F44" s="37">
+        <f>[34]Лист1!$F$35</f>
+        <v>16149768</v>
+      </c>
+      <c r="G44" s="38">
+        <f>100%-F44/[34]Лист1!$A$20</f>
+        <v>3.8704285714285747E-2</v>
+      </c>
+      <c r="H44" s="43">
+        <f>[34]Лист1!$A$20-F44</f>
+        <v>650232</v>
+      </c>
+      <c r="I44" s="48">
+        <f>E44/F44</f>
+        <v>0.69127835149086969</v>
+      </c>
+      <c r="J44" s="40"/>
+      <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f>A44+1</f>
+        <v>36</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>12</v>
@@ -4222,44 +4352,114 @@
       <c r="D45" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="28">
-        <f>[24]Лист1!$E$30</f>
-        <v>12298205</v>
-      </c>
-      <c r="F45" s="24">
-        <f>[24]Лист1!$F$30</f>
-        <v>20393108</v>
-      </c>
-      <c r="G45" s="25">
-        <f>100%-F45/[24]Лист1!$A$19</f>
-        <v>-4.0464693877551028E-2</v>
-      </c>
-      <c r="H45" s="24">
-        <f>[24]Лист1!$A$19-F45</f>
-        <v>-793108</v>
+      <c r="E45" s="32">
+        <f>[35]Лист1!$E$31</f>
+        <v>6965028</v>
+      </c>
+      <c r="F45" s="27">
+        <f>[35]Лист1!$F$31</f>
+        <v>15426229</v>
+      </c>
+      <c r="G45" s="19">
+        <f>100%-F45/[35]Лист1!$A$20</f>
+        <v>8.1772083333333301E-2</v>
+      </c>
+      <c r="H45" s="20">
+        <f>[35]Лист1!$A$20-F45</f>
+        <v>1373771</v>
       </c>
       <c r="I45" s="26">
-        <f t="shared" si="1"/>
-        <v>0.60305692491796736</v>
+        <f>E45/F45</f>
+        <v>0.45150554941197879</v>
       </c>
       <c r="J45" s="11"/>
-      <c r="K45" s="16"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="45" t="s">
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="23">
+        <f>A45+1</f>
+        <v>37</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="37">
+        <f>[40]Паспорт!$E$32</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="27">
+        <f>[40]Паспорт!$F$32</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="19">
+        <f>[40]Паспорт!$I$32</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="20">
+        <f>[40]Паспорт!$H$32</f>
+        <v>16800000</v>
+      </c>
+      <c r="I46" s="26" t="e">
+        <f>E46/F46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="11"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="23">
+        <f>A46+1</f>
+        <v>38</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="24">
+        <f>[36]Лист1!$E$36</f>
+        <v>15646925</v>
+      </c>
+      <c r="F47" s="24">
+        <f>[36]Лист1!$F$36</f>
+        <v>16344633</v>
+      </c>
+      <c r="G47" s="25">
+        <f>100%-F47/[36]Лист1!$A$20</f>
+        <v>2.7105178571428579E-2</v>
+      </c>
+      <c r="H47" s="24">
+        <f>[36]Лист1!$A$20-F47</f>
+        <v>455367</v>
+      </c>
+      <c r="I47" s="26">
+        <f>E47/F47</f>
+        <v>0.95731271543386753</v>
+      </c>
+      <c r="J47" s="11"/>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:K19" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="6" showButton="0"/>
-    <sortState ref="A6:K45">
+    <sortState ref="A6:K47">
       <sortCondition descending="1" ref="G3:G19"/>
     </sortState>
   </autoFilter>
@@ -4277,7 +4477,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4377,11 +4577,11 @@
         <v>13</v>
       </c>
       <c r="E3" s="28">
-        <f>[38]Лист1!$E$32</f>
+        <f>[37]Лист1!$E$32</f>
         <v>8848812</v>
       </c>
       <c r="F3" s="24">
-        <f>[38]Лист1!$F$32</f>
+        <f>[37]Лист1!$F$32</f>
         <v>18119313</v>
       </c>
       <c r="G3" s="29">

--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Таблица выработки  ф-тов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F03E5-B6E4-4CFC-804E-212BE79081CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F350E811-1ECA-414E-9AA9-192A86C1EE2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
   <si>
     <t>№п/п</t>
   </si>
@@ -979,28 +979,48 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>18200000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>1140480</v>
-          </cell>
-          <cell r="F30">
-            <v>1411002</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>833490</v>
+          </cell>
+          <cell r="F32">
+            <v>911671</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1010,28 +1030,48 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>12600000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>986442</v>
-          </cell>
-          <cell r="F31">
-            <v>1121670</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
+            <v>18200000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>1296300</v>
+          </cell>
+          <cell r="F32">
+            <v>1399851</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1047,17 +1087,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>1036020</v>
-          </cell>
-          <cell r="F32">
-            <v>1292677</v>
+        <row r="19">
+          <cell r="A19">
+            <v>18200000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>2500608</v>
+          </cell>
+          <cell r="F30">
+            <v>2925166</v>
           </cell>
         </row>
       </sheetData>
@@ -1069,6 +1109,69 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>1423626</v>
+          </cell>
+          <cell r="F32">
+            <v>1582238</v>
+          </cell>
+          <cell r="H32">
+            <v>11017762</v>
+          </cell>
+          <cell r="I32">
+            <v>0.87442555555555557</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>1036020</v>
+          </cell>
+          <cell r="F32">
+            <v>1292677</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1119,7 +1222,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1172,7 +1275,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1223,7 +1326,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1274,7 +1377,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1325,75 +1428,12 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>12600000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>1654830</v>
-          </cell>
-          <cell r="F31">
-            <v>2339419</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="22">
-          <cell r="A22">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33">
-            <v>2880934</v>
-          </cell>
-          <cell r="F33">
-            <v>3213050</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Детали ф-тов"/>
+      <sheetName val="Данные"/>
       <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
       <sheetName val="Чист.  поддон"/>
@@ -1409,17 +1449,18 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>15400000</v>
-          </cell>
-        </row>
         <row r="32">
           <cell r="E32">
-            <v>468000</v>
+            <v>436272</v>
           </cell>
           <cell r="F32">
-            <v>521755</v>
+            <v>462924</v>
+          </cell>
+          <cell r="H32">
+            <v>16337076</v>
+          </cell>
+          <cell r="I32">
+            <v>0.972445</v>
           </cell>
         </row>
       </sheetData>
@@ -1434,7 +1475,6 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1450,17 +1490,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>1115136</v>
-          </cell>
-          <cell r="F32">
-            <v>3369696</v>
+        <row r="20">
+          <cell r="A20">
+            <v>12600000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>1654830</v>
+          </cell>
+          <cell r="F31">
+            <v>2339419</v>
           </cell>
         </row>
       </sheetData>
@@ -1481,17 +1521,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>15400000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>3720516</v>
-          </cell>
-          <cell r="F32">
-            <v>3921050</v>
+        <row r="22">
+          <cell r="A22">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>2880934</v>
+          </cell>
+          <cell r="F33">
+            <v>3213050</v>
           </cell>
         </row>
       </sheetData>
@@ -1503,6 +1543,68 @@
 </file>
 
 <file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>1381248</v>
+          </cell>
+          <cell r="F32">
+            <v>3690499</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>15400000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>3720516</v>
+          </cell>
+          <cell r="F32">
+            <v>3921050</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1554,7 +1656,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1573,7 +1675,7 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="21">
           <cell r="A21">
@@ -1582,98 +1684,16 @@
         </row>
         <row r="32">
           <cell r="E32">
-            <v>5675265</v>
+            <v>10785555</v>
           </cell>
           <cell r="F32">
-            <v>5897033</v>
+            <v>11207015</v>
           </cell>
           <cell r="I32">
-            <v>0.648986130952381</v>
+            <v>0.33291577380952386</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>18900000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>6255857</v>
-          </cell>
-          <cell r="F30">
-            <v>6692357</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>6375401</v>
-          </cell>
-          <cell r="F32">
-            <v>6856227</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -1700,17 +1720,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>2504390</v>
-          </cell>
-          <cell r="F31">
-            <v>7080317</v>
+        <row r="19">
+          <cell r="A19">
+            <v>18900000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>6255857</v>
+          </cell>
+          <cell r="F30">
+            <v>6692357</v>
           </cell>
         </row>
       </sheetData>
@@ -1725,28 +1745,48 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
+        <row r="21">
+          <cell r="A21">
             <v>16800000</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="E31">
-            <v>6911216</v>
-          </cell>
-          <cell r="F31">
-            <v>7273905</v>
+        <row r="32">
+          <cell r="E32">
+            <v>6375401</v>
+          </cell>
+          <cell r="F32">
+            <v>6856227</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1762,17 +1802,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="24">
-          <cell r="A24">
-            <v>18900000</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>10299150</v>
-          </cell>
-          <cell r="F41">
-            <v>11254225</v>
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>3098368</v>
+          </cell>
+          <cell r="F31">
+            <v>7703906</v>
           </cell>
         </row>
       </sheetData>
@@ -1793,17 +1833,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="24">
-          <cell r="A24">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>4644685</v>
-          </cell>
-          <cell r="F35">
-            <v>8385402</v>
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>6911216</v>
+          </cell>
+          <cell r="F31">
+            <v>7273905</v>
           </cell>
         </row>
       </sheetData>
@@ -1818,23 +1858,50 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Детали ф-тов"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>449036</v>
-          </cell>
-          <cell r="F31">
-            <v>524968</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
+            <v>15400000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>850590</v>
+          </cell>
+          <cell r="F32">
+            <v>934780</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1850,17 +1917,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="25">
-          <cell r="A25">
-            <v>18200000</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="24">
+          <cell r="A24">
+            <v>18900000</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>10299150</v>
+          </cell>
+          <cell r="F41">
+            <v>11254225</v>
           </cell>
         </row>
       </sheetData>
@@ -1881,17 +1948,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>9557286</v>
-          </cell>
-          <cell r="F34">
-            <v>12266723</v>
+        <row r="24">
+          <cell r="A24">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>4644685</v>
+          </cell>
+          <cell r="F35">
+            <v>8385402</v>
           </cell>
         </row>
       </sheetData>
@@ -1912,17 +1979,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>6585300</v>
-          </cell>
-          <cell r="F31">
-            <v>10601261</v>
+        <row r="25">
+          <cell r="A25">
+            <v>18200000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
@@ -1943,17 +2010,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
+        <row r="19">
+          <cell r="A19">
             <v>16800000</v>
           </cell>
         </row>
-        <row r="36">
-          <cell r="E36">
-            <v>12908414</v>
-          </cell>
-          <cell r="F36">
-            <v>14155800</v>
+        <row r="34">
+          <cell r="E34">
+            <v>9557286</v>
+          </cell>
+          <cell r="F34">
+            <v>12266723</v>
           </cell>
         </row>
       </sheetData>
@@ -1976,20 +2043,20 @@
       <sheetData sheetId="0">
         <row r="20">
           <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>11163985</v>
-          </cell>
-          <cell r="F35">
-            <v>16149768</v>
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>6585300</v>
+          </cell>
+          <cell r="F31">
+            <v>10601261</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2010,12 +2077,12 @@
             <v>16800000</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="E31">
-            <v>6965028</v>
-          </cell>
-          <cell r="F31">
-            <v>15426229</v>
+        <row r="36">
+          <cell r="E36">
+            <v>12908414</v>
+          </cell>
+          <cell r="F36">
+            <v>14155800</v>
           </cell>
         </row>
       </sheetData>
@@ -2041,12 +2108,12 @@
             <v>16800000</v>
           </cell>
         </row>
-        <row r="36">
-          <cell r="E36">
-            <v>15646925</v>
-          </cell>
-          <cell r="F36">
-            <v>16344633</v>
+        <row r="35">
+          <cell r="E35">
+            <v>11163985</v>
+          </cell>
+          <cell r="F35">
+            <v>16149768</v>
           </cell>
         </row>
       </sheetData>
@@ -2067,12 +2134,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>8848812</v>
-          </cell>
-          <cell r="F32">
-            <v>18119313</v>
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>6965028</v>
+          </cell>
+          <cell r="F31">
+            <v>15426229</v>
           </cell>
         </row>
       </sheetData>
@@ -2102,34 +2174,34 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="32">
           <cell r="E32">
-            <v>436272</v>
+            <v>733248</v>
           </cell>
           <cell r="F32">
-            <v>462924</v>
+            <v>773983</v>
           </cell>
           <cell r="H32">
-            <v>16337076</v>
+            <v>16026017</v>
           </cell>
           <cell r="I32">
-            <v>0.972445</v>
+            <v>0.95392958333333333</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2139,55 +2211,86 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Охладитель плунжера"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>745790</v>
-          </cell>
-          <cell r="F32">
-            <v>820325</v>
-          </cell>
-          <cell r="H32">
-            <v>15979675</v>
-          </cell>
-          <cell r="I32">
-            <v>0.95117113095238093</v>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>17431064</v>
+          </cell>
+          <cell r="F36">
+            <v>18221638</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="E31">
+            <v>449036</v>
+          </cell>
+          <cell r="F31">
+            <v>524968</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>8848812</v>
+          </cell>
+          <cell r="F32">
+            <v>18119313</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2238,59 +2341,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>0</v>
-          </cell>
-          <cell r="F32">
-            <v>0</v>
-          </cell>
-          <cell r="H32">
-            <v>16800000</v>
-          </cell>
-          <cell r="I32">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2341,7 +2392,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2360,51 +2411,34 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="32">
           <cell r="E32">
-            <v>2726288</v>
+            <v>745790</v>
           </cell>
           <cell r="F32">
-            <v>2844075</v>
+            <v>820325</v>
+          </cell>
+          <cell r="H32">
+            <v>15979675</v>
+          </cell>
+          <cell r="I32">
+            <v>0.95117113095238093</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>21000000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2424,24 +2458,19 @@
       <sheetName val="Горл. кольцо"/>
       <sheetName val="Финиш. кольцо"/>
       <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
+      <sheetName val="Охладитель плунжера"/>
       <sheetName val="Дут. головка"/>
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
         <row r="32">
           <cell r="E32">
-            <v>833490</v>
+            <v>2726288</v>
           </cell>
           <cell r="F32">
-            <v>911671</v>
+            <v>2844075</v>
           </cell>
         </row>
       </sheetData>
@@ -2465,48 +2494,20 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>18200000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>1296300</v>
-          </cell>
-          <cell r="F32">
-            <v>1399851</v>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="A19">
+            <v>21000000</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2839,10 +2840,10 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3033,19 +3034,19 @@
       <c r="C8" s="10"/>
       <c r="D8" s="15"/>
       <c r="E8" s="24">
-        <f>[38]Паспорт!$E$32</f>
+        <f>[2]Паспорт!$E$32</f>
         <v>436272</v>
       </c>
       <c r="F8" s="24">
-        <f>[38]Паспорт!$F$32</f>
+        <f>[2]Паспорт!$F$32</f>
         <v>462924</v>
       </c>
       <c r="G8" s="25">
-        <f>[38]Паспорт!$I$32</f>
+        <f>[2]Паспорт!$I$32</f>
         <v>0.972445</v>
       </c>
       <c r="H8" s="24">
-        <f>[38]Паспорт!$H$32</f>
+        <f>[2]Паспорт!$H$32</f>
         <v>16337076</v>
       </c>
       <c r="I8" s="26">
@@ -3056,73 +3057,73 @@
       <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="A9" s="50">
         <f>A8+1</f>
         <v>1</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="33">
-        <f>[2]Паспорт!$E$32</f>
-        <v>468000</v>
-      </c>
-      <c r="F9" s="24">
-        <f>[2]Паспорт!$F$32</f>
-        <v>521755</v>
-      </c>
-      <c r="G9" s="25">
-        <f>100%-F9/[2]Паспорт!$A$21</f>
-        <v>0.96611980519480523</v>
-      </c>
-      <c r="H9" s="24">
-        <f>[2]Паспорт!$A$21-F9</f>
-        <v>14878245</v>
-      </c>
-      <c r="I9" s="26">
+      <c r="B9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="57">
+        <f>[4]Лист1!$E$31</f>
+        <v>449036</v>
+      </c>
+      <c r="F9" s="57">
+        <f>[4]Лист1!$F$31</f>
+        <v>524968</v>
+      </c>
+      <c r="G9" s="58">
+        <f>100%-F9/15400000</f>
+        <v>0.96591116883116879</v>
+      </c>
+      <c r="H9" s="59">
+        <f>15400000-F9</f>
+        <v>14875032</v>
+      </c>
+      <c r="I9" s="55">
         <f>E9/F9</f>
-        <v>0.89697271707985549</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="18"/>
+        <v>0.85535880282226728</v>
+      </c>
+      <c r="J9" s="56"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50">
+      <c r="A10" s="23">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="57">
-        <f>[3]Лист1!$E$31</f>
-        <v>449036</v>
-      </c>
-      <c r="F10" s="57">
-        <f>[3]Лист1!$F$31</f>
-        <v>524968</v>
-      </c>
-      <c r="G10" s="58">
-        <f>100%-F10/15400000</f>
-        <v>0.96591116883116879</v>
-      </c>
-      <c r="H10" s="59">
-        <f>15400000-F10</f>
-        <v>14875032</v>
-      </c>
-      <c r="I10" s="55">
+      <c r="B10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="27">
+        <f>[5]Паспорт!$E$31</f>
+        <v>618648</v>
+      </c>
+      <c r="F10" s="27">
+        <f>[5]Паспорт!$F$31</f>
+        <v>667526</v>
+      </c>
+      <c r="G10" s="19">
+        <f>100%-F10/[5]Паспорт!$A$20</f>
+        <v>0.96026630952380954</v>
+      </c>
+      <c r="H10" s="20">
+        <f>[5]Паспорт!$A$20-F10</f>
+        <v>16132474</v>
+      </c>
+      <c r="I10" s="26">
         <f>E10/F10</f>
-        <v>0.85535880282226728</v>
-      </c>
-      <c r="J10" s="56"/>
+        <v>0.92677738395208575</v>
+      </c>
+      <c r="J10" s="11"/>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3130,74 +3131,74 @@
         <f>A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="27">
-        <f>[4]Паспорт!$E$31</f>
-        <v>618648</v>
-      </c>
-      <c r="F11" s="27">
-        <f>[4]Паспорт!$F$31</f>
-        <v>667526</v>
-      </c>
-      <c r="G11" s="19">
-        <f>100%-F11/[4]Паспорт!$A$20</f>
-        <v>0.96026630952380954</v>
-      </c>
-      <c r="H11" s="20">
-        <f>[4]Паспорт!$A$20-F11</f>
-        <v>16132474</v>
-      </c>
-      <c r="I11" s="26">
+      <c r="D11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="37">
+        <f>[6]Паспорт!$E$37</f>
+        <v>491400</v>
+      </c>
+      <c r="F11" s="37">
+        <f>[6]Паспорт!$F$37</f>
+        <v>577433</v>
+      </c>
+      <c r="G11" s="38">
+        <f>100%-F11/[6]Паспорт!$A$21</f>
+        <v>0.95658398496240604</v>
+      </c>
+      <c r="H11" s="43">
+        <f>[6]Паспорт!$A$21-F11</f>
+        <v>12722567</v>
+      </c>
+      <c r="I11" s="39">
         <f>E11/F11</f>
-        <v>0.92677738395208575</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="14"/>
+        <v>0.85100782255257323</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <f>A11+1</f>
         <v>4</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="37">
-        <f>[5]Паспорт!$E$37</f>
-        <v>491400</v>
-      </c>
-      <c r="F12" s="37">
-        <f>[5]Паспорт!$F$37</f>
-        <v>577433</v>
-      </c>
-      <c r="G12" s="38">
-        <f>100%-F12/[5]Паспорт!$A$21</f>
-        <v>0.95658398496240604</v>
-      </c>
-      <c r="H12" s="43">
-        <f>[5]Паспорт!$A$21-F12</f>
-        <v>12722567</v>
-      </c>
-      <c r="I12" s="39">
+        <f>[38]Паспорт!$E$32</f>
+        <v>733248</v>
+      </c>
+      <c r="F12" s="27">
+        <f>[38]Паспорт!$F$32</f>
+        <v>773983</v>
+      </c>
+      <c r="G12" s="19">
+        <f>[38]Паспорт!$I$32</f>
+        <v>0.95392958333333333</v>
+      </c>
+      <c r="H12" s="20">
+        <f>[38]Паспорт!$H$32</f>
+        <v>16026017</v>
+      </c>
+      <c r="I12" s="26">
         <f>E12/F12</f>
-        <v>0.85100782255257323</v>
-      </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+        <v>0.94736964506972376</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
@@ -3214,19 +3215,19 @@
         <v>13</v>
       </c>
       <c r="E13" s="33">
-        <f>[39]Паспорт!$E$32</f>
+        <f>[7]Паспорт!$E$32</f>
         <v>745790</v>
       </c>
       <c r="F13" s="24">
-        <f>[39]Паспорт!$F$32</f>
+        <f>[7]Паспорт!$F$32</f>
         <v>820325</v>
       </c>
       <c r="G13" s="25">
-        <f>[39]Паспорт!$I$32</f>
+        <f>[7]Паспорт!$I$32</f>
         <v>0.95117113095238093</v>
       </c>
       <c r="H13" s="24">
-        <f>[39]Паспорт!$H$32</f>
+        <f>[7]Паспорт!$H$32</f>
         <v>15979675</v>
       </c>
       <c r="I13" s="26">
@@ -3242,33 +3243,33 @@
         <v>5</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="37">
-        <f>[6]Паспорт!$E$32</f>
-        <v>2726288</v>
+        <v>60</v>
+      </c>
+      <c r="E14" s="27">
+        <f>[10]Паспорт!$E$32</f>
+        <v>833490</v>
       </c>
       <c r="F14" s="27">
-        <f>[6]Паспорт!$F$32</f>
-        <v>2844075</v>
+        <f>[10]Паспорт!$F$32</f>
+        <v>911671</v>
       </c>
       <c r="G14" s="19">
-        <f>100%-F14/[7]Лист1!$A$19</f>
-        <v>0.86456785714285711</v>
+        <f>100%-F14/[10]Паспорт!$A$21</f>
+        <v>0.94573386904761902</v>
       </c>
       <c r="H14" s="20">
-        <f>[7]Лист1!$A$19-F14</f>
-        <v>18155925</v>
+        <f>[10]Паспорт!$A$21-F14</f>
+        <v>15888329</v>
       </c>
       <c r="I14" s="26">
         <f>E14/F14</f>
-        <v>0.95858512873254043</v>
+        <v>0.91424428329956753</v>
       </c>
       <c r="J14" s="11"/>
     </row>
@@ -3278,33 +3279,31 @@
         <v>6</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E15" s="27">
-        <f>[8]Паспорт!$E$32</f>
-        <v>833490</v>
+        <v>763476</v>
       </c>
       <c r="F15" s="27">
-        <f>[8]Паспорт!$F$32</f>
-        <v>911671</v>
+        <v>975569</v>
       </c>
       <c r="G15" s="19">
-        <f>100%-F15/[8]Паспорт!$A$21</f>
-        <v>0.94573386904761902</v>
+        <f>100%-F15/16800000</f>
+        <v>0.94193041666666666</v>
       </c>
       <c r="H15" s="20">
-        <f>[8]Паспорт!$A$21-F15</f>
-        <v>15888329</v>
+        <f>16800000-F15</f>
+        <v>15824431</v>
       </c>
       <c r="I15" s="26">
         <f>E15/F15</f>
-        <v>0.91424428329956753</v>
+        <v>0.78259559293089465</v>
       </c>
       <c r="J15" s="11"/>
     </row>
@@ -3314,33 +3313,36 @@
         <v>7</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="27">
-        <v>763476</v>
-      </c>
-      <c r="F16" s="27">
-        <v>975569</v>
-      </c>
-      <c r="G16" s="12">
-        <f>100%-F16/16800000</f>
-        <v>0.94193041666666666</v>
-      </c>
-      <c r="H16" s="13">
-        <f>16800000-F16</f>
-        <v>15824431</v>
+      <c r="E16" s="33">
+        <f>[3]Паспорт!$E$32</f>
+        <v>850590</v>
+      </c>
+      <c r="F16" s="24">
+        <f>[3]Паспорт!$F$32</f>
+        <v>934780</v>
+      </c>
+      <c r="G16" s="29">
+        <f>100%-F16/[3]Паспорт!$A$21</f>
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="H16" s="30">
+        <f>[3]Паспорт!$A$21-F16</f>
+        <v>14465220</v>
       </c>
       <c r="I16" s="26">
         <f>E16/F16</f>
-        <v>0.78259559293089465</v>
+        <v>0.9099360277284495</v>
       </c>
       <c r="J16" s="11"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
@@ -3353,19 +3355,19 @@
       <c r="C17" s="10"/>
       <c r="D17" s="15"/>
       <c r="E17" s="27">
-        <f>[9]Паспорт!$E$32</f>
+        <f>[11]Паспорт!$E$32</f>
         <v>1296300</v>
       </c>
       <c r="F17" s="27">
-        <f>[9]Паспорт!$F$32</f>
+        <f>[11]Паспорт!$F$32</f>
         <v>1399851</v>
       </c>
       <c r="G17" s="12">
-        <f>100%-F17/[9]Паспорт!$A$21</f>
+        <f>100%-F17/[11]Паспорт!$A$21</f>
         <v>0.92308510989010983</v>
       </c>
       <c r="H17" s="13">
-        <f>[9]Паспорт!$A$21-F17</f>
+        <f>[11]Паспорт!$A$21-F17</f>
         <v>16800149</v>
       </c>
       <c r="I17" s="26">
@@ -3380,7 +3382,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>12</v>
@@ -3389,27 +3391,26 @@
         <v>13</v>
       </c>
       <c r="E18" s="49">
-        <f>[10]Лист1!$E$30</f>
-        <v>1140480</v>
+        <f>[14]Лист1!$E$32</f>
+        <v>1036020</v>
       </c>
       <c r="F18" s="49">
-        <f>[10]Лист1!$F$30</f>
-        <v>1411002</v>
+        <f>[14]Лист1!$F$32</f>
+        <v>1292677</v>
       </c>
       <c r="G18" s="12">
-        <f>100%-F18/[10]Лист1!$A$19</f>
-        <v>0.9224724175824176</v>
+        <f>100%-F18/[14]Лист1!$A$21</f>
+        <v>0.90766592857142858</v>
       </c>
       <c r="H18" s="13">
-        <f>[10]Лист1!$A$19-F18</f>
-        <v>16788998</v>
+        <f>[14]Лист1!$A$21-F18</f>
+        <v>12707323</v>
       </c>
       <c r="I18" s="26">
         <f>E18/F18</f>
-        <v>0.80827667147176263</v>
+        <v>0.80145310854915808</v>
       </c>
       <c r="J18" s="11"/>
-      <c r="K18"/>
     </row>
     <row r="19" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
@@ -3417,7 +3418,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>12</v>
@@ -3426,24 +3427,24 @@
         <v>13</v>
       </c>
       <c r="E19" s="27">
-        <f>[11]Лист1!$E$31</f>
-        <v>986442</v>
+        <f>[15]Паспорт!$E$32</f>
+        <v>1589616</v>
       </c>
       <c r="F19" s="27">
-        <f>[11]Лист1!$F$31</f>
-        <v>1121670</v>
+        <f>[15]Паспорт!$F$32</f>
+        <v>1687489</v>
       </c>
       <c r="G19" s="12">
-        <f>100%-F19/[11]Лист1!$A$20</f>
-        <v>0.91097857142857142</v>
+        <f>100%-F19/[15]Паспорт!$A$21</f>
+        <v>0.8995542261904762</v>
       </c>
       <c r="H19" s="13">
-        <f>[11]Лист1!$A$20-F19</f>
-        <v>11478330</v>
+        <f>[15]Паспорт!$A$21-F19</f>
+        <v>15112511</v>
       </c>
       <c r="I19" s="26">
         <f>E19/F19</f>
-        <v>0.87944047714568452</v>
+        <v>0.94200080711637235</v>
       </c>
       <c r="J19" s="11"/>
     </row>
@@ -3453,36 +3454,32 @@
         <v>11</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="27">
-        <f>[12]Лист1!$E$32</f>
-        <v>1036020</v>
-      </c>
-      <c r="F20" s="27">
-        <f>[12]Лист1!$F$32</f>
-        <v>1292677</v>
-      </c>
-      <c r="G20" s="12">
-        <f>100%-F20/[12]Лист1!$A$21</f>
-        <v>0.90766592857142858</v>
-      </c>
-      <c r="H20" s="13">
-        <f>[12]Лист1!$A$21-F20</f>
-        <v>12707323</v>
+        <v>43</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="33">
+        <f>[16]Паспорт!$E$32</f>
+        <v>1572846</v>
+      </c>
+      <c r="F20" s="24">
+        <f>[16]Паспорт!$F$32</f>
+        <v>1762816</v>
+      </c>
+      <c r="G20" s="29">
+        <f>100%-F20/[16]Паспорт!$A$21</f>
+        <v>0.88553142857142852</v>
+      </c>
+      <c r="H20" s="30">
+        <f>[16]Паспорт!$A$21-F20</f>
+        <v>13637184</v>
       </c>
       <c r="I20" s="26">
         <f>E20/F20</f>
-        <v>0.80145310854915808</v>
+        <v>0.8922349241214057</v>
       </c>
       <c r="J20" s="11"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
@@ -3490,68 +3487,69 @@
         <v>12</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="27">
-        <f>[13]Паспорт!$E$32</f>
-        <v>1589616</v>
-      </c>
-      <c r="F21" s="27">
-        <f>[13]Паспорт!$F$32</f>
-        <v>1687489</v>
-      </c>
-      <c r="G21" s="12">
-        <f>100%-F21/[13]Паспорт!$A$21</f>
-        <v>0.8995542261904762</v>
-      </c>
-      <c r="H21" s="13">
-        <f>[13]Паспорт!$A$21-F21</f>
-        <v>15112511</v>
+        <v>46</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="33">
+        <f>[17]Паспорт!$E$31</f>
+        <v>1490724</v>
+      </c>
+      <c r="F21" s="24">
+        <f>[17]Паспорт!$F$31</f>
+        <v>1783277</v>
+      </c>
+      <c r="G21" s="29">
+        <f>100%-F21/[17]Паспорт!$A$20</f>
+        <v>0.88420279220779219</v>
+      </c>
+      <c r="H21" s="30">
+        <f>[17]Паспорт!$A$20-F21</f>
+        <v>13616723</v>
       </c>
       <c r="I21" s="26">
         <f>E21/F21</f>
-        <v>0.94200080711637235</v>
+        <v>0.83594640653134655</v>
       </c>
       <c r="J21" s="11"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <f>A21+1</f>
         <v>13</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="15"/>
+      <c r="B22" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="E22" s="33">
-        <f>[14]Паспорт!$E$32</f>
-        <v>1572846</v>
-      </c>
-      <c r="F22" s="24">
-        <f>[14]Паспорт!$F$32</f>
-        <v>1762816</v>
-      </c>
-      <c r="G22" s="29">
-        <f>100%-F22/[14]Паспорт!$A$21</f>
-        <v>0.88553142857142852</v>
-      </c>
-      <c r="H22" s="30">
-        <f>[14]Паспорт!$A$21-F22</f>
-        <v>13637184</v>
-      </c>
-      <c r="I22" s="26">
+        <f>[18]Паспорт!$E$32</f>
+        <v>1740108</v>
+      </c>
+      <c r="F22" s="33">
+        <f>[18]Паспорт!$F$32</f>
+        <v>1879263</v>
+      </c>
+      <c r="G22" s="44">
+        <f>100%-F22/[18]Паспорт!$A$21</f>
+        <v>0.87796993506493504</v>
+      </c>
+      <c r="H22" s="34">
+        <f>[18]Паспорт!$A$21-F22</f>
+        <v>13520737</v>
+      </c>
+      <c r="I22" s="39">
         <f>E22/F22</f>
-        <v>0.8922349241214057</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="18"/>
+        <v>0.92595235472629434</v>
+      </c>
+      <c r="J22" s="40"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
@@ -3559,69 +3557,71 @@
         <v>14</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="33">
-        <f>[15]Паспорт!$E$31</f>
-        <v>1490724</v>
-      </c>
-      <c r="F23" s="24">
-        <f>[15]Паспорт!$F$31</f>
-        <v>1783277</v>
-      </c>
-      <c r="G23" s="29">
-        <f>100%-F23/[15]Паспорт!$A$20</f>
-        <v>0.88420279220779219</v>
-      </c>
-      <c r="H23" s="30">
-        <f>[15]Паспорт!$A$20-F23</f>
-        <v>13616723</v>
+        <v>29</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="27">
+        <f>[13]Лист1!$E$32</f>
+        <v>1423626</v>
+      </c>
+      <c r="F23" s="27">
+        <f>[13]Лист1!$F$32</f>
+        <v>1582238</v>
+      </c>
+      <c r="G23" s="12">
+        <f>[13]Лист1!$I$32</f>
+        <v>0.87442555555555557</v>
+      </c>
+      <c r="H23" s="13">
+        <f>[13]Лист1!$H$32</f>
+        <v>11017762</v>
       </c>
       <c r="I23" s="26">
         <f>E23/F23</f>
-        <v>0.83594640653134655</v>
+        <v>0.89975465132299948</v>
       </c>
       <c r="J23" s="11"/>
-      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <f>A23+1</f>
         <v>15</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="33">
-        <f>[16]Паспорт!$E$32</f>
-        <v>1740108</v>
-      </c>
-      <c r="F24" s="33">
-        <f>[16]Паспорт!$F$32</f>
-        <v>1879263</v>
-      </c>
-      <c r="G24" s="44">
-        <f>100%-F24/[16]Паспорт!$A$21</f>
-        <v>0.87796993506493504</v>
-      </c>
-      <c r="H24" s="34">
-        <f>[16]Паспорт!$A$21-F24</f>
-        <v>13520737</v>
-      </c>
-      <c r="I24" s="39">
+      <c r="B24" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="37">
+        <f>[8]Паспорт!$E$32</f>
+        <v>2726288</v>
+      </c>
+      <c r="F24" s="27">
+        <f>[8]Паспорт!$F$32</f>
+        <v>2844075</v>
+      </c>
+      <c r="G24" s="12">
+        <f>100%-F24/[9]Лист1!$A$19</f>
+        <v>0.86456785714285711</v>
+      </c>
+      <c r="H24" s="13">
+        <f>[9]Лист1!$A$19-F24</f>
+        <v>18155925</v>
+      </c>
+      <c r="I24" s="26">
         <f>E24/F24</f>
-        <v>0.92595235472629434</v>
-      </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="42"/>
+        <v>0.95858512873254043</v>
+      </c>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
@@ -3636,19 +3636,19 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="27">
-        <f>[17]Паспорт!$E$32</f>
+        <f>[19]Паспорт!$E$32</f>
         <v>2315808</v>
       </c>
       <c r="F25" s="27">
-        <f>[17]Паспорт!$F$32</f>
+        <f>[19]Паспорт!$F$32</f>
         <v>2451889</v>
       </c>
       <c r="G25" s="12">
-        <f>100%-F25/[17]Паспорт!$A$21</f>
+        <f>100%-F25/[19]Паспорт!$A$21</f>
         <v>0.85405422619047622</v>
       </c>
       <c r="H25" s="13">
-        <f>[17]Паспорт!$A$21-F25</f>
+        <f>[19]Паспорт!$A$21-F25</f>
         <v>14348111</v>
       </c>
       <c r="I25" s="26">
@@ -3663,7 +3663,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>12</v>
@@ -3671,28 +3671,28 @@
       <c r="D26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="28">
-        <f>[18]Лист1!$E$31</f>
-        <v>1654830</v>
-      </c>
-      <c r="F26" s="24">
-        <f>[18]Лист1!$F$31</f>
-        <v>2339419</v>
-      </c>
-      <c r="G26" s="29">
-        <f>100%-F26/[18]Лист1!$A$20</f>
-        <v>0.81433182539682536</v>
-      </c>
-      <c r="H26" s="30">
-        <f>[18]Лист1!$A$20-F26</f>
-        <v>10260581</v>
+      <c r="E26" s="27">
+        <f>[12]Лист1!$E$30</f>
+        <v>2500608</v>
+      </c>
+      <c r="F26" s="27">
+        <f>[12]Лист1!$F$30</f>
+        <v>2925166</v>
+      </c>
+      <c r="G26" s="12">
+        <f>100%-F26/[12]Лист1!$A$19</f>
+        <v>0.83927659340659344</v>
+      </c>
+      <c r="H26" s="13">
+        <f>[12]Лист1!$A$19-F26</f>
+        <v>15274834</v>
       </c>
       <c r="I26" s="26">
         <f>E26/F26</f>
-        <v>0.70736794050146634</v>
+        <v>0.85486020280558439</v>
       </c>
       <c r="J26" s="11"/>
-      <c r="K26" s="16"/>
+      <c r="K26"/>
     </row>
     <row r="27" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
@@ -3700,32 +3700,36 @@
         <v>18</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="33">
-        <f>[19]Лист1!$E$33</f>
-        <v>2880934</v>
+        <v>22</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="28">
+        <f>[20]Лист1!$E$31</f>
+        <v>1654830</v>
       </c>
       <c r="F27" s="24">
-        <f>[19]Лист1!$F$33</f>
-        <v>3213050</v>
+        <f>[20]Лист1!$F$31</f>
+        <v>2339419</v>
       </c>
       <c r="G27" s="29">
-        <f>100%-F27/[19]Лист1!$A$22</f>
-        <v>0.80874702380952379</v>
+        <f>100%-F27/[20]Лист1!$A$20</f>
+        <v>0.81433182539682536</v>
       </c>
       <c r="H27" s="30">
-        <f>[19]Лист1!$A$22-F27</f>
-        <v>13586950</v>
+        <f>[20]Лист1!$A$20-F27</f>
+        <v>10260581</v>
       </c>
       <c r="I27" s="26">
         <f>E27/F27</f>
-        <v>0.89663528423149341</v>
+        <v>0.70736794050146634</v>
       </c>
       <c r="J27" s="11"/>
-      <c r="K27" s="18"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
@@ -3733,36 +3737,32 @@
         <v>19</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="28">
-        <f>[20]Лист1!$E$32</f>
-        <v>1115136</v>
+        <v>48</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="33">
+        <f>[21]Лист1!$E$33</f>
+        <v>2880934</v>
       </c>
       <c r="F28" s="24">
-        <f>[20]Лист1!$F$32</f>
-        <v>3369696</v>
+        <f>[21]Лист1!$F$33</f>
+        <v>3213050</v>
       </c>
       <c r="G28" s="29">
-        <f>100%-F28/[20]Лист1!$A$21</f>
-        <v>0.7994228571428571</v>
+        <f>100%-F28/[21]Лист1!$A$22</f>
+        <v>0.80874702380952379</v>
       </c>
       <c r="H28" s="30">
-        <f>[20]Лист1!$A$21-F28</f>
-        <v>13430304</v>
+        <f>[21]Лист1!$A$22-F28</f>
+        <v>13586950</v>
       </c>
       <c r="I28" s="26">
         <f>E28/F28</f>
-        <v>0.33093074271388279</v>
+        <v>0.89663528423149341</v>
       </c>
       <c r="J28" s="11"/>
-      <c r="K28" s="16"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
@@ -3770,7 +3770,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>12</v>
@@ -3778,23 +3778,28 @@
       <c r="D29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27">
-        <v>3080000</v>
-      </c>
-      <c r="G29" s="12">
-        <f>100%-F29/14000000</f>
-        <v>0.78</v>
-      </c>
-      <c r="H29" s="13">
-        <f>14000000-F29</f>
-        <v>10920000</v>
+      <c r="E29" s="28">
+        <f>[22]Лист1!$E$32</f>
+        <v>1381248</v>
+      </c>
+      <c r="F29" s="24">
+        <f>[22]Лист1!$F$32</f>
+        <v>3690499</v>
+      </c>
+      <c r="G29" s="29">
+        <f>100%-F29/[22]Лист1!$A$21</f>
+        <v>0.78032744047619051</v>
+      </c>
+      <c r="H29" s="30">
+        <f>[22]Лист1!$A$21-F29</f>
+        <v>13109501</v>
       </c>
       <c r="I29" s="26">
         <f>E29/F29</f>
-        <v>0</v>
+        <v>0.37427133837456666</v>
       </c>
       <c r="J29" s="11"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
@@ -3802,7 +3807,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>12</v>
@@ -3810,17 +3815,17 @@
       <c r="D30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24">
-        <v>4055359</v>
-      </c>
-      <c r="G30" s="29">
-        <f>100%-F30/16800000</f>
-        <v>0.75860958333333328</v>
-      </c>
-      <c r="H30" s="30">
-        <f>18900000-F30</f>
-        <v>14844641</v>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27">
+        <v>3080000</v>
+      </c>
+      <c r="G30" s="12">
+        <f>100%-F30/14000000</f>
+        <v>0.78</v>
+      </c>
+      <c r="H30" s="13">
+        <f>14000000-F30</f>
+        <v>10920000</v>
       </c>
       <c r="I30" s="26">
         <f>E30/F30</f>
@@ -3834,33 +3839,29 @@
         <v>22</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="27">
-        <f>[21]Лист1!$E$32</f>
-        <v>3720516</v>
-      </c>
-      <c r="F31" s="27">
-        <f>[21]Лист1!$F$32</f>
-        <v>3921050</v>
-      </c>
-      <c r="G31" s="12">
-        <f>100%-F31/[21]Лист1!$A$21</f>
-        <v>0.74538636363636357</v>
-      </c>
-      <c r="H31" s="13">
-        <f>[21]Лист1!$A$21-F31</f>
-        <v>11478950</v>
+        <v>13</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24">
+        <v>4055359</v>
+      </c>
+      <c r="G31" s="29">
+        <f>100%-F31/16800000</f>
+        <v>0.75860958333333328</v>
+      </c>
+      <c r="H31" s="30">
+        <f>18900000-F31</f>
+        <v>14844641</v>
       </c>
       <c r="I31" s="26">
         <f>E31/F31</f>
-        <v>0.94885706634702438</v>
+        <v>0</v>
       </c>
       <c r="J31" s="11"/>
     </row>
@@ -3870,33 +3871,33 @@
         <v>23</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="37">
-        <f>[22]Паспорт!$E$32</f>
-        <v>4536156</v>
+        <v>15</v>
+      </c>
+      <c r="E32" s="27">
+        <f>[23]Лист1!$E$32</f>
+        <v>3720516</v>
       </c>
       <c r="F32" s="27">
-        <f>[22]Паспорт!$F$32</f>
-        <v>4718139</v>
+        <f>[23]Лист1!$F$32</f>
+        <v>3921050</v>
       </c>
       <c r="G32" s="12">
-        <f>[22]Паспорт!$I$32</f>
-        <v>0.71915839285714278</v>
+        <f>100%-F32/[23]Лист1!$A$21</f>
+        <v>0.74538636363636357</v>
       </c>
       <c r="H32" s="13">
-        <f>[22]Паспорт!$H$32</f>
-        <v>12081861</v>
+        <f>[23]Лист1!$A$21-F32</f>
+        <v>11478950</v>
       </c>
       <c r="I32" s="26">
         <f>E32/F32</f>
-        <v>0.96142907192857185</v>
+        <v>0.94885706634702438</v>
       </c>
       <c r="J32" s="11"/>
     </row>
@@ -3906,7 +3907,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>12</v>
@@ -3914,28 +3915,28 @@
       <c r="D33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="33">
-        <f>[23]Паспорт!$E$32</f>
-        <v>5675265</v>
-      </c>
-      <c r="F33" s="24">
-        <f>[23]Паспорт!$F$32</f>
-        <v>5897033</v>
-      </c>
-      <c r="G33" s="29">
-        <f>[23]Паспорт!$I$32</f>
-        <v>0.648986130952381</v>
+      <c r="E33" s="37">
+        <f>[24]Паспорт!$E$32</f>
+        <v>4536156</v>
+      </c>
+      <c r="F33" s="27">
+        <f>[24]Паспорт!$F$32</f>
+        <v>4718139</v>
+      </c>
+      <c r="G33" s="12">
+        <f>[24]Паспорт!$I$32</f>
+        <v>0.71915839285714278</v>
       </c>
       <c r="H33" s="13">
-        <f>[23]Паспорт!$A$21-F33</f>
-        <v>10902967</v>
+        <f>[24]Паспорт!$H$32</f>
+        <v>12081861</v>
       </c>
       <c r="I33" s="26">
         <f>E33/F33</f>
-        <v>0.9623932916773571</v>
+        <v>0.96142907192857185</v>
       </c>
       <c r="J33" s="11"/>
-      <c r="K33" s="16"/>
+      <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
@@ -3952,19 +3953,19 @@
         <v>13</v>
       </c>
       <c r="E34" s="27">
-        <f>[24]Лист1!$E$30</f>
+        <f>[26]Лист1!$E$30</f>
         <v>6255857</v>
       </c>
       <c r="F34" s="27">
-        <f>[24]Лист1!$F$30</f>
+        <f>[26]Лист1!$F$30</f>
         <v>6692357</v>
       </c>
       <c r="G34" s="12">
-        <f>100%-F34/[24]Лист1!$A$19</f>
+        <f>100%-F34/[26]Лист1!$A$19</f>
         <v>0.645907037037037</v>
       </c>
       <c r="H34" s="13">
-        <f>[24]Лист1!$A$19-F34</f>
+        <f>[26]Лист1!$A$19-F34</f>
         <v>12207643</v>
       </c>
       <c r="I34" s="26">
@@ -3985,19 +3986,19 @@
       <c r="C35" s="10"/>
       <c r="D35" s="15"/>
       <c r="E35" s="33">
-        <f>[25]Паспорт!$E$32</f>
+        <f>[27]Паспорт!$E$32</f>
         <v>6375401</v>
       </c>
       <c r="F35" s="33">
-        <f>[25]Паспорт!$F$32</f>
+        <f>[27]Паспорт!$F$32</f>
         <v>6856227</v>
       </c>
       <c r="G35" s="31">
-        <f>100%-F35/[25]Паспорт!$A$21</f>
+        <f>100%-F35/[27]Паспорт!$A$21</f>
         <v>0.59189124999999998</v>
       </c>
       <c r="H35" s="30">
-        <f>[25]Паспорт!$A$21-F35</f>
+        <f>[27]Паспорт!$A$21-F35</f>
         <v>9943773</v>
       </c>
       <c r="I35" s="26">
@@ -4013,33 +4014,31 @@
         <v>27</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="32">
-        <f>[26]Лист1!$E$31</f>
-        <v>2504390</v>
+        <v>59</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="27">
+        <f>[29]Лист1!$E$31</f>
+        <v>6911216</v>
       </c>
       <c r="F36" s="27">
-        <f>[26]Лист1!$F$31</f>
-        <v>7080317</v>
+        <f>[29]Лист1!$F$31</f>
+        <v>7273905</v>
       </c>
       <c r="G36" s="12">
-        <f>100%-F36/[26]Лист1!$A$20</f>
-        <v>0.57855255952380946</v>
+        <f>100%-F36/[29]Лист1!$A$20</f>
+        <v>0.56702946428571432</v>
       </c>
       <c r="H36" s="13">
-        <f>[26]Лист1!$A$20-F36</f>
-        <v>9719683</v>
+        <f>[29]Лист1!$A$20-F36</f>
+        <v>9526095</v>
       </c>
       <c r="I36" s="26">
         <f>E36/F36</f>
-        <v>0.35371156404437826</v>
+        <v>0.95013833697305639</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="14"/>
@@ -4050,31 +4049,33 @@
         <v>28</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="27">
-        <f>[27]Лист1!$E$31</f>
-        <v>6911216</v>
+        <v>12</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="32">
+        <f>[28]Лист1!$E$31</f>
+        <v>3098368</v>
       </c>
       <c r="F37" s="27">
-        <f>[27]Лист1!$F$31</f>
-        <v>7273905</v>
+        <f>[28]Лист1!$F$31</f>
+        <v>7703906</v>
       </c>
       <c r="G37" s="12">
-        <f>100%-F37/[27]Лист1!$A$20</f>
-        <v>0.56702946428571432</v>
+        <f>100%-F37/[28]Лист1!$A$20</f>
+        <v>0.54143416666666666</v>
       </c>
       <c r="H37" s="13">
-        <f>[27]Лист1!$A$20-F37</f>
-        <v>9526095</v>
+        <f>[28]Лист1!$A$20-F37</f>
+        <v>9096094</v>
       </c>
       <c r="I37" s="26">
         <f>E37/F37</f>
-        <v>0.95013833697305639</v>
+        <v>0.40218143887010044</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="14"/>
@@ -4094,19 +4095,19 @@
         <v>13</v>
       </c>
       <c r="E38" s="27">
-        <f>[28]Лист1!$E$41</f>
+        <f>[30]Лист1!$E$41</f>
         <v>10299150</v>
       </c>
       <c r="F38" s="27">
-        <f>[28]Лист1!$F$41</f>
+        <f>[30]Лист1!$F$41</f>
         <v>11254225</v>
       </c>
       <c r="G38" s="12">
-        <f>100%-F38/[28]Лист1!$A$24</f>
+        <f>100%-F38/[30]Лист1!$A$24</f>
         <v>0.40453835978835984</v>
       </c>
       <c r="H38" s="13">
-        <f>[28]Лист1!$A$24-F38</f>
+        <f>[30]Лист1!$A$24-F38</f>
         <v>7645775</v>
       </c>
       <c r="I38" s="26">
@@ -4131,19 +4132,19 @@
         <v>13</v>
       </c>
       <c r="E39" s="28">
-        <f>[29]Лист1!$E$35</f>
+        <f>[31]Лист1!$E$35</f>
         <v>4644685</v>
       </c>
       <c r="F39" s="24">
-        <f>[29]Лист1!$F$35</f>
+        <f>[31]Лист1!$F$35</f>
         <v>8385402</v>
       </c>
       <c r="G39" s="31">
-        <f>100%-F39/[29]Лист1!$A$24</f>
+        <f>100%-F39/[31]Лист1!$A$24</f>
         <v>0.40104271428571425</v>
       </c>
       <c r="H39" s="30">
-        <f>[29]Лист1!$A$24-F39</f>
+        <f>[31]Лист1!$A$24-F39</f>
         <v>5614598</v>
       </c>
       <c r="I39" s="26">
@@ -4159,7 +4160,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>12</v>
@@ -4167,25 +4168,25 @@
       <c r="D40" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="24">
-        <f>[30]Лист1!$E$39</f>
-        <v>11248736</v>
+      <c r="E40" s="33">
+        <f>[25]Паспорт!$E$32</f>
+        <v>10785555</v>
       </c>
       <c r="F40" s="24">
-        <f>[30]Лист1!$F$39</f>
-        <v>12230442</v>
+        <f>[25]Паспорт!$F$32</f>
+        <v>11207015</v>
       </c>
       <c r="G40" s="29">
-        <f>100%-F40/[30]Лист1!$A$25</f>
-        <v>0.32799769230769227</v>
-      </c>
-      <c r="H40" s="30">
-        <f>[30]Лист1!$A$25-F40</f>
-        <v>5969558</v>
+        <f>[25]Паспорт!$I$32</f>
+        <v>0.33291577380952386</v>
+      </c>
+      <c r="H40" s="13">
+        <f>[25]Паспорт!$A$21-F40</f>
+        <v>5592985</v>
       </c>
       <c r="I40" s="26">
         <f>E40/F40</f>
-        <v>0.91973258202769781</v>
+        <v>0.96239319747497443</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="16"/>
@@ -4196,7 +4197,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>12</v>
@@ -4204,28 +4205,28 @@
       <c r="D41" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="32">
-        <f>[31]Лист1!$E$34</f>
-        <v>9557286</v>
-      </c>
-      <c r="F41" s="27">
-        <f>[31]Лист1!$F$34</f>
-        <v>12266723</v>
-      </c>
-      <c r="G41" s="19">
-        <f>100%-F41/[31]Лист1!$A$19</f>
-        <v>0.26983791666666668</v>
-      </c>
-      <c r="H41" s="20">
-        <f>[31]Лист1!$A$19-F41</f>
-        <v>4533277</v>
+      <c r="E41" s="24">
+        <f>[32]Лист1!$E$39</f>
+        <v>11248736</v>
+      </c>
+      <c r="F41" s="24">
+        <f>[32]Лист1!$F$39</f>
+        <v>12230442</v>
+      </c>
+      <c r="G41" s="25">
+        <f>100%-F41/[32]Лист1!$A$25</f>
+        <v>0.32799769230769227</v>
+      </c>
+      <c r="H41" s="24">
+        <f>[32]Лист1!$A$25-F41</f>
+        <v>5969558</v>
       </c>
       <c r="I41" s="26">
         <f>E41/F41</f>
-        <v>0.77912299804927532</v>
+        <v>0.91973258202769781</v>
       </c>
       <c r="J41" s="11"/>
-      <c r="K41" s="14"/>
+      <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
@@ -4233,7 +4234,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>12</v>
@@ -4242,24 +4243,24 @@
         <v>13</v>
       </c>
       <c r="E42" s="32">
-        <f>[32]Лист1!$E$31</f>
-        <v>6585300</v>
+        <f>[33]Лист1!$E$34</f>
+        <v>9557286</v>
       </c>
       <c r="F42" s="27">
-        <f>[32]Лист1!$F$31</f>
-        <v>10601261</v>
+        <f>[33]Лист1!$F$34</f>
+        <v>12266723</v>
       </c>
       <c r="G42" s="19">
-        <f>100%-F42/[32]Лист1!$A$20</f>
-        <v>0.24276707142857146</v>
+        <f>100%-F42/[33]Лист1!$A$19</f>
+        <v>0.26983791666666668</v>
       </c>
       <c r="H42" s="20">
-        <f>[32]Лист1!$A$20-F42</f>
-        <v>3398739</v>
+        <f>[33]Лист1!$A$19-F42</f>
+        <v>4533277</v>
       </c>
       <c r="I42" s="26">
         <f>E42/F42</f>
-        <v>0.62118081990434915</v>
+        <v>0.77912299804927532</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="14"/>
@@ -4270,7 +4271,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>12</v>
@@ -4278,65 +4279,65 @@
       <c r="D43" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="24">
-        <f>[33]Лист1!$E$36</f>
-        <v>12908414</v>
-      </c>
-      <c r="F43" s="24">
-        <f>[33]Лист1!$F$36</f>
-        <v>14155800</v>
-      </c>
-      <c r="G43" s="25">
-        <f>100%-F43/[33]Лист1!$A$20</f>
-        <v>0.15739285714285711</v>
-      </c>
-      <c r="H43" s="24">
-        <f>[33]Лист1!$A$20-F43</f>
-        <v>2644200</v>
+      <c r="E43" s="32">
+        <f>[34]Лист1!$E$31</f>
+        <v>6585300</v>
+      </c>
+      <c r="F43" s="27">
+        <f>[34]Лист1!$F$31</f>
+        <v>10601261</v>
+      </c>
+      <c r="G43" s="19">
+        <f>100%-F43/[34]Лист1!$A$20</f>
+        <v>0.24276707142857146</v>
+      </c>
+      <c r="H43" s="20">
+        <f>[34]Лист1!$A$20-F43</f>
+        <v>3398739</v>
       </c>
       <c r="I43" s="26">
         <f>E43/F43</f>
-        <v>0.91188163155738289</v>
+        <v>0.62118081990434915</v>
       </c>
       <c r="J43" s="11"/>
-      <c r="K43" s="16"/>
+      <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
         <f>A43+1</f>
         <v>35</v>
       </c>
-      <c r="B44" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="36" t="s">
+      <c r="B44" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="32">
-        <f>[34]Лист1!$E$35</f>
-        <v>11163985</v>
-      </c>
-      <c r="F44" s="37">
-        <f>[34]Лист1!$F$35</f>
-        <v>16149768</v>
-      </c>
-      <c r="G44" s="38">
-        <f>100%-F44/[34]Лист1!$A$20</f>
-        <v>3.8704285714285747E-2</v>
-      </c>
-      <c r="H44" s="43">
-        <f>[34]Лист1!$A$20-F44</f>
-        <v>650232</v>
-      </c>
-      <c r="I44" s="48">
+      <c r="E44" s="24">
+        <f>[35]Лист1!$E$36</f>
+        <v>12908414</v>
+      </c>
+      <c r="F44" s="24">
+        <f>[35]Лист1!$F$36</f>
+        <v>14155800</v>
+      </c>
+      <c r="G44" s="25">
+        <f>100%-F44/[35]Лист1!$A$20</f>
+        <v>0.15739285714285711</v>
+      </c>
+      <c r="H44" s="24">
+        <f>[35]Лист1!$A$20-F44</f>
+        <v>2644200</v>
+      </c>
+      <c r="I44" s="26">
         <f>E44/F44</f>
-        <v>0.69127835149086969</v>
-      </c>
-      <c r="J44" s="40"/>
-      <c r="K44" s="14"/>
+        <v>0.91188163155738289</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="16"/>
     </row>
     <row r="45" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
@@ -4353,19 +4354,19 @@
         <v>13</v>
       </c>
       <c r="E45" s="32">
-        <f>[35]Лист1!$E$31</f>
+        <f>[37]Лист1!$E$31</f>
         <v>6965028</v>
       </c>
       <c r="F45" s="27">
-        <f>[35]Лист1!$F$31</f>
+        <f>[37]Лист1!$F$31</f>
         <v>15426229</v>
       </c>
       <c r="G45" s="19">
-        <f>100%-F45/[35]Лист1!$A$20</f>
+        <f>100%-F45/[37]Лист1!$A$20</f>
         <v>8.1772083333333301E-2</v>
       </c>
       <c r="H45" s="20">
-        <f>[35]Лист1!$A$20-F45</f>
+        <f>[37]Лист1!$A$20-F45</f>
         <v>1373771</v>
       </c>
       <c r="I45" s="26">
@@ -4380,32 +4381,36 @@
         <f>A45+1</f>
         <v>37</v>
       </c>
-      <c r="B46" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="37">
-        <f>[40]Паспорт!$E$32</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="27">
-        <f>[40]Паспорт!$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="19">
-        <f>[40]Паспорт!$I$32</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="20">
-        <f>[40]Паспорт!$H$32</f>
-        <v>16800000</v>
-      </c>
-      <c r="I46" s="26" t="e">
+      <c r="B46" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="32">
+        <f>[36]Лист1!$E$35</f>
+        <v>11163985</v>
+      </c>
+      <c r="F46" s="37">
+        <f>[36]Лист1!$F$35</f>
+        <v>16149768</v>
+      </c>
+      <c r="G46" s="38">
+        <f>100%-F46/[36]Лист1!$A$20</f>
+        <v>3.8704285714285747E-2</v>
+      </c>
+      <c r="H46" s="43">
+        <f>[36]Лист1!$A$20-F46</f>
+        <v>650232</v>
+      </c>
+      <c r="I46" s="48">
         <f>E46/F46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="11"/>
+        <v>0.69127835149086969</v>
+      </c>
+      <c r="J46" s="40"/>
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4423,24 +4428,24 @@
         <v>13</v>
       </c>
       <c r="E47" s="24">
-        <f>[36]Лист1!$E$36</f>
-        <v>15646925</v>
+        <f>[39]Лист1!$E$36</f>
+        <v>17431064</v>
       </c>
       <c r="F47" s="24">
-        <f>[36]Лист1!$F$36</f>
-        <v>16344633</v>
+        <f>[39]Лист1!$F$36</f>
+        <v>18221638</v>
       </c>
       <c r="G47" s="25">
-        <f>100%-F47/[36]Лист1!$A$20</f>
-        <v>2.7105178571428579E-2</v>
+        <f>100%-F47/[39]Лист1!$A$20</f>
+        <v>-8.4621309523809529E-2</v>
       </c>
       <c r="H47" s="24">
-        <f>[36]Лист1!$A$20-F47</f>
-        <v>455367</v>
+        <f>[39]Лист1!$A$20-F47</f>
+        <v>-1421638</v>
       </c>
       <c r="I47" s="26">
         <f>E47/F47</f>
-        <v>0.95731271543386753</v>
+        <v>0.9566134504483077</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="16"/>
@@ -4577,11 +4582,11 @@
         <v>13</v>
       </c>
       <c r="E3" s="28">
-        <f>[37]Лист1!$E$32</f>
+        <f>[40]Лист1!$E$32</f>
         <v>8848812</v>
       </c>
       <c r="F3" s="24">
-        <f>[37]Лист1!$F$32</f>
+        <f>[40]Лист1!$F$32</f>
         <v>18119313</v>
       </c>
       <c r="G3" s="29">

--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Таблица выработки  ф-тов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F350E811-1ECA-414E-9AA9-192A86C1EE2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9787D651-20EB-41A5-81A2-7C2A287B2152}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Выработка формокомплектов" sheetId="1" r:id="rId1"/>
-    <sheet name="Списанные формокомплекты" sheetId="2" r:id="rId2"/>
+    <sheet name="На списание" sheetId="3" r:id="rId2"/>
+    <sheet name="Списанные формокомплекты" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
@@ -57,10 +57,22 @@
     <externalReference r:id="rId40"/>
     <externalReference r:id="rId41"/>
     <externalReference r:id="rId42"/>
+    <externalReference r:id="rId43"/>
+    <externalReference r:id="rId44"/>
+    <externalReference r:id="rId45"/>
+    <externalReference r:id="rId46"/>
+    <externalReference r:id="rId47"/>
+    <externalReference r:id="rId48"/>
+    <externalReference r:id="rId49"/>
+    <externalReference r:id="rId50"/>
+    <externalReference r:id="rId51"/>
+    <externalReference r:id="rId52"/>
+    <externalReference r:id="rId53"/>
+    <externalReference r:id="rId54"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$K$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$J$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$K$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$J$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
   <si>
     <t>№п/п</t>
   </si>
@@ -100,18 +112,12 @@
     <t>Коэф. полезного использования</t>
   </si>
   <si>
-    <t>Место нахождения</t>
-  </si>
-  <si>
     <t>Владелец</t>
   </si>
   <si>
     <t>Номер и дата договора аренды, покупки</t>
   </si>
   <si>
-    <t>ООО "Стеклозавод Ведатранзит"</t>
-  </si>
-  <si>
     <t>ООО "ВЕДАТРАНЗИТ"</t>
   </si>
   <si>
@@ -280,10 +286,43 @@
     <t>XXI-КПМ-30-1-500-4 (Аква Мятая)</t>
   </si>
   <si>
-    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.07.2020 г.</t>
-  </si>
-  <si>
     <t>Ice Cube</t>
+  </si>
+  <si>
+    <t>«Фляга 0,2 л» тип XIII-В-28-2-200-3 (бронза)</t>
+  </si>
+  <si>
+    <t>ХXI-КПМ-26-2-700-17 (Бульбаш 0,7 л. Экстра New)</t>
+  </si>
+  <si>
+    <t>ХXI-КПМ-26-2-1000-18 (Бульбаш 1 л. Экстра New)</t>
+  </si>
+  <si>
+    <t>«Калина 0,35» тип XХI-В-28-2-350-1 Часть 2</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-22В-500-20 Чистая формула</t>
+  </si>
+  <si>
+    <t>«Фирменная 3» тип XXI-B-28-2.1а-700-21</t>
+  </si>
+  <si>
+    <t>"Залихватская" КПМ-26-34-500</t>
+  </si>
+  <si>
+    <t>Дог. безв. польз. имуществом №1911 от 19/11/2019</t>
+  </si>
+  <si>
+    <t>"Овал" тип XXI-КПМ-25-500-11</t>
+  </si>
+  <si>
+    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.06.2021 г.</t>
+  </si>
+  <si>
+    <t>"Овал 0,7 л." тип XXI-КПМ-25-500-12</t>
+  </si>
+  <si>
+    <t>Витебск</t>
   </si>
 </sst>
 </file>
@@ -372,7 +411,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +442,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -666,6 +711,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -675,7 +764,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,14 +897,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -847,6 +930,64 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -898,10 +1039,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -928,8 +1099,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Данные"/>
       <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
       <sheetName val="Чист.  поддон"/>
@@ -943,22 +1114,23 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>14000000</v>
-          </cell>
-        </row>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="32">
           <cell r="E32">
-            <v>246960</v>
+            <v>209064</v>
           </cell>
           <cell r="F32">
-            <v>275256</v>
+            <v>274167</v>
+          </cell>
+          <cell r="H32">
+            <v>15125833</v>
+          </cell>
+          <cell r="I32">
+            <v>0.98219694805194802</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -979,8 +1151,9 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Детали ф-тов"/>
+      <sheetName val="Паспорт"/>
       <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
       <sheetName val="Чист.  поддон"/>
@@ -998,15 +1171,15 @@
       <sheetData sheetId="1">
         <row r="21">
           <cell r="A21">
-            <v>16800000</v>
+            <v>15400000</v>
           </cell>
         </row>
         <row r="32">
           <cell r="E32">
-            <v>833490</v>
+            <v>1222650</v>
           </cell>
           <cell r="F32">
-            <v>911671</v>
+            <v>1344169</v>
           </cell>
         </row>
       </sheetData>
@@ -1021,12 +1194,44 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>1036020</v>
+          </cell>
+          <cell r="F32">
+            <v>1292677</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1045,64 +1250,34 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>18200000</v>
-          </cell>
-        </row>
         <row r="32">
           <cell r="E32">
-            <v>1296300</v>
+            <v>2282400</v>
           </cell>
           <cell r="F32">
-            <v>1399851</v>
+            <v>2374283</v>
+          </cell>
+          <cell r="H32">
+            <v>14425717</v>
+          </cell>
+          <cell r="I32">
+            <v>0.85867363095238092</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>18200000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>2500608</v>
-          </cell>
-          <cell r="F30">
-            <v>2925166</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1112,29 +1287,48 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
+            <v>18200000</v>
+          </cell>
+        </row>
         <row r="32">
           <cell r="E32">
-            <v>1423626</v>
+            <v>2251092</v>
           </cell>
           <cell r="F32">
-            <v>1582238</v>
-          </cell>
-          <cell r="H32">
-            <v>11017762</v>
-          </cell>
-          <cell r="I32">
-            <v>0.87442555555555557</v>
+            <v>2430801</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1144,28 +1338,48 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>1036020</v>
-          </cell>
-          <cell r="F32">
-            <v>1292677</v>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>2379828</v>
+          </cell>
+          <cell r="F31">
+            <v>2473246</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1192,17 +1406,18 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
         <row r="32">
           <cell r="E32">
-            <v>1589616</v>
+            <v>1772226</v>
           </cell>
           <cell r="F32">
-            <v>1687489</v>
+            <v>1862007</v>
+          </cell>
+          <cell r="H32">
+            <v>14937993</v>
+          </cell>
+          <cell r="I32">
+            <v>0.88916625000000005</v>
           </cell>
         </row>
       </sheetData>
@@ -1223,6 +1438,222 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>1423626</v>
+          </cell>
+          <cell r="F32">
+            <v>1582238</v>
+          </cell>
+          <cell r="H32">
+            <v>11017762</v>
+          </cell>
+          <cell r="I32">
+            <v>0.87442555555555557</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>2853648</v>
+          </cell>
+          <cell r="F32">
+            <v>3021559</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="22">
+          <cell r="A22">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>2880934</v>
+          </cell>
+          <cell r="F33">
+            <v>3213050</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>15400000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>2673204</v>
+          </cell>
+          <cell r="F31">
+            <v>3078104</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>246960</v>
+          </cell>
+          <cell r="F32">
+            <v>275256</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1251,10 +1682,10 @@
         </row>
         <row r="32">
           <cell r="E32">
-            <v>1572846</v>
+            <v>2939946</v>
           </cell>
           <cell r="F32">
-            <v>1762816</v>
+            <v>3219779</v>
           </cell>
         </row>
       </sheetData>
@@ -1275,58 +1706,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>15400000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>1490724</v>
-          </cell>
-          <cell r="F31">
-            <v>1783277</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1354,10 +1734,10 @@
         </row>
         <row r="32">
           <cell r="E32">
-            <v>1740108</v>
+            <v>3401284</v>
           </cell>
           <cell r="F32">
-            <v>1879263</v>
+            <v>3627561</v>
           </cell>
         </row>
       </sheetData>
@@ -1377,7 +1757,132 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>1841664</v>
+          </cell>
+          <cell r="F32">
+            <v>4196198</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="A19">
+            <v>18200000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>4109952</v>
+          </cell>
+          <cell r="F30">
+            <v>4708790</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>12600000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>2529144</v>
+          </cell>
+          <cell r="F31">
+            <v>3332388</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="E31">
+            <v>1361360</v>
+          </cell>
+          <cell r="F31">
+            <v>4846035</v>
+          </cell>
+          <cell r="H31">
+            <v>11953965</v>
+          </cell>
+          <cell r="I31">
+            <v>0.71154553571428569</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1398,17 +1903,18 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
         <row r="32">
           <cell r="E32">
-            <v>2315808</v>
+            <v>4859136</v>
           </cell>
           <cell r="F32">
-            <v>2451889</v>
+            <v>5068528</v>
+          </cell>
+          <cell r="H32">
+            <v>11731472</v>
+          </cell>
+          <cell r="I32">
+            <v>0.69830190476190479</v>
           </cell>
         </row>
       </sheetData>
@@ -1428,7 +1934,588 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="E33">
+            <v>6044050</v>
+          </cell>
+          <cell r="F33">
+            <v>6475979</v>
+          </cell>
+          <cell r="H33">
+            <v>11724021</v>
+          </cell>
+          <cell r="I33">
+            <v>0.64417697802197804</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="A19">
+            <v>18900000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>7698145</v>
+          </cell>
+          <cell r="F30">
+            <v>8363755</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>15400000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>6515718</v>
+          </cell>
+          <cell r="F32">
+            <v>6867053</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="31">
+          <cell r="E31">
+            <v>232900</v>
+          </cell>
+          <cell r="F31">
+            <v>359654</v>
+          </cell>
+          <cell r="H31">
+            <v>16440346</v>
+          </cell>
+          <cell r="I31">
+            <v>0.97859202380952381</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="31">
+          <cell r="E31">
+            <v>7401744</v>
+          </cell>
+          <cell r="F31">
+            <v>7685939</v>
+          </cell>
+          <cell r="H31">
+            <v>9114061</v>
+          </cell>
+          <cell r="I31">
+            <v>0.54250363095238097</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>7189065</v>
+          </cell>
+          <cell r="F32">
+            <v>7718319</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>7801200</v>
+          </cell>
+          <cell r="F32">
+            <v>8210574</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Охладитель плунжера"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="32">
+          <cell r="E32">
+            <v>13283472</v>
+          </cell>
+          <cell r="F32">
+            <v>13862300</v>
+          </cell>
+          <cell r="H32">
+            <v>2937700</v>
+          </cell>
+          <cell r="I32">
+            <v>0.17486309523809518</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Охладитель плунжера"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="32">
+          <cell r="E32">
+            <v>9890430</v>
+          </cell>
+          <cell r="F32">
+            <v>10532265</v>
+          </cell>
+          <cell r="H32">
+            <v>6267735</v>
+          </cell>
+          <cell r="I32">
+            <v>0.37307946428571426</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="25">
+          <cell r="A25">
+            <v>18200000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="24">
+          <cell r="A24">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>5961565</v>
+          </cell>
+          <cell r="F35">
+            <v>9807693</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>6585300</v>
+          </cell>
+          <cell r="F31">
+            <v>10601261</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>15466990</v>
+          </cell>
+          <cell r="F32">
+            <v>15915971</v>
+          </cell>
+          <cell r="H32">
+            <v>884029</v>
+          </cell>
+          <cell r="I32">
+            <v>5.2620773809523791E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="38">
+          <cell r="E38">
+            <v>13806936</v>
+          </cell>
+          <cell r="F38">
+            <v>14281531</v>
+          </cell>
+          <cell r="H38">
+            <v>2518469</v>
+          </cell>
+          <cell r="I38">
+            <v>0.14990886904761902</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1480,69 +2567,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>12600000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>1654830</v>
-          </cell>
-          <cell r="F31">
-            <v>2339419</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="22">
-          <cell r="A22">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33">
-            <v>2880934</v>
-          </cell>
-          <cell r="F33">
-            <v>3213050</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1557,23 +2582,23 @@
             <v>16800000</v>
           </cell>
         </row>
-        <row r="32">
-          <cell r="E32">
-            <v>1381248</v>
-          </cell>
-          <cell r="F32">
-            <v>3690499</v>
+        <row r="35">
+          <cell r="E35">
+            <v>12037830</v>
+          </cell>
+          <cell r="F35">
+            <v>16823645</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1583,17 +2608,48 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>15400000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>3720516</v>
-          </cell>
-          <cell r="F32">
-            <v>3921050</v>
+        <row r="25">
+          <cell r="A25">
+            <v>18900000</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>16268914</v>
+          </cell>
+          <cell r="F50">
+            <v>17588921</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>15138400</v>
+          </cell>
+          <cell r="F31">
+            <v>15759091</v>
           </cell>
         </row>
       </sheetData>
@@ -1604,7 +2660,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1625,18 +2681,18 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>4536156</v>
-          </cell>
-          <cell r="F32">
-            <v>4718139</v>
-          </cell>
-          <cell r="H32">
-            <v>12081861</v>
-          </cell>
-          <cell r="I32">
-            <v>0.71915839285714278</v>
+        <row r="31">
+          <cell r="E31">
+            <v>16584750</v>
+          </cell>
+          <cell r="F31">
+            <v>17141946</v>
+          </cell>
+          <cell r="H31">
+            <v>-341946</v>
+          </cell>
+          <cell r="I31">
+            <v>-2.0353928571428481E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1656,7 +2712,70 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="A19">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>14320272</v>
+          </cell>
+          <cell r="F36">
+            <v>17268245</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="E33">
+            <v>9121896</v>
+          </cell>
+          <cell r="F33">
+            <v>17665467</v>
+          </cell>
+          <cell r="H33">
+            <v>-865467</v>
+          </cell>
+          <cell r="I33">
+            <v>-5.1515892857142864E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1675,42 +2794,40 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>10785555</v>
-          </cell>
-          <cell r="F32">
-            <v>11207015</v>
-          </cell>
-          <cell r="I32">
-            <v>0.33291577380952386</v>
+        <row r="35">
+          <cell r="E35">
+            <v>48337963</v>
+          </cell>
+          <cell r="F35">
+            <v>49959239</v>
+          </cell>
+          <cell r="H35">
+            <v>-11559239</v>
+          </cell>
+          <cell r="I35">
+            <v>-0.30102184895833339</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1720,17 +2837,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>18900000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>6255857</v>
-          </cell>
-          <cell r="F30">
-            <v>6692357</v>
+        <row r="32">
+          <cell r="E32">
+            <v>8848812</v>
+          </cell>
+          <cell r="F32">
+            <v>18119313</v>
           </cell>
         </row>
       </sheetData>
@@ -1741,58 +2853,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>6375401</v>
-          </cell>
-          <cell r="F32">
-            <v>6856227</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1807,12 +2868,12 @@
             <v>16800000</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="E31">
-            <v>3098368</v>
-          </cell>
-          <cell r="F31">
-            <v>7703906</v>
+        <row r="36">
+          <cell r="E36">
+            <v>20298152</v>
+          </cell>
+          <cell r="F36">
+            <v>21209022</v>
           </cell>
         </row>
       </sheetData>
@@ -1823,7 +2884,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1838,448 +2899,12 @@
             <v>16800000</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="E31">
-            <v>6911216</v>
-          </cell>
-          <cell r="F31">
-            <v>7273905</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Детали ф-тов"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>15400000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>850590</v>
-          </cell>
-          <cell r="F32">
-            <v>934780</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="24">
-          <cell r="A24">
-            <v>18900000</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>10299150</v>
-          </cell>
-          <cell r="F41">
-            <v>11254225</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="24">
-          <cell r="A24">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>4644685</v>
-          </cell>
-          <cell r="F35">
-            <v>8385402</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="25">
-          <cell r="A25">
-            <v>18200000</v>
-          </cell>
-        </row>
         <row r="39">
           <cell r="E39">
-            <v>11248736</v>
+            <v>13948077</v>
           </cell>
           <cell r="F39">
-            <v>12230442</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>9557286</v>
-          </cell>
-          <cell r="F34">
-            <v>12266723</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>6585300</v>
-          </cell>
-          <cell r="F31">
-            <v>10601261</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>12908414</v>
-          </cell>
-          <cell r="F36">
-            <v>14155800</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>11163985</v>
-          </cell>
-          <cell r="F35">
-            <v>16149768</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>6965028</v>
-          </cell>
-          <cell r="F31">
-            <v>15426229</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>733248</v>
-          </cell>
-          <cell r="F32">
-            <v>773983</v>
-          </cell>
-          <cell r="H32">
-            <v>16026017</v>
-          </cell>
-          <cell r="I32">
-            <v>0.95392958333333333</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>17431064</v>
-          </cell>
-          <cell r="F36">
-            <v>18221638</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>449036</v>
-          </cell>
-          <cell r="F31">
-            <v>524968</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>8848812</v>
-          </cell>
-          <cell r="F32">
-            <v>18119313</v>
+            <v>19061212</v>
           </cell>
         </row>
       </sheetData>
@@ -2309,19 +2934,207 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="32">
+          <cell r="E32">
+            <v>899340</v>
+          </cell>
+          <cell r="F32">
+            <v>991358</v>
+          </cell>
+          <cell r="H32">
+            <v>15808642</v>
+          </cell>
+          <cell r="I32">
+            <v>0.94099059523809525</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink50.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="37">
+          <cell r="E37">
+            <v>14802518</v>
+          </cell>
+          <cell r="F37">
+            <v>16166846</v>
+          </cell>
+          <cell r="H37">
+            <v>633154</v>
+          </cell>
+          <cell r="I37">
+            <v>3.7687738095237955E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="32">
+          <cell r="E32">
+            <v>173712</v>
+          </cell>
+          <cell r="F32">
+            <v>204423</v>
+          </cell>
+          <cell r="H32">
+            <v>16595577</v>
+          </cell>
+          <cell r="I32">
+            <v>0.98783196428571429</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="31">
+          <cell r="E31">
+            <v>713912</v>
+          </cell>
+          <cell r="F31">
+            <v>796205</v>
+          </cell>
+          <cell r="H31">
+            <v>14603795</v>
+          </cell>
+          <cell r="I31">
+            <v>0.94829837662337657</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="20">
-          <cell r="A20">
+        <row r="21">
+          <cell r="A21">
             <v>16800000</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="E31">
-            <v>618648</v>
-          </cell>
-          <cell r="F31">
-            <v>667526</v>
+        <row r="32">
+          <cell r="E32">
+            <v>833490</v>
+          </cell>
+          <cell r="F32">
+            <v>911671</v>
           </cell>
         </row>
       </sheetData>
@@ -2341,7 +3154,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2363,117 +3176,19 @@
       <sheetData sheetId="0">
         <row r="21">
           <cell r="A21">
-            <v>13300000</v>
+            <v>14000000</v>
           </cell>
         </row>
         <row r="37">
           <cell r="E37">
-            <v>491400</v>
+            <v>761670</v>
           </cell>
           <cell r="F37">
-            <v>577433</v>
+            <v>873407</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Охладитель плунжера"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>745790</v>
-          </cell>
-          <cell r="F32">
-            <v>820325</v>
-          </cell>
-          <cell r="H32">
-            <v>15979675</v>
-          </cell>
-          <cell r="I32">
-            <v>0.95117113095238093</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Охладитель плунжера"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>2726288</v>
-          </cell>
-          <cell r="F32">
-            <v>2844075</v>
-          </cell>
-        </row>
-      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -2494,20 +3209,49 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>21000000</v>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="31">
+          <cell r="E31">
+            <v>1615056</v>
+          </cell>
+          <cell r="F31">
+            <v>1753120</v>
+          </cell>
+          <cell r="H31">
+            <v>15046880</v>
+          </cell>
+          <cell r="I31">
+            <v>0.89564761904761903</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2837,13 +3581,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2852,7 +3596,7 @@
     <col min="2" max="2" width="59.7109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="28.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
@@ -2862,63 +3606,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="A1" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="74" t="s">
+      <c r="H3" s="89"/>
+      <c r="I3" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="79" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="73"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2931,36 +3675,42 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="62"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
+        <f>A4+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25">
-        <f>100%-F5/16800000</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="24">
-        <f>18200000-F5</f>
-        <v>18200000</v>
-      </c>
-      <c r="I5" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="19" t="e">
+        <f>100%-F5/19600000</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" s="20" t="e">
+        <f>18900000-F5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" s="26" t="e">
+        <f>E5/F5</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="18"/>
+      <c r="K5"/>
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
@@ -2968,442 +3718,445 @@
         <v>2</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="19">
-        <f>100%-F6/19600000</f>
+        <v>11</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25">
+        <f>100%-F6/16800000</f>
         <v>1</v>
       </c>
-      <c r="H6" s="20">
-        <f>18900000-F6</f>
-        <v>18900000</v>
+      <c r="H6" s="24">
+        <f>18200000-F6</f>
+        <v>18200000</v>
       </c>
       <c r="I6" s="26" t="e">
         <f>E6/F6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50">
+      <c r="A7" s="23">
         <f>A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="53">
+      <c r="B7" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="27">
+        <f>[51]Паспорт!$E$32</f>
+        <v>173712</v>
+      </c>
+      <c r="F7" s="27">
+        <f>[51]Паспорт!$F$32</f>
+        <v>204423</v>
+      </c>
+      <c r="G7" s="19">
+        <f>[51]Паспорт!$I$32</f>
+        <v>0.98783196428571429</v>
+      </c>
+      <c r="H7" s="20">
+        <f>[51]Паспорт!$H$32</f>
+        <v>16595577</v>
+      </c>
+      <c r="I7" s="26">
+        <f>E7/F7</f>
+        <v>0.84976739407992252</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <f>A7+1</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="24">
         <f>[1]Паспорт!$E$32</f>
-        <v>246960</v>
-      </c>
-      <c r="F7" s="53">
+        <v>209064</v>
+      </c>
+      <c r="F8" s="24">
         <f>[1]Паспорт!$F$32</f>
-        <v>275256</v>
-      </c>
-      <c r="G7" s="54">
-        <f>100%-F7/[1]Паспорт!$A$21</f>
-        <v>0.98033885714285718</v>
-      </c>
-      <c r="H7" s="53">
-        <f>[1]Паспорт!$A$21-F7</f>
-        <v>13724744</v>
-      </c>
-      <c r="I7" s="55">
-        <f>E7/F7</f>
-        <v>0.8972011509285901</v>
-      </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="24">
-        <f>[2]Паспорт!$E$32</f>
-        <v>436272</v>
-      </c>
-      <c r="F8" s="24">
-        <f>[2]Паспорт!$F$32</f>
-        <v>462924</v>
+        <v>274167</v>
       </c>
       <c r="G8" s="25">
-        <f>[2]Паспорт!$I$32</f>
-        <v>0.972445</v>
+        <f>[1]Паспорт!$I$32</f>
+        <v>0.98219694805194802</v>
       </c>
       <c r="H8" s="24">
-        <f>[2]Паспорт!$H$32</f>
-        <v>16337076</v>
+        <f>[1]Паспорт!$H$32</f>
+        <v>15125833</v>
       </c>
       <c r="I8" s="26">
         <f>E8/F8</f>
-        <v>0.94242683464240351</v>
+        <v>0.76254253794220306</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50">
+      <c r="A9" s="23">
         <f>A8+1</f>
-        <v>1</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="52"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="50"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="57">
-        <f>[4]Лист1!$E$31</f>
-        <v>449036</v>
-      </c>
-      <c r="F9" s="57">
-        <f>[4]Лист1!$F$31</f>
-        <v>524968</v>
-      </c>
-      <c r="G9" s="58">
-        <f>100%-F9/15400000</f>
-        <v>0.96591116883116879</v>
-      </c>
-      <c r="H9" s="59">
-        <f>15400000-F9</f>
-        <v>14875032</v>
-      </c>
-      <c r="I9" s="55">
+      <c r="E9" s="51">
+        <f>[2]Паспорт!$E$32</f>
+        <v>246960</v>
+      </c>
+      <c r="F9" s="51">
+        <f>[2]Паспорт!$F$32</f>
+        <v>275256</v>
+      </c>
+      <c r="G9" s="52">
+        <f>100%-F9/[2]Паспорт!$A$21</f>
+        <v>0.98033885714285718</v>
+      </c>
+      <c r="H9" s="51">
+        <f>[2]Паспорт!$A$21-F9</f>
+        <v>13724744</v>
+      </c>
+      <c r="I9" s="53">
         <f>E9/F9</f>
-        <v>0.85535880282226728</v>
-      </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="14"/>
+        <v>0.8972011509285901</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <f>A9+1</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="27">
-        <f>[5]Паспорт!$E$31</f>
-        <v>618648</v>
-      </c>
-      <c r="F10" s="27">
-        <f>[5]Паспорт!$F$31</f>
-        <v>667526</v>
-      </c>
-      <c r="G10" s="19">
-        <f>100%-F10/[5]Паспорт!$A$20</f>
-        <v>0.96026630952380954</v>
-      </c>
-      <c r="H10" s="20">
-        <f>[5]Паспорт!$A$20-F10</f>
-        <v>16132474</v>
-      </c>
-      <c r="I10" s="26">
+        <v>6</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="37">
+        <f>[3]Паспорт!$E$31</f>
+        <v>232900</v>
+      </c>
+      <c r="F10" s="37">
+        <f>[3]Паспорт!$F$31</f>
+        <v>359654</v>
+      </c>
+      <c r="G10" s="38">
+        <f>[3]Паспорт!$I$31</f>
+        <v>0.97859202380952381</v>
+      </c>
+      <c r="H10" s="43">
+        <f>[3]Паспорт!$H$31</f>
+        <v>16440346</v>
+      </c>
+      <c r="I10" s="39">
         <f>E10/F10</f>
-        <v>0.92677738395208575</v>
-      </c>
-      <c r="J10" s="11"/>
+        <v>0.64756682811813582</v>
+      </c>
+      <c r="J10" s="40"/>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <f>A10+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="37">
-        <f>[6]Паспорт!$E$37</f>
-        <v>491400</v>
-      </c>
-      <c r="F11" s="37">
-        <f>[6]Паспорт!$F$37</f>
-        <v>577433</v>
-      </c>
-      <c r="G11" s="38">
-        <f>100%-F11/[6]Паспорт!$A$21</f>
-        <v>0.95658398496240604</v>
-      </c>
-      <c r="H11" s="43">
-        <f>[6]Паспорт!$A$21-F11</f>
-        <v>12722567</v>
-      </c>
-      <c r="I11" s="39">
+        <v>7</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="24">
+        <f>[4]Паспорт!$E$32</f>
+        <v>436272</v>
+      </c>
+      <c r="F11" s="24">
+        <f>[4]Паспорт!$F$32</f>
+        <v>462924</v>
+      </c>
+      <c r="G11" s="25">
+        <f>[4]Паспорт!$I$32</f>
+        <v>0.972445</v>
+      </c>
+      <c r="H11" s="24">
+        <f>[4]Паспорт!$H$32</f>
+        <v>16337076</v>
+      </c>
+      <c r="I11" s="26">
         <f>E11/F11</f>
-        <v>0.85100782255257323</v>
-      </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+        <v>0.94242683464240351</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <f>A11+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="37">
-        <f>[38]Паспорт!$E$32</f>
-        <v>733248</v>
+        <f>[6]Паспорт!$E$31</f>
+        <v>713912</v>
       </c>
       <c r="F12" s="27">
-        <f>[38]Паспорт!$F$32</f>
-        <v>773983</v>
+        <f>[6]Паспорт!$F$31</f>
+        <v>796205</v>
       </c>
       <c r="G12" s="19">
-        <f>[38]Паспорт!$I$32</f>
-        <v>0.95392958333333333</v>
+        <f>[6]Паспорт!$I$31</f>
+        <v>0.94829837662337657</v>
       </c>
       <c r="H12" s="20">
-        <f>[38]Паспорт!$H$32</f>
-        <v>16026017</v>
+        <f>[6]Паспорт!$H$31</f>
+        <v>14603795</v>
       </c>
       <c r="I12" s="26">
         <f>E12/F12</f>
-        <v>0.94736964506972376</v>
+        <v>0.89664345237721443</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
-        <f>A11+1</f>
-        <v>4</v>
+        <f>A12+1</f>
+        <v>9</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="33">
+        <v>58</v>
+      </c>
+      <c r="E13" s="27">
         <f>[7]Паспорт!$E$32</f>
-        <v>745790</v>
-      </c>
-      <c r="F13" s="24">
+        <v>833490</v>
+      </c>
+      <c r="F13" s="27">
         <f>[7]Паспорт!$F$32</f>
-        <v>820325</v>
-      </c>
-      <c r="G13" s="25">
-        <f>[7]Паспорт!$I$32</f>
-        <v>0.95117113095238093</v>
-      </c>
-      <c r="H13" s="24">
-        <f>[7]Паспорт!$H$32</f>
-        <v>15979675</v>
+        <v>911671</v>
+      </c>
+      <c r="G13" s="19">
+        <f>100%-F13/[7]Паспорт!$A$21</f>
+        <v>0.94573386904761902</v>
+      </c>
+      <c r="H13" s="20">
+        <f>[7]Паспорт!$A$21-F13</f>
+        <v>15888329</v>
       </c>
       <c r="I13" s="26">
         <f>E13/F13</f>
-        <v>0.90913967025264375</v>
+        <v>0.91424428329956753</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <f>A13+1</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E14" s="27">
-        <f>[10]Паспорт!$E$32</f>
-        <v>833490</v>
+        <v>763476</v>
       </c>
       <c r="F14" s="27">
-        <f>[10]Паспорт!$F$32</f>
-        <v>911671</v>
+        <v>975569</v>
       </c>
       <c r="G14" s="19">
-        <f>100%-F14/[10]Паспорт!$A$21</f>
-        <v>0.94573386904761902</v>
+        <f>100%-F14/16800000</f>
+        <v>0.94193041666666666</v>
       </c>
       <c r="H14" s="20">
-        <f>[10]Паспорт!$A$21-F14</f>
-        <v>15888329</v>
+        <f>16800000-F14</f>
+        <v>15824431</v>
       </c>
       <c r="I14" s="26">
         <f>E14/F14</f>
-        <v>0.91424428329956753</v>
+        <v>0.78259559293089465</v>
       </c>
       <c r="J14" s="11"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <f>A14+1</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="27">
-        <v>763476</v>
+        <v>75</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="37">
+        <f>[5]Паспорт!$E$32</f>
+        <v>899340</v>
       </c>
       <c r="F15" s="27">
-        <v>975569</v>
+        <f>[5]Паспорт!$F$32</f>
+        <v>991358</v>
       </c>
       <c r="G15" s="19">
-        <f>100%-F15/16800000</f>
-        <v>0.94193041666666666</v>
+        <f>[5]Паспорт!$I$32</f>
+        <v>0.94099059523809525</v>
       </c>
       <c r="H15" s="20">
-        <f>16800000-F15</f>
-        <v>15824431</v>
+        <f>[5]Паспорт!$H$32</f>
+        <v>15808642</v>
       </c>
       <c r="I15" s="26">
         <f>E15/F15</f>
-        <v>0.78259559293089465</v>
+        <v>0.90717984824856412</v>
       </c>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <f>A15+1</f>
-        <v>7</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="33">
-        <f>[3]Паспорт!$E$32</f>
-        <v>850590</v>
-      </c>
-      <c r="F16" s="24">
-        <f>[3]Паспорт!$F$32</f>
-        <v>934780</v>
-      </c>
-      <c r="G16" s="29">
-        <f>100%-F16/[3]Паспорт!$A$21</f>
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="H16" s="30">
-        <f>[3]Паспорт!$A$21-F16</f>
-        <v>14465220</v>
-      </c>
-      <c r="I16" s="26">
+        <v>11</v>
+      </c>
+      <c r="E16" s="37">
+        <f>[8]Паспорт!$E$37</f>
+        <v>761670</v>
+      </c>
+      <c r="F16" s="37">
+        <f>[8]Паспорт!$F$37</f>
+        <v>873407</v>
+      </c>
+      <c r="G16" s="38">
+        <f>100%-F16/[8]Паспорт!$A$21</f>
+        <v>0.93761378571428566</v>
+      </c>
+      <c r="H16" s="43">
+        <f>[8]Паспорт!$A$21-F16</f>
+        <v>13126593</v>
+      </c>
+      <c r="I16" s="39">
         <f>E16/F16</f>
-        <v>0.9099360277284495</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="18"/>
+        <v>0.87206766146825021</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <f>A16+1</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="27">
-        <f>[11]Паспорт!$E$32</f>
-        <v>1296300</v>
-      </c>
-      <c r="F17" s="27">
-        <f>[11]Паспорт!$F$32</f>
-        <v>1399851</v>
-      </c>
-      <c r="G17" s="12">
-        <f>100%-F17/[11]Паспорт!$A$21</f>
-        <v>0.92308510989010983</v>
-      </c>
-      <c r="H17" s="13">
-        <f>[11]Паспорт!$A$21-F17</f>
-        <v>16800149</v>
+        <v>51</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="33">
+        <f>[10]Паспорт!$E$32</f>
+        <v>1222650</v>
+      </c>
+      <c r="F17" s="24">
+        <f>[10]Паспорт!$F$32</f>
+        <v>1344169</v>
+      </c>
+      <c r="G17" s="25">
+        <f>100%-F17/[10]Паспорт!$A$21</f>
+        <v>0.91271629870129867</v>
+      </c>
+      <c r="H17" s="24">
+        <f>[10]Паспорт!$A$21-F17</f>
+        <v>14055831</v>
       </c>
       <c r="I17" s="26">
         <f>E17/F17</f>
-        <v>0.92602712717282054</v>
+        <v>0.90959544521559421</v>
       </c>
       <c r="J17" s="11"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <f>A17+1</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="49">
-        <f>[14]Лист1!$E$32</f>
+        <v>11</v>
+      </c>
+      <c r="E18" s="27">
+        <f>[11]Лист1!$E$32</f>
         <v>1036020</v>
       </c>
-      <c r="F18" s="49">
-        <f>[14]Лист1!$F$32</f>
+      <c r="F18" s="27">
+        <f>[11]Лист1!$F$32</f>
         <v>1292677</v>
       </c>
       <c r="G18" s="12">
-        <f>100%-F18/[14]Лист1!$A$21</f>
+        <f>100%-F18/[11]Лист1!$A$21</f>
         <v>0.90766592857142858</v>
       </c>
       <c r="H18" s="13">
-        <f>[14]Лист1!$A$21-F18</f>
+        <f>[11]Лист1!$A$21-F18</f>
         <v>12707323</v>
       </c>
       <c r="I18" s="26">
@@ -3415,351 +4168,345 @@
     <row r="19" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <f>A18+1</f>
-        <v>10</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="27">
-        <f>[15]Паспорт!$E$32</f>
-        <v>1589616</v>
-      </c>
-      <c r="F19" s="27">
-        <f>[15]Паспорт!$F$32</f>
-        <v>1687489</v>
-      </c>
-      <c r="G19" s="12">
-        <f>100%-F19/[15]Паспорт!$A$21</f>
-        <v>0.8995542261904762</v>
-      </c>
-      <c r="H19" s="13">
-        <f>[15]Паспорт!$A$21-F19</f>
-        <v>15112511</v>
-      </c>
-      <c r="I19" s="26">
+        <v>15</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="37">
+        <f>[9]Паспорт!$E$31</f>
+        <v>1615056</v>
+      </c>
+      <c r="F19" s="37">
+        <f>[9]Паспорт!$F$31</f>
+        <v>1753120</v>
+      </c>
+      <c r="G19" s="69">
+        <f>[9]Паспорт!$I$31</f>
+        <v>0.89564761904761903</v>
+      </c>
+      <c r="H19" s="70">
+        <f>[9]Паспорт!$H$31</f>
+        <v>15046880</v>
+      </c>
+      <c r="I19" s="39">
         <f>E19/F19</f>
-        <v>0.94200080711637235</v>
-      </c>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" s="22" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.9212466916126677</v>
+      </c>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <f>A19+1</f>
+        <v>16</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="33">
-        <f>[16]Паспорт!$E$32</f>
-        <v>1572846</v>
-      </c>
-      <c r="F20" s="24">
-        <f>[16]Паспорт!$F$32</f>
-        <v>1762816</v>
-      </c>
-      <c r="G20" s="29">
-        <f>100%-F20/[16]Паспорт!$A$21</f>
-        <v>0.88553142857142852</v>
-      </c>
-      <c r="H20" s="30">
-        <f>[16]Паспорт!$A$21-F20</f>
-        <v>13637184</v>
+      <c r="E20" s="100">
+        <f>[15]Паспорт!$E$32</f>
+        <v>1772226</v>
+      </c>
+      <c r="F20" s="48">
+        <f>[15]Паспорт!$F$32</f>
+        <v>1862007</v>
+      </c>
+      <c r="G20" s="12">
+        <f>[15]Паспорт!$I$32</f>
+        <v>0.88916625000000005</v>
+      </c>
+      <c r="H20" s="13">
+        <f>[15]Паспорт!$H$32</f>
+        <v>14937993</v>
       </c>
       <c r="I20" s="26">
         <f>E20/F20</f>
-        <v>0.8922349241214057</v>
+        <v>0.95178267321229193</v>
       </c>
       <c r="J20" s="11"/>
-      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <f>A20+1</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="33">
-        <f>[17]Паспорт!$E$31</f>
-        <v>1490724</v>
-      </c>
-      <c r="F21" s="24">
-        <f>[17]Паспорт!$F$31</f>
-        <v>1783277</v>
-      </c>
-      <c r="G21" s="29">
-        <f>100%-F21/[17]Паспорт!$A$20</f>
-        <v>0.88420279220779219</v>
-      </c>
-      <c r="H21" s="30">
-        <f>[17]Паспорт!$A$20-F21</f>
-        <v>13616723</v>
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="27">
+        <f>[16]Лист1!$E$32</f>
+        <v>1423626</v>
+      </c>
+      <c r="F21" s="27">
+        <f>[16]Лист1!$F$32</f>
+        <v>1582238</v>
+      </c>
+      <c r="G21" s="12">
+        <f>[16]Лист1!$I$32</f>
+        <v>0.87442555555555557</v>
+      </c>
+      <c r="H21" s="13">
+        <f>[16]Лист1!$H$32</f>
+        <v>11017762</v>
       </c>
       <c r="I21" s="26">
         <f>E21/F21</f>
-        <v>0.83594640653134655</v>
+        <v>0.89975465132299948</v>
       </c>
       <c r="J21" s="11"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" s="22" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <f>A21+1</f>
-        <v>13</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="33">
-        <f>[18]Паспорт!$E$32</f>
-        <v>1740108</v>
-      </c>
-      <c r="F22" s="33">
-        <f>[18]Паспорт!$F$32</f>
-        <v>1879263</v>
-      </c>
-      <c r="G22" s="44">
-        <f>100%-F22/[18]Паспорт!$A$21</f>
-        <v>0.87796993506493504</v>
-      </c>
-      <c r="H22" s="34">
-        <f>[18]Паспорт!$A$21-F22</f>
-        <v>13520737</v>
-      </c>
-      <c r="I22" s="39">
+        <v>18</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="27">
+        <f>[13]Паспорт!$E$32</f>
+        <v>2251092</v>
+      </c>
+      <c r="F22" s="27">
+        <f>[13]Паспорт!$F$32</f>
+        <v>2430801</v>
+      </c>
+      <c r="G22" s="12">
+        <f>100%-F22/[13]Паспорт!$A$21</f>
+        <v>0.86643950549450555</v>
+      </c>
+      <c r="H22" s="13">
+        <f>[13]Паспорт!$A$21-F22</f>
+        <v>15769199</v>
+      </c>
+      <c r="I22" s="26">
         <f>E22/F22</f>
-        <v>0.92595235472629434</v>
-      </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="42"/>
+        <v>0.92607004851487229</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <f>A22+1</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="27">
-        <f>[13]Лист1!$E$32</f>
-        <v>1423626</v>
+        <v>11</v>
+      </c>
+      <c r="E23" s="37">
+        <f>[12]Паспорт!$E$32</f>
+        <v>2282400</v>
       </c>
       <c r="F23" s="27">
-        <f>[13]Лист1!$F$32</f>
-        <v>1582238</v>
+        <f>[12]Паспорт!$F$32</f>
+        <v>2374283</v>
       </c>
       <c r="G23" s="12">
-        <f>[13]Лист1!$I$32</f>
-        <v>0.87442555555555557</v>
+        <f>[12]Паспорт!$I$32</f>
+        <v>0.85867363095238092</v>
       </c>
       <c r="H23" s="13">
-        <f>[13]Лист1!$H$32</f>
-        <v>11017762</v>
+        <f>[12]Паспорт!$H$32</f>
+        <v>14425717</v>
       </c>
       <c r="I23" s="26">
         <f>E23/F23</f>
-        <v>0.89975465132299948</v>
+        <v>0.96130073794909876</v>
       </c>
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <f>A23+1</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="37">
-        <f>[8]Паспорт!$E$32</f>
-        <v>2726288</v>
+        <v>64</v>
+      </c>
+      <c r="E24" s="27">
+        <f>[14]Паспорт!$E$31</f>
+        <v>2379828</v>
       </c>
       <c r="F24" s="27">
-        <f>[8]Паспорт!$F$32</f>
-        <v>2844075</v>
+        <f>[14]Паспорт!$F$31</f>
+        <v>2473246</v>
       </c>
       <c r="G24" s="12">
-        <f>100%-F24/[9]Лист1!$A$19</f>
-        <v>0.86456785714285711</v>
+        <f>100%-F24/[14]Паспорт!$A$20</f>
+        <v>0.85278297619047616</v>
       </c>
       <c r="H24" s="13">
-        <f>[9]Лист1!$A$19-F24</f>
-        <v>18155925</v>
+        <f>[14]Паспорт!$A$20-F24</f>
+        <v>14326754</v>
       </c>
       <c r="I24" s="26">
         <f>E24/F24</f>
-        <v>0.95858512873254043</v>
+        <v>0.96222858542983591</v>
       </c>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <f>A24+1</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E25" s="27">
-        <f>[19]Паспорт!$E$32</f>
-        <v>2315808</v>
+        <f>[17]Паспорт!$E$32</f>
+        <v>2853648</v>
       </c>
       <c r="F25" s="27">
-        <f>[19]Паспорт!$F$32</f>
-        <v>2451889</v>
+        <f>[17]Паспорт!$F$32</f>
+        <v>3021559</v>
       </c>
       <c r="G25" s="12">
-        <f>100%-F25/[19]Паспорт!$A$21</f>
-        <v>0.85405422619047622</v>
+        <f>100%-F25/[17]Паспорт!$A$21</f>
+        <v>0.82014529761904764</v>
       </c>
       <c r="H25" s="13">
-        <f>[19]Паспорт!$A$21-F25</f>
-        <v>14348111</v>
+        <f>[17]Паспорт!$A$21-F25</f>
+        <v>13778441</v>
       </c>
       <c r="I25" s="26">
         <f>E25/F25</f>
-        <v>0.9444995266914612</v>
+        <v>0.94442901826507442</v>
       </c>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <f>A25+1</f>
-        <v>17</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="27">
-        <f>[12]Лист1!$E$30</f>
-        <v>2500608</v>
-      </c>
-      <c r="F26" s="27">
-        <f>[12]Лист1!$F$30</f>
-        <v>2925166</v>
-      </c>
-      <c r="G26" s="12">
-        <f>100%-F26/[12]Лист1!$A$19</f>
-        <v>0.83927659340659344</v>
-      </c>
-      <c r="H26" s="13">
-        <f>[12]Лист1!$A$19-F26</f>
-        <v>15274834</v>
-      </c>
-      <c r="I26" s="26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="51">
+        <f>[18]Лист1!$E$33</f>
+        <v>2880934</v>
+      </c>
+      <c r="F26" s="51">
+        <f>[18]Лист1!$F$33</f>
+        <v>3213050</v>
+      </c>
+      <c r="G26" s="72">
+        <f>100%-F26/[18]Лист1!$A$22</f>
+        <v>0.80874702380952379</v>
+      </c>
+      <c r="H26" s="73">
+        <f>[18]Лист1!$A$22-F26</f>
+        <v>13586950</v>
+      </c>
+      <c r="I26" s="53">
         <f>E26/F26</f>
-        <v>0.85486020280558439</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26"/>
+        <v>0.89663528423149341</v>
+      </c>
+      <c r="J26" s="54"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <f>A26+1</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="28">
-        <f>[20]Лист1!$E$31</f>
-        <v>1654830</v>
+        <v>44</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="33">
+        <f>[19]Паспорт!$E$31</f>
+        <v>2673204</v>
       </c>
       <c r="F27" s="24">
-        <f>[20]Лист1!$F$31</f>
-        <v>2339419</v>
+        <f>[19]Паспорт!$F$31</f>
+        <v>3078104</v>
       </c>
       <c r="G27" s="29">
-        <f>100%-F27/[20]Лист1!$A$20</f>
-        <v>0.81433182539682536</v>
+        <f>100%-F27/[19]Паспорт!$A$20</f>
+        <v>0.80012311688311688</v>
       </c>
       <c r="H27" s="30">
-        <f>[20]Лист1!$A$20-F27</f>
-        <v>10260581</v>
+        <f>[19]Паспорт!$A$20-F27</f>
+        <v>12321896</v>
       </c>
       <c r="I27" s="26">
         <f>E27/F27</f>
-        <v>0.70736794050146634</v>
+        <v>0.8684579858250403</v>
       </c>
       <c r="J27" s="11"/>
-      <c r="K27" s="16"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <f>A27+1</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="15"/>
       <c r="E28" s="33">
-        <f>[21]Лист1!$E$33</f>
-        <v>2880934</v>
+        <f>[20]Паспорт!$E$32</f>
+        <v>2939946</v>
       </c>
       <c r="F28" s="24">
-        <f>[21]Лист1!$F$33</f>
-        <v>3213050</v>
+        <f>[20]Паспорт!$F$32</f>
+        <v>3219779</v>
       </c>
       <c r="G28" s="29">
-        <f>100%-F28/[21]Лист1!$A$22</f>
-        <v>0.80874702380952379</v>
+        <f>100%-F28/[20]Паспорт!$A$21</f>
+        <v>0.79092344155844152</v>
       </c>
       <c r="H28" s="30">
-        <f>[21]Лист1!$A$22-F28</f>
-        <v>13586950</v>
+        <f>[20]Паспорт!$A$21-F28</f>
+        <v>12180221</v>
       </c>
       <c r="I28" s="26">
         <f>E28/F28</f>
-        <v>0.89663528423149341</v>
+        <v>0.91308937663112899</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="18"/>
@@ -3767,326 +4514,333 @@
     <row r="29" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <f>A28+1</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="28">
-        <f>[22]Лист1!$E$32</f>
-        <v>1381248</v>
-      </c>
-      <c r="F29" s="24">
-        <f>[22]Лист1!$F$32</f>
-        <v>3690499</v>
-      </c>
-      <c r="G29" s="29">
-        <f>100%-F29/[22]Лист1!$A$21</f>
-        <v>0.78032744047619051</v>
-      </c>
-      <c r="H29" s="30">
-        <f>[22]Лист1!$A$21-F29</f>
-        <v>13109501</v>
+        <v>11</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27">
+        <v>3080000</v>
+      </c>
+      <c r="G29" s="12">
+        <f>100%-F29/14000000</f>
+        <v>0.78</v>
+      </c>
+      <c r="H29" s="13">
+        <f>14000000-F29</f>
+        <v>10920000</v>
       </c>
       <c r="I29" s="26">
         <f>E29/F29</f>
-        <v>0.37427133837456666</v>
+        <v>0</v>
       </c>
       <c r="J29" s="11"/>
-      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <f>A29+1</f>
-        <v>21</v>
-      </c>
-      <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27">
-        <v>3080000</v>
-      </c>
-      <c r="G30" s="12">
-        <f>100%-F30/14000000</f>
-        <v>0.78</v>
-      </c>
-      <c r="H30" s="13">
-        <f>14000000-F30</f>
-        <v>10920000</v>
-      </c>
-      <c r="I30" s="26">
+      <c r="B30" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="33">
+        <f>[21]Паспорт!$E$32</f>
+        <v>3401284</v>
+      </c>
+      <c r="F30" s="33">
+        <f>[21]Паспорт!$F$32</f>
+        <v>3627561</v>
+      </c>
+      <c r="G30" s="44">
+        <f>100%-F30/[21]Паспорт!$A$21</f>
+        <v>0.76444409090909093</v>
+      </c>
+      <c r="H30" s="34">
+        <f>[21]Паспорт!$A$21-F30</f>
+        <v>11772439</v>
+      </c>
+      <c r="I30" s="39">
         <f>E30/F30</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="11"/>
+        <v>0.93762282701793298</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="42"/>
     </row>
     <row r="31" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <f>A30+1</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="E31" s="28">
+        <f>[22]Лист1!$E$32</f>
+        <v>1841664</v>
+      </c>
       <c r="F31" s="24">
-        <v>4055359</v>
+        <f>[22]Лист1!$F$32</f>
+        <v>4196198</v>
       </c>
       <c r="G31" s="29">
-        <f>100%-F31/16800000</f>
-        <v>0.75860958333333328</v>
+        <f>100%-F31/[22]Лист1!$A$21</f>
+        <v>0.75022630952380953</v>
       </c>
       <c r="H31" s="30">
-        <f>18900000-F31</f>
-        <v>14844641</v>
+        <f>[22]Лист1!$A$21-F31</f>
+        <v>12603802</v>
       </c>
       <c r="I31" s="26">
         <f>E31/F31</f>
-        <v>0</v>
+        <v>0.43888872736701173</v>
       </c>
       <c r="J31" s="11"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <f>A31+1</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E32" s="27">
-        <f>[23]Лист1!$E$32</f>
-        <v>3720516</v>
+        <f>[23]Лист1!$E$30</f>
+        <v>4109952</v>
       </c>
       <c r="F32" s="27">
-        <f>[23]Лист1!$F$32</f>
-        <v>3921050</v>
+        <f>[23]Лист1!$F$30</f>
+        <v>4708790</v>
       </c>
       <c r="G32" s="12">
-        <f>100%-F32/[23]Лист1!$A$21</f>
-        <v>0.74538636363636357</v>
+        <f>100%-F32/[23]Лист1!$A$19</f>
+        <v>0.74127527472527466</v>
       </c>
       <c r="H32" s="13">
-        <f>[23]Лист1!$A$21-F32</f>
-        <v>11478950</v>
+        <f>[23]Лист1!$A$19-F32</f>
+        <v>13491210</v>
       </c>
       <c r="I32" s="26">
         <f>E32/F32</f>
-        <v>0.94885706634702438</v>
+        <v>0.87282550294236949</v>
       </c>
       <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <f>A32+1</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="37">
-        <f>[24]Паспорт!$E$32</f>
-        <v>4536156</v>
-      </c>
-      <c r="F33" s="27">
-        <f>[24]Паспорт!$F$32</f>
-        <v>4718139</v>
-      </c>
-      <c r="G33" s="12">
-        <f>[24]Паспорт!$I$32</f>
-        <v>0.71915839285714278</v>
-      </c>
-      <c r="H33" s="13">
-        <f>[24]Паспорт!$H$32</f>
-        <v>12081861</v>
+        <v>11</v>
+      </c>
+      <c r="E33" s="28">
+        <f>[24]Лист1!$E$31</f>
+        <v>2529144</v>
+      </c>
+      <c r="F33" s="24">
+        <f>[24]Лист1!$F$31</f>
+        <v>3332388</v>
+      </c>
+      <c r="G33" s="29">
+        <f>100%-F33/[24]Лист1!$A$20</f>
+        <v>0.7355247619047619</v>
+      </c>
+      <c r="H33" s="30">
+        <f>[24]Лист1!$A$20-F33</f>
+        <v>9267612</v>
       </c>
       <c r="I33" s="26">
         <f>E33/F33</f>
-        <v>0.96142907192857185</v>
+        <v>0.75895844061375806</v>
       </c>
       <c r="J33" s="11"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
         <f>A33+1</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="27">
-        <f>[26]Лист1!$E$30</f>
-        <v>6255857</v>
-      </c>
-      <c r="F34" s="27">
-        <f>[26]Лист1!$F$30</f>
-        <v>6692357</v>
-      </c>
-      <c r="G34" s="12">
-        <f>100%-F34/[26]Лист1!$A$19</f>
-        <v>0.645907037037037</v>
-      </c>
-      <c r="H34" s="13">
-        <f>[26]Лист1!$A$19-F34</f>
-        <v>12207643</v>
+        <v>11</v>
+      </c>
+      <c r="E34" s="28">
+        <f>[25]Лист1!$E$31</f>
+        <v>1361360</v>
+      </c>
+      <c r="F34" s="24">
+        <f>[25]Лист1!$F$31</f>
+        <v>4846035</v>
+      </c>
+      <c r="G34" s="29">
+        <f>[25]Лист1!$I$31</f>
+        <v>0.71154553571428569</v>
+      </c>
+      <c r="H34" s="30">
+        <f>[25]Лист1!$H$31</f>
+        <v>11953965</v>
       </c>
       <c r="I34" s="26">
         <f>E34/F34</f>
-        <v>0.93477634262487785</v>
+        <v>0.28092244484408385</v>
       </c>
       <c r="J34" s="11"/>
-      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
         <f>A34+1</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="33">
-        <f>[27]Паспорт!$E$32</f>
-        <v>6375401</v>
-      </c>
-      <c r="F35" s="33">
-        <f>[27]Паспорт!$F$32</f>
-        <v>6856227</v>
-      </c>
-      <c r="G35" s="31">
-        <f>100%-F35/[27]Паспорт!$A$21</f>
-        <v>0.59189124999999998</v>
-      </c>
-      <c r="H35" s="30">
-        <f>[27]Паспорт!$A$21-F35</f>
-        <v>9943773</v>
+        <v>66</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="37">
+        <f>[26]Паспорт!$E$32</f>
+        <v>4859136</v>
+      </c>
+      <c r="F35" s="27">
+        <f>[26]Паспорт!$F$32</f>
+        <v>5068528</v>
+      </c>
+      <c r="G35" s="12">
+        <f>[26]Паспорт!$I$32</f>
+        <v>0.69830190476190479</v>
+      </c>
+      <c r="H35" s="13">
+        <f>[26]Паспорт!$H$32</f>
+        <v>11731472</v>
       </c>
       <c r="I35" s="26">
         <f>E35/F35</f>
-        <v>0.92987017495190871</v>
+        <v>0.95868780837355538</v>
       </c>
       <c r="J35" s="11"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="1:11" s="41" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <f>A35+1</f>
-        <v>27</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="27">
-        <f>[29]Лист1!$E$31</f>
-        <v>6911216</v>
-      </c>
-      <c r="F36" s="27">
-        <f>[29]Лист1!$F$31</f>
-        <v>7273905</v>
-      </c>
-      <c r="G36" s="12">
-        <f>100%-F36/[29]Лист1!$A$20</f>
-        <v>0.56702946428571432</v>
-      </c>
-      <c r="H36" s="13">
-        <f>[29]Лист1!$A$20-F36</f>
-        <v>9526095</v>
-      </c>
-      <c r="I36" s="26">
+        <v>32</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="37">
+        <f>[27]Лист1!$E$33</f>
+        <v>6044050</v>
+      </c>
+      <c r="F36" s="32">
+        <f>[27]Лист1!$F$33</f>
+        <v>6475979</v>
+      </c>
+      <c r="G36" s="69">
+        <f>[27]Лист1!$I$33</f>
+        <v>0.64417697802197804</v>
+      </c>
+      <c r="H36" s="70">
+        <f>[27]Лист1!$H$33</f>
+        <v>11724021</v>
+      </c>
+      <c r="I36" s="39">
         <f>E36/F36</f>
-        <v>0.95013833697305639</v>
-      </c>
-      <c r="J36" s="11"/>
+        <v>0.93330290292788165</v>
+      </c>
+      <c r="J36" s="40"/>
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <f>A36+1</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="32">
-        <f>[28]Лист1!$E$31</f>
-        <v>3098368</v>
+        <v>11</v>
+      </c>
+      <c r="E37" s="27">
+        <f>[28]Лист1!$E$30</f>
+        <v>7698145</v>
       </c>
       <c r="F37" s="27">
-        <f>[28]Лист1!$F$31</f>
-        <v>7703906</v>
+        <f>[28]Лист1!$F$30</f>
+        <v>8363755</v>
       </c>
       <c r="G37" s="12">
-        <f>100%-F37/[28]Лист1!$A$20</f>
-        <v>0.54143416666666666</v>
+        <f>100%-F37/[28]Лист1!$A$19</f>
+        <v>0.55747328042328048</v>
       </c>
       <c r="H37" s="13">
-        <f>[28]Лист1!$A$20-F37</f>
-        <v>9096094</v>
+        <f>[28]Лист1!$A$19-F37</f>
+        <v>10536245</v>
       </c>
       <c r="I37" s="26">
         <f>E37/F37</f>
-        <v>0.40218143887010044</v>
+        <v>0.92041732451512503</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="41" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <f>A37+1</f>
+        <v>34</v>
+      </c>
+      <c r="B38" s="46" t="s">
         <v>29</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>33</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>12</v>
@@ -4095,24 +4849,24 @@
         <v>13</v>
       </c>
       <c r="E38" s="27">
-        <f>[30]Лист1!$E$41</f>
-        <v>10299150</v>
+        <f>[29]Лист1!$E$32</f>
+        <v>6515718</v>
       </c>
       <c r="F38" s="27">
-        <f>[30]Лист1!$F$41</f>
-        <v>11254225</v>
+        <f>[29]Лист1!$F$32</f>
+        <v>6867053</v>
       </c>
       <c r="G38" s="12">
-        <f>100%-F38/[30]Лист1!$A$24</f>
-        <v>0.40453835978835984</v>
+        <f>100%-F38/[29]Лист1!$A$21</f>
+        <v>0.55408746753246751</v>
       </c>
       <c r="H38" s="13">
-        <f>[30]Лист1!$A$24-F38</f>
-        <v>7645775</v>
+        <f>[29]Лист1!$A$21-F38</f>
+        <v>8532947</v>
       </c>
       <c r="I38" s="26">
         <f>E38/F38</f>
-        <v>0.91513631547263363</v>
+        <v>0.94883758724448464</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="14"/>
@@ -4120,73 +4874,73 @@
     <row r="39" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
         <f>A38+1</f>
-        <v>30</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="28">
-        <f>[31]Лист1!$E$35</f>
-        <v>4644685</v>
-      </c>
-      <c r="F39" s="24">
-        <f>[31]Лист1!$F$35</f>
-        <v>8385402</v>
-      </c>
-      <c r="G39" s="31">
-        <f>100%-F39/[31]Лист1!$A$24</f>
-        <v>0.40104271428571425</v>
-      </c>
-      <c r="H39" s="30">
-        <f>[31]Лист1!$A$24-F39</f>
-        <v>5614598</v>
+        <v>35</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="37">
+        <f>[30]Паспорт!$E$31</f>
+        <v>7401744</v>
+      </c>
+      <c r="F39" s="37">
+        <f>[30]Паспорт!$F$31</f>
+        <v>7685939</v>
+      </c>
+      <c r="G39" s="69">
+        <f>[30]Паспорт!$I$31</f>
+        <v>0.54250363095238097</v>
+      </c>
+      <c r="H39" s="70">
+        <f>[30]Паспорт!$H$31</f>
+        <v>9114061</v>
       </c>
       <c r="I39" s="26">
         <f>E39/F39</f>
-        <v>0.55390129179256997</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="16"/>
+        <v>0.96302403649053159</v>
+      </c>
+      <c r="J39" s="40"/>
+      <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
         <f>A39+1</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>11</v>
       </c>
       <c r="E40" s="33">
-        <f>[25]Паспорт!$E$32</f>
-        <v>10785555</v>
-      </c>
-      <c r="F40" s="24">
-        <f>[25]Паспорт!$F$32</f>
-        <v>11207015</v>
-      </c>
-      <c r="G40" s="29">
-        <f>[25]Паспорт!$I$32</f>
-        <v>0.33291577380952386</v>
-      </c>
-      <c r="H40" s="13">
-        <f>[25]Паспорт!$A$21-F40</f>
-        <v>5592985</v>
+        <f>[31]Паспорт!$E$32</f>
+        <v>7189065</v>
+      </c>
+      <c r="F40" s="33">
+        <f>[31]Паспорт!$F$32</f>
+        <v>7718319</v>
+      </c>
+      <c r="G40" s="31">
+        <f>100%-F40/[31]Паспорт!$A$21</f>
+        <v>0.54057624999999998</v>
+      </c>
+      <c r="H40" s="30">
+        <f>[31]Паспорт!$A$21-F40</f>
+        <v>9081681</v>
       </c>
       <c r="I40" s="26">
         <f>E40/F40</f>
-        <v>0.96239319747497443</v>
+        <v>0.93142885128225461</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="16"/>
@@ -4194,147 +4948,145 @@
     <row r="41" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
         <f>A40+1</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="24">
-        <f>[32]Лист1!$E$39</f>
-        <v>11248736</v>
-      </c>
-      <c r="F41" s="24">
-        <f>[32]Лист1!$F$39</f>
-        <v>12230442</v>
-      </c>
-      <c r="G41" s="25">
-        <f>100%-F41/[32]Лист1!$A$25</f>
-        <v>0.32799769230769227</v>
-      </c>
-      <c r="H41" s="24">
-        <f>[32]Лист1!$A$25-F41</f>
-        <v>5969558</v>
+        <v>56</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="27">
+        <f>[32]Паспорт!$E$32</f>
+        <v>7801200</v>
+      </c>
+      <c r="F41" s="27">
+        <f>[32]Паспорт!$F$32</f>
+        <v>8210574</v>
+      </c>
+      <c r="G41" s="12">
+        <f>100%-F41/[32]Паспорт!$A$21</f>
+        <v>0.51127535714285721</v>
+      </c>
+      <c r="H41" s="13">
+        <f>[32]Паспорт!$A$21-F41</f>
+        <v>8589426</v>
       </c>
       <c r="I41" s="26">
         <f>E41/F41</f>
-        <v>0.91973258202769781</v>
+        <v>0.95014063572169249</v>
       </c>
       <c r="J41" s="11"/>
-      <c r="K41" s="16"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <f>A41+1</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="32">
-        <f>[33]Лист1!$E$34</f>
-        <v>9557286</v>
-      </c>
-      <c r="F42" s="27">
-        <f>[33]Лист1!$F$34</f>
-        <v>12266723</v>
-      </c>
-      <c r="G42" s="19">
-        <f>100%-F42/[33]Лист1!$A$19</f>
-        <v>0.26983791666666668</v>
-      </c>
-      <c r="H42" s="20">
-        <f>[33]Лист1!$A$19-F42</f>
-        <v>4533277</v>
+        <v>11</v>
+      </c>
+      <c r="E42" s="33">
+        <f>[34]Паспорт!$E$32</f>
+        <v>9890430</v>
+      </c>
+      <c r="F42" s="24">
+        <f>[34]Паспорт!$F$32</f>
+        <v>10532265</v>
+      </c>
+      <c r="G42" s="29">
+        <f>[34]Паспорт!$I$32</f>
+        <v>0.37307946428571426</v>
+      </c>
+      <c r="H42" s="30">
+        <f>[34]Паспорт!$H$32</f>
+        <v>6267735</v>
       </c>
       <c r="I42" s="26">
         <f>E42/F42</f>
-        <v>0.77912299804927532</v>
+        <v>0.93906011669854494</v>
       </c>
       <c r="J42" s="11"/>
-      <c r="K42" s="14"/>
+      <c r="K42" s="16"/>
     </row>
     <row r="43" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <f>A42+1</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="32">
-        <f>[34]Лист1!$E$31</f>
-        <v>6585300</v>
-      </c>
-      <c r="F43" s="27">
-        <f>[34]Лист1!$F$31</f>
-        <v>10601261</v>
-      </c>
-      <c r="G43" s="19">
-        <f>100%-F43/[34]Лист1!$A$20</f>
-        <v>0.24276707142857146</v>
-      </c>
-      <c r="H43" s="20">
-        <f>[34]Лист1!$A$20-F43</f>
-        <v>3398739</v>
+        <v>11</v>
+      </c>
+      <c r="E43" s="24">
+        <f>[35]Лист1!$E$39</f>
+        <v>11248736</v>
+      </c>
+      <c r="F43" s="24">
+        <f>[35]Лист1!$F$39</f>
+        <v>12230442</v>
+      </c>
+      <c r="G43" s="25">
+        <f>100%-F43/[35]Лист1!$A$25</f>
+        <v>0.32799769230769227</v>
+      </c>
+      <c r="H43" s="24">
+        <f>[35]Лист1!$A$25-F43</f>
+        <v>5969558</v>
       </c>
       <c r="I43" s="26">
         <f>E43/F43</f>
-        <v>0.62118081990434915</v>
+        <v>0.91973258202769781</v>
       </c>
       <c r="J43" s="11"/>
-      <c r="K43" s="14"/>
+      <c r="K43" s="16"/>
     </row>
     <row r="44" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
         <f>A43+1</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="24">
-        <f>[35]Лист1!$E$36</f>
-        <v>12908414</v>
+        <v>11</v>
+      </c>
+      <c r="E44" s="28">
+        <f>[36]Лист1!$E$35</f>
+        <v>5961565</v>
       </c>
       <c r="F44" s="24">
-        <f>[35]Лист1!$F$36</f>
-        <v>14155800</v>
-      </c>
-      <c r="G44" s="25">
-        <f>100%-F44/[35]Лист1!$A$20</f>
-        <v>0.15739285714285711</v>
+        <f>[36]Лист1!$F$35</f>
+        <v>9807693</v>
+      </c>
+      <c r="G44" s="26">
+        <f>100%-F44/[36]Лист1!$A$24</f>
+        <v>0.29945049999999995</v>
       </c>
       <c r="H44" s="24">
-        <f>[35]Лист1!$A$20-F44</f>
-        <v>2644200</v>
+        <f>[36]Лист1!$A$24-F44</f>
+        <v>4192307</v>
       </c>
       <c r="I44" s="26">
         <f>E44/F44</f>
-        <v>0.91188163155738289</v>
+        <v>0.60784580023049251</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="16"/>
@@ -4342,36 +5094,36 @@
     <row r="45" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
         <f>A44+1</f>
+        <v>41</v>
+      </c>
+      <c r="B45" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>24</v>
-      </c>
       <c r="C45" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E45" s="32">
         <f>[37]Лист1!$E$31</f>
-        <v>6965028</v>
+        <v>6585300</v>
       </c>
       <c r="F45" s="27">
         <f>[37]Лист1!$F$31</f>
-        <v>15426229</v>
+        <v>10601261</v>
       </c>
       <c r="G45" s="19">
         <f>100%-F45/[37]Лист1!$A$20</f>
-        <v>8.1772083333333301E-2</v>
+        <v>0.24276707142857146</v>
       </c>
       <c r="H45" s="20">
         <f>[37]Лист1!$A$20-F45</f>
-        <v>1373771</v>
+        <v>3398739</v>
       </c>
       <c r="I45" s="26">
         <f>E45/F45</f>
-        <v>0.45150554941197879</v>
+        <v>0.62118081990434915</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="14"/>
@@ -4379,93 +5131,387 @@
     <row r="46" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="23">
         <f>A45+1</f>
-        <v>37</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="32">
-        <f>[36]Лист1!$E$35</f>
-        <v>11163985</v>
-      </c>
-      <c r="F46" s="37">
-        <f>[36]Лист1!$F$35</f>
-        <v>16149768</v>
-      </c>
-      <c r="G46" s="38">
-        <f>100%-F46/[36]Лист1!$A$20</f>
-        <v>3.8704285714285747E-2</v>
-      </c>
-      <c r="H46" s="43">
-        <f>[36]Лист1!$A$20-F46</f>
-        <v>650232</v>
-      </c>
-      <c r="I46" s="48">
+        <v>42</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="37">
+        <f>[33]Паспорт!$E$32</f>
+        <v>13283472</v>
+      </c>
+      <c r="F46" s="27">
+        <f>[33]Паспорт!$F$32</f>
+        <v>13862300</v>
+      </c>
+      <c r="G46" s="19">
+        <f>[33]Паспорт!$I$32</f>
+        <v>0.17486309523809518</v>
+      </c>
+      <c r="H46" s="20">
+        <f>[33]Паспорт!$H$32</f>
+        <v>2937700</v>
+      </c>
+      <c r="I46" s="26">
         <f>E46/F46</f>
-        <v>0.69127835149086969</v>
-      </c>
-      <c r="J46" s="40"/>
+        <v>0.95824444716966162</v>
+      </c>
+      <c r="J46" s="11"/>
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23">
         <f>A46+1</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="24">
-        <f>[39]Лист1!$E$36</f>
-        <v>17431064</v>
-      </c>
-      <c r="F47" s="24">
-        <f>[39]Лист1!$F$36</f>
-        <v>18221638</v>
-      </c>
-      <c r="G47" s="25">
-        <f>100%-F47/[39]Лист1!$A$20</f>
-        <v>-8.4621309523809529E-2</v>
-      </c>
-      <c r="H47" s="24">
-        <f>[39]Лист1!$A$20-F47</f>
-        <v>-1421638</v>
+        <v>11</v>
+      </c>
+      <c r="E47" s="37">
+        <f>[39]Паспорт!$E$38</f>
+        <v>13806936</v>
+      </c>
+      <c r="F47" s="27">
+        <f>[39]Паспорт!$F$38</f>
+        <v>14281531</v>
+      </c>
+      <c r="G47" s="19">
+        <f>[39]Паспорт!$I$38</f>
+        <v>0.14990886904761902</v>
+      </c>
+      <c r="H47" s="20">
+        <f>[39]Паспорт!$H$38</f>
+        <v>2518469</v>
       </c>
       <c r="I47" s="26">
         <f>E47/F47</f>
-        <v>0.9566134504483077</v>
+        <v>0.96676861885465926</v>
       </c>
       <c r="J47" s="11"/>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23">
+        <f>A47+1</f>
+        <v>44</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="27">
+        <f>[41]Лист1!$E$50</f>
+        <v>16268914</v>
+      </c>
+      <c r="F48" s="27">
+        <f>[41]Лист1!$F$50</f>
+        <v>17588921</v>
+      </c>
+      <c r="G48" s="19">
+        <f>100%-F48/[41]Лист1!$A$25</f>
+        <v>6.9369259259259297E-2</v>
+      </c>
+      <c r="H48" s="20">
+        <f>[41]Лист1!$A$25-F48</f>
+        <v>1311079</v>
+      </c>
+      <c r="I48" s="26">
+        <f>E48/F48</f>
+        <v>0.92495236063656205</v>
+      </c>
+      <c r="J48" s="11"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23">
+        <f>A48+1</f>
+        <v>45</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="27">
+        <f>[42]Лист1!$E$31</f>
+        <v>15138400</v>
+      </c>
+      <c r="F49" s="27">
+        <f>[42]Лист1!$F$31</f>
+        <v>15759091</v>
+      </c>
+      <c r="G49" s="19">
+        <f>100%-F49/[42]Лист1!$A$20</f>
+        <v>6.1958869047619047E-2</v>
+      </c>
+      <c r="H49" s="20">
+        <f>[42]Лист1!$A$20-F49</f>
+        <v>1040909</v>
+      </c>
+      <c r="I49" s="26">
+        <f>E49/F49</f>
+        <v>0.9606137815943826</v>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23">
+        <f>A49+1</f>
+        <v>46</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="33">
+        <f>[38]Лист1!$E$32</f>
+        <v>15466990</v>
+      </c>
+      <c r="F50" s="33">
+        <f>[38]Лист1!$F$32</f>
+        <v>15915971</v>
+      </c>
+      <c r="G50" s="78">
+        <f>[38]Лист1!$I$32</f>
+        <v>5.2620773809523791E-2</v>
+      </c>
+      <c r="H50" s="33">
+        <f>[38]Лист1!$H$32</f>
+        <v>884029</v>
+      </c>
+      <c r="I50" s="39">
+        <f>E50/F50</f>
+        <v>0.97179053668795956</v>
+      </c>
+      <c r="J50" s="40"/>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23">
+        <f>A50+1</f>
+        <v>47</v>
+      </c>
+      <c r="B51" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="32">
+        <f>[40]Лист1!$E$35</f>
+        <v>12037830</v>
+      </c>
+      <c r="F51" s="32">
+        <f>[40]Лист1!$F$35</f>
+        <v>16823645</v>
+      </c>
+      <c r="G51" s="104">
+        <f>100%-F51/[40]Лист1!$A$21</f>
+        <v>-1.407440476190569E-3</v>
+      </c>
+      <c r="H51" s="105">
+        <f>[40]Лист1!$A$21-F51</f>
+        <v>-23645</v>
+      </c>
+      <c r="I51" s="106">
+        <f>E51/F51</f>
+        <v>0.71553043350593759</v>
+      </c>
+      <c r="J51" s="107"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="23">
+        <f>A51+1</f>
+        <v>48</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="62">
+        <f>[43]Паспорт!$E$31</f>
+        <v>16584750</v>
+      </c>
+      <c r="F52" s="62">
+        <f>[43]Паспорт!$F$31</f>
+        <v>17141946</v>
+      </c>
+      <c r="G52" s="63">
+        <f>[43]Паспорт!$I$31</f>
+        <v>-2.0353928571428481E-2</v>
+      </c>
+      <c r="H52" s="66">
+        <f>[43]Паспорт!$H$31</f>
+        <v>-341946</v>
+      </c>
+      <c r="I52" s="64">
+        <f>E52/F52</f>
+        <v>0.96749517236841143</v>
+      </c>
+      <c r="J52" s="65"/>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="23">
+        <f>A52+1</f>
+        <v>49</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="67">
+        <f>[44]Лист1!$E$36</f>
+        <v>14320272</v>
+      </c>
+      <c r="F53" s="67">
+        <f>[44]Лист1!$F$36</f>
+        <v>17268245</v>
+      </c>
+      <c r="G53" s="68">
+        <f>100%-F53/[44]Лист1!$A$19</f>
+        <v>-2.7871726190476176E-2</v>
+      </c>
+      <c r="H53" s="66">
+        <f>[44]Лист1!$A$19-F53</f>
+        <v>-468245</v>
+      </c>
+      <c r="I53" s="64">
+        <f>E53/F53</f>
+        <v>0.82928357803586872</v>
+      </c>
+      <c r="J53" s="65"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23">
+        <f>A53+1</f>
+        <v>50</v>
+      </c>
+      <c r="B54" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="67">
+        <f>[45]Лист1!$E$33</f>
+        <v>9121896</v>
+      </c>
+      <c r="F54" s="67">
+        <f>[45]Лист1!$F$33</f>
+        <v>17665467</v>
+      </c>
+      <c r="G54" s="68">
+        <f>[45]Лист1!$I$33</f>
+        <v>-5.1515892857142864E-2</v>
+      </c>
+      <c r="H54" s="66">
+        <f>[45]Лист1!$H$33</f>
+        <v>-865467</v>
+      </c>
+      <c r="I54" s="64">
+        <f>E54/F54</f>
+        <v>0.51636880021343334</v>
+      </c>
+      <c r="J54" s="65"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="23">
+        <f>A54+1</f>
+        <v>51</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="67">
+        <f>[46]Паспорт!$E$35</f>
+        <v>48337963</v>
+      </c>
+      <c r="F55" s="67">
+        <f>[46]Паспорт!$F$35</f>
+        <v>49959239</v>
+      </c>
+      <c r="G55" s="68">
+        <f>[46]Паспорт!$I$35</f>
+        <v>-0.30102184895833339</v>
+      </c>
+      <c r="H55" s="66">
+        <f>[46]Паспорт!$H$35</f>
+        <v>-11559239</v>
+      </c>
+      <c r="I55" s="64">
+        <f>E55/F55</f>
+        <v>0.96754802450053334</v>
+      </c>
+      <c r="J55" s="65"/>
+      <c r="K55" s="14"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K19" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A3:K21" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="6" showButton="0"/>
-    <sortState ref="A6:K47">
-      <sortCondition descending="1" ref="G3:G19"/>
+    <sortState ref="A6:K55">
+      <sortCondition descending="1" ref="G3:G21"/>
     </sortState>
   </autoFilter>
   <mergeCells count="9">
@@ -4482,17 +5528,166 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C008CD56-DDE6-46AA-88B6-268DE5663730}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="89"/>
+      <c r="I1" s="92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="71">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="62">
+        <f>[43]Паспорт!$E$31</f>
+        <v>16584750</v>
+      </c>
+      <c r="F3" s="62">
+        <f>[43]Паспорт!$F$31</f>
+        <v>17141946</v>
+      </c>
+      <c r="G3" s="63">
+        <f>[43]Паспорт!$I$31</f>
+        <v>-2.0353928571428481E-2</v>
+      </c>
+      <c r="H3" s="66">
+        <f>[43]Паспорт!$H$31</f>
+        <v>-341946</v>
+      </c>
+      <c r="I3" s="64">
+        <f>E3/F3</f>
+        <v>0.96749517236841143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="71">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="67">
+        <f>[44]Лист1!$E$36</f>
+        <v>14320272</v>
+      </c>
+      <c r="F4" s="67">
+        <f>[44]Лист1!$F$36</f>
+        <v>17268245</v>
+      </c>
+      <c r="G4" s="68">
+        <f>100%-F4/[44]Лист1!$A$19</f>
+        <v>-2.7871726190476176E-2</v>
+      </c>
+      <c r="H4" s="66">
+        <f>[44]Лист1!$A$19-F4</f>
+        <v>-468245</v>
+      </c>
+      <c r="I4" s="64">
+        <f t="shared" ref="I4" si="0">E4/F4</f>
+        <v>0.82928357803586872</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4512,44 +5707,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="74" t="s">
+      <c r="H1" s="89"/>
+      <c r="I1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="78" t="s">
-        <v>8</v>
-      </c>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4562,50 +5753,154 @@
       <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="79"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="A3" s="71">
+        <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="28">
-        <f>[40]Лист1!$E$32</f>
+        <v>17</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="51">
+        <f>[47]Лист1!$E$32</f>
         <v>8848812</v>
       </c>
-      <c r="F3" s="24">
-        <f>[40]Лист1!$F$32</f>
+      <c r="F3" s="51">
+        <f>[47]Лист1!$F$32</f>
         <v>18119313</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="72">
         <f>100%-F3/18200000</f>
         <v>4.4333516483516799E-3</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="73">
         <f>18200000-F3</f>
         <v>80687</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="74">
         <f t="shared" ref="I3" si="0">E3/F3</f>
         <v>0.4883635488828964</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="71">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="E4" s="51">
+        <f>[48]Лист1!$E$36</f>
+        <v>20298152</v>
+      </c>
+      <c r="F4" s="51">
+        <f>[48]Лист1!$F$36</f>
+        <v>21209022</v>
+      </c>
+      <c r="G4" s="52">
+        <f>100%-F4/[48]Лист1!$A$20</f>
+        <v>-0.26244178571428578</v>
+      </c>
+      <c r="H4" s="51">
+        <f>[48]Лист1!$A$20-F4</f>
+        <v>-4409022</v>
+      </c>
+      <c r="I4" s="74">
+        <f>E4/F4</f>
+        <v>0.95705271086993071</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="71">
+        <f>A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="55">
+        <f>[49]Лист1!$E$39</f>
+        <v>13948077</v>
+      </c>
+      <c r="F5" s="55">
+        <f>[49]Лист1!$F$39</f>
+        <v>19061212</v>
+      </c>
+      <c r="G5" s="56">
+        <f>100%-F5/[49]Лист1!$A$20</f>
+        <v>-0.13459595238095234</v>
+      </c>
+      <c r="H5" s="57">
+        <f>[49]Лист1!$A$20-F5</f>
+        <v>-2261212</v>
+      </c>
+      <c r="I5" s="53">
+        <f>E5/F5</f>
+        <v>0.73175184243268476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="71">
+        <f>A5+1</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="51">
+        <f>[50]Лист1!$E$37</f>
+        <v>14802518</v>
+      </c>
+      <c r="F6" s="51">
+        <f>[50]Лист1!$F$37</f>
+        <v>16166846</v>
+      </c>
+      <c r="G6" s="52">
+        <f>[50]Лист1!$I$37</f>
+        <v>3.7687738095237955E-2</v>
+      </c>
+      <c r="H6" s="51">
+        <f>[50]Лист1!$H$37</f>
+        <v>633154</v>
+      </c>
+      <c r="I6" s="53">
+        <f t="shared" ref="I6" si="1">E6/F6</f>
+        <v>0.91560951344498487</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4619,5 +5914,6 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Таблица выработки  ф-тов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9787D651-20EB-41A5-81A2-7C2A287B2152}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6CA417-DC93-4D0C-901D-56552EB9741E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,6 +69,8 @@
     <externalReference r:id="rId52"/>
     <externalReference r:id="rId53"/>
     <externalReference r:id="rId54"/>
+    <externalReference r:id="rId55"/>
+    <externalReference r:id="rId56"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$K$21</definedName>
@@ -86,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="82">
   <si>
     <t>№п/п</t>
   </si>
@@ -316,13 +318,22 @@
     <t>"Овал" тип XXI-КПМ-25-500-11</t>
   </si>
   <si>
-    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.06.2021 г.</t>
-  </si>
-  <si>
     <t>"Овал 0,7 л." тип XXI-КПМ-25-500-12</t>
   </si>
   <si>
     <t>Витебск</t>
+  </si>
+  <si>
+    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.07.2021 г.</t>
+  </si>
+  <si>
+    <t>XXI-В-30-4А-500-22 (Штоф Кристал)</t>
+  </si>
+  <si>
+    <t>Кристалл</t>
+  </si>
+  <si>
+    <t>ХXI-КПМ-27-500-22 (Белалко)</t>
   </si>
 </sst>
 </file>
@@ -764,7 +775,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,9 +996,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,30 +1057,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1118,16 +1102,16 @@
       <sheetData sheetId="1">
         <row r="32">
           <cell r="E32">
-            <v>209064</v>
+            <v>173712</v>
           </cell>
           <cell r="F32">
-            <v>274167</v>
+            <v>204423</v>
           </cell>
           <cell r="H32">
-            <v>15125833</v>
+            <v>16595577</v>
           </cell>
           <cell r="I32">
-            <v>0.98219694805194802</v>
+            <v>0.98783196428571429</v>
           </cell>
         </row>
       </sheetData>
@@ -1148,6 +1132,109 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="32">
+          <cell r="E32">
+            <v>899340</v>
+          </cell>
+          <cell r="F32">
+            <v>991358</v>
+          </cell>
+          <cell r="H32">
+            <v>15808642</v>
+          </cell>
+          <cell r="I32">
+            <v>0.94099059523809525</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>761670</v>
+          </cell>
+          <cell r="F37">
+            <v>873407</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1200,7 +1287,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1226,109 +1313,6 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>2282400</v>
-          </cell>
-          <cell r="F32">
-            <v>2374283</v>
-          </cell>
-          <cell r="H32">
-            <v>14425717</v>
-          </cell>
-          <cell r="I32">
-            <v>0.85867363095238092</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>18200000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>2251092</v>
-          </cell>
-          <cell r="F32">
-            <v>2430801</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1353,33 +1337,34 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
         <row r="31">
           <cell r="E31">
-            <v>2379828</v>
+            <v>1615056</v>
           </cell>
           <cell r="F31">
-            <v>2473246</v>
+            <v>1753120</v>
+          </cell>
+          <cell r="H31">
+            <v>15046880</v>
+          </cell>
+          <cell r="I31">
+            <v>0.89564761904761903</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1492,15 +1477,15 @@
       <sheetData sheetId="1">
         <row r="21">
           <cell r="A21">
-            <v>16800000</v>
+            <v>18200000</v>
           </cell>
         </row>
         <row r="32">
           <cell r="E32">
-            <v>2853648</v>
+            <v>2251092</v>
           </cell>
           <cell r="F32">
-            <v>3021559</v>
+            <v>2430801</v>
           </cell>
         </row>
       </sheetData>
@@ -1524,6 +1509,160 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>2379828</v>
+          </cell>
+          <cell r="F31">
+            <v>2473246</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>2853648</v>
+          </cell>
+          <cell r="F32">
+            <v>3021559</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="32">
+          <cell r="E32">
+            <v>209064</v>
+          </cell>
+          <cell r="F32">
+            <v>274167</v>
+          </cell>
+          <cell r="H32">
+            <v>15125833</v>
+          </cell>
+          <cell r="I32">
+            <v>0.98219694805194802</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Лист1"/>
       <sheetName val="Лист2"/>
       <sheetName val="Лист3"/>
@@ -1551,7 +1690,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1602,12 +1741,12 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Данные"/>
       <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
       <sheetName val="Чист.  поддон"/>
@@ -1621,22 +1760,23 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>14000000</v>
-          </cell>
-        </row>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="32">
           <cell r="E32">
-            <v>246960</v>
+            <v>3360960</v>
           </cell>
           <cell r="F32">
-            <v>275256</v>
+            <v>3487599</v>
+          </cell>
+          <cell r="H32">
+            <v>13312401</v>
+          </cell>
+          <cell r="I32">
+            <v>0.79240482142857149</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -1653,7 +1793,58 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
+            <v>15400000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>3401284</v>
+          </cell>
+          <cell r="F32">
+            <v>3627561</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1682,10 +1873,10 @@
         </row>
         <row r="32">
           <cell r="E32">
-            <v>2939946</v>
+            <v>3508836</v>
           </cell>
           <cell r="F32">
-            <v>3219779</v>
+            <v>3815129</v>
           </cell>
         </row>
       </sheetData>
@@ -1706,7 +1897,349 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>1841664</v>
+          </cell>
+          <cell r="F32">
+            <v>4196198</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="A19">
+            <v>18200000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>4109952</v>
+          </cell>
+          <cell r="F30">
+            <v>4708790</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>12600000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>2529144</v>
+          </cell>
+          <cell r="F31">
+            <v>3332388</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="E31">
+            <v>1361360</v>
+          </cell>
+          <cell r="F31">
+            <v>4846035</v>
+          </cell>
+          <cell r="H31">
+            <v>11953965</v>
+          </cell>
+          <cell r="I31">
+            <v>0.71154553571428569</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="37">
+          <cell r="E37">
+            <v>5327904</v>
+          </cell>
+          <cell r="F37">
+            <v>5557379</v>
+          </cell>
+          <cell r="H37">
+            <v>11242621</v>
+          </cell>
+          <cell r="I37">
+            <v>0.669203630952381</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>246960</v>
+          </cell>
+          <cell r="F32">
+            <v>275256</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="E33">
+            <v>6044050</v>
+          </cell>
+          <cell r="F33">
+            <v>6475979</v>
+          </cell>
+          <cell r="H33">
+            <v>11724021</v>
+          </cell>
+          <cell r="I33">
+            <v>0.64417697802197804</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="A19">
+            <v>18900000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>7698145</v>
+          </cell>
+          <cell r="F30">
+            <v>8363755</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>7189065</v>
+          </cell>
+          <cell r="F32">
+            <v>7718319</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1729,15 +2262,15 @@
       <sheetData sheetId="1">
         <row r="21">
           <cell r="A21">
-            <v>15400000</v>
+            <v>16800000</v>
           </cell>
         </row>
         <row r="32">
           <cell r="E32">
-            <v>3401284</v>
+            <v>7801200</v>
           </cell>
           <cell r="F32">
-            <v>3627561</v>
+            <v>8210574</v>
           </cell>
         </row>
       </sheetData>
@@ -1757,247 +2290,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>1841664</v>
-          </cell>
-          <cell r="F32">
-            <v>4196198</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>18200000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>4109952</v>
-          </cell>
-          <cell r="F30">
-            <v>4708790</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>12600000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>2529144</v>
-          </cell>
-          <cell r="F31">
-            <v>3332388</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>1361360</v>
-          </cell>
-          <cell r="F31">
-            <v>4846035</v>
-          </cell>
-          <cell r="H31">
-            <v>11953965</v>
-          </cell>
-          <cell r="I31">
-            <v>0.71154553571428569</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>4859136</v>
-          </cell>
-          <cell r="F32">
-            <v>5068528</v>
-          </cell>
-          <cell r="H32">
-            <v>11731472</v>
-          </cell>
-          <cell r="I32">
-            <v>0.69830190476190479</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>6044050</v>
-          </cell>
-          <cell r="F33">
-            <v>6475979</v>
-          </cell>
-          <cell r="H33">
-            <v>11724021</v>
-          </cell>
-          <cell r="I33">
-            <v>0.64417697802197804</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="A19">
-            <v>18900000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>7698145</v>
-          </cell>
-          <cell r="F30">
-            <v>8363755</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2012,12 +2305,12 @@
             <v>15400000</v>
           </cell>
         </row>
-        <row r="32">
-          <cell r="E32">
-            <v>6515718</v>
-          </cell>
-          <cell r="F32">
-            <v>6867053</v>
+        <row r="35">
+          <cell r="E35">
+            <v>7145088</v>
+          </cell>
+          <cell r="F35">
+            <v>7528758</v>
           </cell>
         </row>
       </sheetData>
@@ -2028,7 +2321,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2051,16 +2344,16 @@
       <sheetData sheetId="1">
         <row r="31">
           <cell r="E31">
-            <v>232900</v>
+            <v>8431920</v>
           </cell>
           <cell r="F31">
-            <v>359654</v>
+            <v>8763155</v>
           </cell>
           <cell r="H31">
-            <v>16440346</v>
+            <v>8036845</v>
           </cell>
           <cell r="I31">
-            <v>0.97859202380952381</v>
+            <v>0.4783836309523809</v>
           </cell>
         </row>
       </sheetData>
@@ -2080,213 +2373,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="31">
-          <cell r="E31">
-            <v>7401744</v>
-          </cell>
-          <cell r="F31">
-            <v>7685939</v>
-          </cell>
-          <cell r="H31">
-            <v>9114061</v>
-          </cell>
-          <cell r="I31">
-            <v>0.54250363095238097</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>7189065</v>
-          </cell>
-          <cell r="F32">
-            <v>7718319</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>7801200</v>
-          </cell>
-          <cell r="F32">
-            <v>8210574</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Охладитель плунжера"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>13283472</v>
-          </cell>
-          <cell r="F32">
-            <v>13862300</v>
-          </cell>
-          <cell r="H32">
-            <v>2937700</v>
-          </cell>
-          <cell r="I32">
-            <v>0.17486309523809518</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2338,7 +2425,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2359,68 +2446,6 @@
           </cell>
           <cell r="F39">
             <v>12230442</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="24">
-          <cell r="A24">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>5961565</v>
-          </cell>
-          <cell r="F35">
-            <v>9807693</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>6585300</v>
-          </cell>
-          <cell r="F31">
-            <v>10601261</v>
           </cell>
         </row>
       </sheetData>
@@ -2441,23 +2466,22 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>15466990</v>
-          </cell>
-          <cell r="F32">
-            <v>15915971</v>
-          </cell>
-          <cell r="H32">
-            <v>884029</v>
-          </cell>
-          <cell r="I32">
-            <v>5.2620773809523791E-2</v>
+        <row r="24">
+          <cell r="A24">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>5961565</v>
+          </cell>
+          <cell r="F35">
+            <v>9807693</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2467,49 +2491,28 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="38">
-          <cell r="E38">
-            <v>13806936</v>
-          </cell>
-          <cell r="F38">
-            <v>14281531</v>
-          </cell>
-          <cell r="H38">
-            <v>2518469</v>
-          </cell>
-          <cell r="I38">
-            <v>0.14990886904761902</v>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>14000000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>6585300</v>
+          </cell>
+          <cell r="F31">
+            <v>10601261</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2536,18 +2539,18 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>436272</v>
-          </cell>
-          <cell r="F32">
-            <v>462924</v>
-          </cell>
-          <cell r="H32">
-            <v>16337076</v>
-          </cell>
-          <cell r="I32">
-            <v>0.972445</v>
+        <row r="31">
+          <cell r="E31">
+            <v>232900</v>
+          </cell>
+          <cell r="F31">
+            <v>359654</v>
+          </cell>
+          <cell r="H31">
+            <v>16440346</v>
+          </cell>
+          <cell r="I31">
+            <v>0.97859202380952381</v>
           </cell>
         </row>
       </sheetData>
@@ -2571,28 +2574,49 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>12037830</v>
-          </cell>
-          <cell r="F35">
-            <v>16823645</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="38">
+          <cell r="E38">
+            <v>14343336</v>
+          </cell>
+          <cell r="F38">
+            <v>14834520</v>
+          </cell>
+          <cell r="H38">
+            <v>1965480</v>
+          </cell>
+          <cell r="I38">
+            <v>0.11699285714285712</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2602,28 +2626,49 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Охладитель плунжера"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="25">
-          <cell r="A25">
-            <v>18900000</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50">
-            <v>16268914</v>
-          </cell>
-          <cell r="F50">
-            <v>17588921</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="35">
+          <cell r="E35">
+            <v>14750608</v>
+          </cell>
+          <cell r="F35">
+            <v>15391166</v>
+          </cell>
+          <cell r="H35">
+            <v>1408834</v>
+          </cell>
+          <cell r="I35">
+            <v>8.3859166666666596E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2661,6 +2706,184 @@
 </file>
 
 <file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>12037830</v>
+          </cell>
+          <cell r="F35">
+            <v>16823645</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="E33">
+            <v>9121896</v>
+          </cell>
+          <cell r="F33">
+            <v>17665467</v>
+          </cell>
+          <cell r="H33">
+            <v>-865467</v>
+          </cell>
+          <cell r="I33">
+            <v>-5.1515892857142864E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="25">
+          <cell r="A25">
+            <v>18900000</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>18561530</v>
+          </cell>
+          <cell r="F54">
+            <v>19984201</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="35">
+          <cell r="E35">
+            <v>17619903</v>
+          </cell>
+          <cell r="F35">
+            <v>18109510</v>
+          </cell>
+          <cell r="H35">
+            <v>-1309510</v>
+          </cell>
+          <cell r="I35">
+            <v>-7.7947023809523897E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="35">
+          <cell r="E35">
+            <v>53674243</v>
+          </cell>
+          <cell r="F35">
+            <v>55464953</v>
+          </cell>
+          <cell r="H35">
+            <v>-17064953</v>
+          </cell>
+          <cell r="I35">
+            <v>-0.44439981770833348</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2712,7 +2935,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2733,178 +2956,6 @@
           </cell>
           <cell r="F36">
             <v>17268245</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>9121896</v>
-          </cell>
-          <cell r="F33">
-            <v>17665467</v>
-          </cell>
-          <cell r="H33">
-            <v>-865467</v>
-          </cell>
-          <cell r="I33">
-            <v>-5.1515892857142864E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="35">
-          <cell r="E35">
-            <v>48337963</v>
-          </cell>
-          <cell r="F35">
-            <v>49959239</v>
-          </cell>
-          <cell r="H35">
-            <v>-11559239</v>
-          </cell>
-          <cell r="I35">
-            <v>-0.30102184895833339</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>8848812</v>
-          </cell>
-          <cell r="F32">
-            <v>18119313</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>20298152</v>
-          </cell>
-          <cell r="F36">
-            <v>21209022</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="20">
-          <cell r="A20">
-            <v>16800000</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>13948077</v>
-          </cell>
-          <cell r="F39">
-            <v>19061212</v>
           </cell>
         </row>
       </sheetData>
@@ -2934,34 +2985,34 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="32">
           <cell r="E32">
-            <v>899340</v>
+            <v>395136</v>
           </cell>
           <cell r="F32">
-            <v>991358</v>
+            <v>424152</v>
           </cell>
           <cell r="H32">
-            <v>15808642</v>
+            <v>16375848</v>
           </cell>
           <cell r="I32">
-            <v>0.94099059523809525</v>
+            <v>0.9747528571428572</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2977,18 +3028,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>14802518</v>
-          </cell>
-          <cell r="F37">
-            <v>16166846</v>
-          </cell>
-          <cell r="H37">
-            <v>633154</v>
-          </cell>
-          <cell r="I37">
-            <v>3.7687738095237955E-2</v>
+        <row r="32">
+          <cell r="E32">
+            <v>8848812</v>
+          </cell>
+          <cell r="F32">
+            <v>18119313</v>
           </cell>
         </row>
       </sheetData>
@@ -3003,49 +3048,91 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>173712</v>
-          </cell>
-          <cell r="F32">
-            <v>204423</v>
-          </cell>
-          <cell r="H32">
-            <v>16595577</v>
-          </cell>
-          <cell r="I32">
-            <v>0.98783196428571429</v>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>20298152</v>
+          </cell>
+          <cell r="F36">
+            <v>21209022</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>13948077</v>
+          </cell>
+          <cell r="F39">
+            <v>19061212</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="37">
+          <cell r="E37">
+            <v>14802518</v>
+          </cell>
+          <cell r="F37">
+            <v>16166846</v>
+          </cell>
+          <cell r="H37">
+            <v>633154</v>
+          </cell>
+          <cell r="I37">
+            <v>3.7687738095237955E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3070,34 +3157,34 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="31">
-          <cell r="E31">
-            <v>713912</v>
-          </cell>
-          <cell r="F31">
-            <v>796205</v>
-          </cell>
-          <cell r="H31">
-            <v>14603795</v>
-          </cell>
-          <cell r="I31">
-            <v>0.94829837662337657</v>
+        <row r="32">
+          <cell r="E32">
+            <v>436272</v>
+          </cell>
+          <cell r="F32">
+            <v>462924</v>
+          </cell>
+          <cell r="H32">
+            <v>16337076</v>
+          </cell>
+          <cell r="I32">
+            <v>0.972445</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3124,17 +3211,18 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
         <row r="32">
           <cell r="E32">
-            <v>833490</v>
+            <v>450576</v>
           </cell>
           <cell r="F32">
-            <v>911671</v>
+            <v>489940</v>
+          </cell>
+          <cell r="H32">
+            <v>16310060</v>
+          </cell>
+          <cell r="I32">
+            <v>0.97083690476190476</v>
           </cell>
         </row>
       </sheetData>
@@ -3158,8 +3246,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Данные"/>
       <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
       <sheetName val="Чист.  поддон"/>
@@ -3173,22 +3261,23 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>14000000</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>761670</v>
-          </cell>
-          <cell r="F37">
-            <v>873407</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="31">
+          <cell r="E31">
+            <v>713912</v>
+          </cell>
+          <cell r="F31">
+            <v>796205</v>
+          </cell>
+          <cell r="H31">
+            <v>14603795</v>
+          </cell>
+          <cell r="I31">
+            <v>0.94829837662337657</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -3224,34 +3313,33 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="31">
-          <cell r="E31">
-            <v>1615056</v>
-          </cell>
-          <cell r="F31">
-            <v>1753120</v>
-          </cell>
-          <cell r="H31">
-            <v>15046880</v>
-          </cell>
-          <cell r="I31">
-            <v>0.89564761904761903</v>
+        <row r="21">
+          <cell r="A21">
+            <v>16800000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>833490</v>
+          </cell>
+          <cell r="F32">
+            <v>911671</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3584,10 +3672,10 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3606,38 +3694,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="A1" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="89" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -3646,23 +3734,23 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="92" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="78" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
@@ -3675,13 +3763,13 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="80"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="79"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
-        <f>A4+1</f>
+        <f t="shared" ref="A5:A12" si="0">A4+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="46" t="s">
@@ -3706,7 +3794,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I5" s="26" t="e">
-        <f>E5/F5</f>
+        <f t="shared" ref="I5:I36" si="1">E5/F5</f>
         <v>#VALUE!</v>
       </c>
       <c r="J5" s="11"/>
@@ -3714,7 +3802,7 @@
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B6" s="46" t="s">
@@ -3737,7 +3825,7 @@
         <v>18200000</v>
       </c>
       <c r="I6" s="26" t="e">
-        <f>E6/F6</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J6" s="11"/>
@@ -3745,34 +3833,34 @@
     </row>
     <row r="7" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="27">
-        <f>[51]Паспорт!$E$32</f>
+        <f>[1]Паспорт!$E$32</f>
         <v>173712</v>
       </c>
       <c r="F7" s="27">
-        <f>[51]Паспорт!$F$32</f>
+        <f>[1]Паспорт!$F$32</f>
         <v>204423</v>
       </c>
       <c r="G7" s="19">
-        <f>[51]Паспорт!$I$32</f>
+        <f>[1]Паспорт!$I$32</f>
         <v>0.98783196428571429</v>
       </c>
       <c r="H7" s="20">
-        <f>[51]Паспорт!$H$32</f>
+        <f>[1]Паспорт!$H$32</f>
         <v>16595577</v>
       </c>
       <c r="I7" s="26">
-        <f>E7/F7</f>
+        <f t="shared" si="1"/>
         <v>0.84976739407992252</v>
       </c>
       <c r="J7" s="11"/>
@@ -3780,7 +3868,7 @@
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="46" t="s">
@@ -3793,23 +3881,23 @@
         <v>74</v>
       </c>
       <c r="E8" s="24">
-        <f>[1]Паспорт!$E$32</f>
+        <f>[2]Паспорт!$E$32</f>
         <v>209064</v>
       </c>
       <c r="F8" s="24">
-        <f>[1]Паспорт!$F$32</f>
+        <f>[2]Паспорт!$F$32</f>
         <v>274167</v>
       </c>
       <c r="G8" s="25">
-        <f>[1]Паспорт!$I$32</f>
+        <f>[2]Паспорт!$I$32</f>
         <v>0.98219694805194802</v>
       </c>
       <c r="H8" s="24">
-        <f>[1]Паспорт!$H$32</f>
+        <f>[2]Паспорт!$H$32</f>
         <v>15125833</v>
       </c>
       <c r="I8" s="26">
-        <f>E8/F8</f>
+        <f t="shared" si="1"/>
         <v>0.76254253794220306</v>
       </c>
       <c r="J8" s="11"/>
@@ -3817,7 +3905,7 @@
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -3826,23 +3914,23 @@
       <c r="C9" s="50"/>
       <c r="D9" s="21"/>
       <c r="E9" s="51">
-        <f>[2]Паспорт!$E$32</f>
+        <f>[3]Паспорт!$E$32</f>
         <v>246960</v>
       </c>
       <c r="F9" s="51">
-        <f>[2]Паспорт!$F$32</f>
+        <f>[3]Паспорт!$F$32</f>
         <v>275256</v>
       </c>
       <c r="G9" s="52">
-        <f>100%-F9/[2]Паспорт!$A$21</f>
+        <f>100%-F9/[3]Паспорт!$A$21</f>
         <v>0.98033885714285718</v>
       </c>
       <c r="H9" s="51">
-        <f>[2]Паспорт!$A$21-F9</f>
+        <f>[3]Паспорт!$A$21-F9</f>
         <v>13724744</v>
       </c>
       <c r="I9" s="53">
-        <f>E9/F9</f>
+        <f t="shared" si="1"/>
         <v>0.8972011509285901</v>
       </c>
       <c r="J9" s="54"/>
@@ -3850,7 +3938,7 @@
     </row>
     <row r="10" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -3861,23 +3949,23 @@
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="37">
-        <f>[3]Паспорт!$E$31</f>
+        <f>[4]Паспорт!$E$31</f>
         <v>232900</v>
       </c>
       <c r="F10" s="37">
-        <f>[3]Паспорт!$F$31</f>
+        <f>[4]Паспорт!$F$31</f>
         <v>359654</v>
       </c>
       <c r="G10" s="38">
-        <f>[3]Паспорт!$I$31</f>
+        <f>[4]Паспорт!$I$31</f>
         <v>0.97859202380952381</v>
       </c>
       <c r="H10" s="43">
-        <f>[3]Паспорт!$H$31</f>
+        <f>[4]Паспорт!$H$31</f>
         <v>16440346</v>
       </c>
       <c r="I10" s="39">
-        <f>E10/F10</f>
+        <f t="shared" si="1"/>
         <v>0.64756682811813582</v>
       </c>
       <c r="J10" s="40"/>
@@ -3885,327 +3973,327 @@
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="24">
-        <f>[4]Паспорт!$E$32</f>
-        <v>436272</v>
-      </c>
-      <c r="F11" s="24">
-        <f>[4]Паспорт!$F$32</f>
-        <v>462924</v>
-      </c>
-      <c r="G11" s="25">
-        <f>[4]Паспорт!$I$32</f>
-        <v>0.972445</v>
-      </c>
-      <c r="H11" s="24">
-        <f>[4]Паспорт!$H$32</f>
-        <v>16337076</v>
+      <c r="E11" s="27">
+        <f>[5]Паспорт!$E$32</f>
+        <v>395136</v>
+      </c>
+      <c r="F11" s="27">
+        <f>[5]Паспорт!$F$32</f>
+        <v>424152</v>
+      </c>
+      <c r="G11" s="19">
+        <f>[5]Паспорт!$I$32</f>
+        <v>0.9747528571428572</v>
+      </c>
+      <c r="H11" s="20">
+        <f>[5]Паспорт!$H$32</f>
+        <v>16375848</v>
       </c>
       <c r="I11" s="26">
-        <f>E11/F11</f>
-        <v>0.94242683464240351</v>
+        <f t="shared" si="1"/>
+        <v>0.93159056187404521</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="16"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="37">
-        <f>[6]Паспорт!$E$31</f>
-        <v>713912</v>
-      </c>
-      <c r="F12" s="27">
-        <f>[6]Паспорт!$F$31</f>
-        <v>796205</v>
-      </c>
-      <c r="G12" s="19">
-        <f>[6]Паспорт!$I$31</f>
-        <v>0.94829837662337657</v>
-      </c>
-      <c r="H12" s="20">
-        <f>[6]Паспорт!$H$31</f>
-        <v>14603795</v>
+      <c r="E12" s="24">
+        <f>[6]Паспорт!$E$32</f>
+        <v>436272</v>
+      </c>
+      <c r="F12" s="24">
+        <f>[6]Паспорт!$F$32</f>
+        <v>462924</v>
+      </c>
+      <c r="G12" s="25">
+        <f>[6]Паспорт!$I$32</f>
+        <v>0.972445</v>
+      </c>
+      <c r="H12" s="24">
+        <f>[6]Паспорт!$H$32</f>
+        <v>16337076</v>
       </c>
       <c r="I12" s="26">
-        <f>E12/F12</f>
-        <v>0.89664345237721443</v>
+        <f t="shared" si="1"/>
+        <v>0.94242683464240351</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
-        <f>A12+1</f>
+        <f t="shared" ref="A13:A14" si="2">A12+1</f>
         <v>9</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="27">
+        <v>11</v>
+      </c>
+      <c r="E13" s="37">
         <f>[7]Паспорт!$E$32</f>
-        <v>833490</v>
+        <v>450576</v>
       </c>
       <c r="F13" s="27">
         <f>[7]Паспорт!$F$32</f>
-        <v>911671</v>
+        <v>489940</v>
       </c>
       <c r="G13" s="19">
-        <f>100%-F13/[7]Паспорт!$A$21</f>
-        <v>0.94573386904761902</v>
+        <f>[7]Паспорт!$I$32</f>
+        <v>0.97083690476190476</v>
       </c>
       <c r="H13" s="20">
-        <f>[7]Паспорт!$A$21-F13</f>
-        <v>15888329</v>
+        <f>[7]Паспорт!$H$32</f>
+        <v>16310060</v>
       </c>
       <c r="I13" s="26">
-        <f>E13/F13</f>
-        <v>0.91424428329956753</v>
+        <f t="shared" si="1"/>
+        <v>0.91965546801649178</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
-        <f>A13+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="27">
-        <v>763476</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="37">
+        <f>[8]Паспорт!$E$31</f>
+        <v>713912</v>
       </c>
       <c r="F14" s="27">
-        <v>975569</v>
+        <f>[8]Паспорт!$F$31</f>
+        <v>796205</v>
       </c>
       <c r="G14" s="19">
-        <f>100%-F14/16800000</f>
-        <v>0.94193041666666666</v>
+        <f>[8]Паспорт!$I$31</f>
+        <v>0.94829837662337657</v>
       </c>
       <c r="H14" s="20">
-        <f>16800000-F14</f>
-        <v>15824431</v>
+        <f>[8]Паспорт!$H$31</f>
+        <v>14603795</v>
       </c>
       <c r="I14" s="26">
-        <f>E14/F14</f>
-        <v>0.78259559293089465</v>
+        <f t="shared" si="1"/>
+        <v>0.89664345237721443</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
-        <f>A14+1</f>
+        <f t="shared" ref="A15:A49" si="3">A14+1</f>
         <v>11</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="37">
-        <f>[5]Паспорт!$E$32</f>
-        <v>899340</v>
+        <v>59</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="27">
+        <f>[9]Паспорт!$E$32</f>
+        <v>833490</v>
       </c>
       <c r="F15" s="27">
-        <f>[5]Паспорт!$F$32</f>
-        <v>991358</v>
+        <f>[9]Паспорт!$F$32</f>
+        <v>911671</v>
       </c>
       <c r="G15" s="19">
-        <f>[5]Паспорт!$I$32</f>
-        <v>0.94099059523809525</v>
+        <f>100%-F15/[9]Паспорт!$A$21</f>
+        <v>0.94573386904761902</v>
       </c>
       <c r="H15" s="20">
-        <f>[5]Паспорт!$H$32</f>
-        <v>15808642</v>
+        <f>[9]Паспорт!$A$21-F15</f>
+        <v>15888329</v>
       </c>
       <c r="I15" s="26">
-        <f>E15/F15</f>
-        <v>0.90717984824856412</v>
+        <f t="shared" si="1"/>
+        <v>0.91424428329956753</v>
       </c>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
-        <f>A15+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="37">
-        <f>[8]Паспорт!$E$37</f>
-        <v>761670</v>
-      </c>
-      <c r="F16" s="37">
-        <f>[8]Паспорт!$F$37</f>
-        <v>873407</v>
-      </c>
-      <c r="G16" s="38">
-        <f>100%-F16/[8]Паспорт!$A$21</f>
-        <v>0.93761378571428566</v>
-      </c>
-      <c r="H16" s="43">
-        <f>[8]Паспорт!$A$21-F16</f>
-        <v>13126593</v>
-      </c>
-      <c r="I16" s="39">
-        <f>E16/F16</f>
-        <v>0.87206766146825021</v>
-      </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
+      <c r="E16" s="27">
+        <v>763476</v>
+      </c>
+      <c r="F16" s="27">
+        <v>975569</v>
+      </c>
+      <c r="G16" s="19">
+        <f>100%-F16/16800000</f>
+        <v>0.94193041666666666</v>
+      </c>
+      <c r="H16" s="20">
+        <f>16800000-F16</f>
+        <v>15824431</v>
+      </c>
+      <c r="I16" s="26">
+        <f t="shared" si="1"/>
+        <v>0.78259559293089465</v>
+      </c>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
-        <f>A16+1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="33">
+        <v>75</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="37">
         <f>[10]Паспорт!$E$32</f>
-        <v>1222650</v>
-      </c>
-      <c r="F17" s="24">
+        <v>899340</v>
+      </c>
+      <c r="F17" s="27">
         <f>[10]Паспорт!$F$32</f>
-        <v>1344169</v>
-      </c>
-      <c r="G17" s="25">
-        <f>100%-F17/[10]Паспорт!$A$21</f>
-        <v>0.91271629870129867</v>
-      </c>
-      <c r="H17" s="24">
-        <f>[10]Паспорт!$A$21-F17</f>
-        <v>14055831</v>
+        <v>991358</v>
+      </c>
+      <c r="G17" s="19">
+        <f>[10]Паспорт!$I$32</f>
+        <v>0.94099059523809525</v>
+      </c>
+      <c r="H17" s="20">
+        <f>[10]Паспорт!$H$32</f>
+        <v>15808642</v>
       </c>
       <c r="I17" s="26">
-        <f>E17/F17</f>
-        <v>0.90959544521559421</v>
+        <f t="shared" si="1"/>
+        <v>0.90717984824856412</v>
       </c>
       <c r="J17" s="11"/>
-      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
-        <f>A17+1</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="27">
-        <f>[11]Лист1!$E$32</f>
-        <v>1036020</v>
-      </c>
-      <c r="F18" s="27">
-        <f>[11]Лист1!$F$32</f>
-        <v>1292677</v>
-      </c>
-      <c r="G18" s="12">
-        <f>100%-F18/[11]Лист1!$A$21</f>
-        <v>0.90766592857142858</v>
-      </c>
-      <c r="H18" s="13">
-        <f>[11]Лист1!$A$21-F18</f>
-        <v>12707323</v>
-      </c>
-      <c r="I18" s="26">
-        <f>E18/F18</f>
-        <v>0.80145310854915808</v>
-      </c>
-      <c r="J18" s="11"/>
+      <c r="E18" s="37">
+        <f>[11]Паспорт!$E$37</f>
+        <v>761670</v>
+      </c>
+      <c r="F18" s="37">
+        <f>[11]Паспорт!$F$37</f>
+        <v>873407</v>
+      </c>
+      <c r="G18" s="69">
+        <f>100%-F18/[11]Паспорт!$A$21</f>
+        <v>0.93761378571428566</v>
+      </c>
+      <c r="H18" s="70">
+        <f>[11]Паспорт!$A$21-F18</f>
+        <v>13126593</v>
+      </c>
+      <c r="I18" s="39">
+        <f t="shared" si="1"/>
+        <v>0.87206766146825021</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
-        <f>A18+1</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>68</v>
+      <c r="B19" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="37">
-        <f>[9]Паспорт!$E$31</f>
-        <v>1615056</v>
-      </c>
-      <c r="F19" s="37">
-        <f>[9]Паспорт!$F$31</f>
-        <v>1753120</v>
-      </c>
-      <c r="G19" s="69">
-        <f>[9]Паспорт!$I$31</f>
-        <v>0.89564761904761903</v>
-      </c>
-      <c r="H19" s="70">
-        <f>[9]Паспорт!$H$31</f>
-        <v>15046880</v>
-      </c>
-      <c r="I19" s="39">
-        <f>E19/F19</f>
-        <v>0.9212466916126677</v>
-      </c>
-      <c r="J19" s="40"/>
+        <v>10</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="33">
+        <f>[12]Паспорт!$E$32</f>
+        <v>1222650</v>
+      </c>
+      <c r="F19" s="24">
+        <f>[12]Паспорт!$F$32</f>
+        <v>1344169</v>
+      </c>
+      <c r="G19" s="29">
+        <f>100%-F19/[12]Паспорт!$A$21</f>
+        <v>0.91271629870129867</v>
+      </c>
+      <c r="H19" s="30">
+        <f>[12]Паспорт!$A$21-F19</f>
+        <v>14055831</v>
+      </c>
+      <c r="I19" s="26">
+        <f t="shared" si="1"/>
+        <v>0.90959544521559421</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
-        <f>A19+1</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>10</v>
@@ -4213,311 +4301,312 @@
       <c r="D20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="48">
+        <f>[13]Лист1!$E$32</f>
+        <v>1036020</v>
+      </c>
+      <c r="F20" s="48">
+        <f>[13]Лист1!$F$32</f>
+        <v>1292677</v>
+      </c>
+      <c r="G20" s="12">
+        <f>100%-F20/[13]Лист1!$A$21</f>
+        <v>0.90766592857142858</v>
+      </c>
+      <c r="H20" s="13">
+        <f>[13]Лист1!$A$21-F20</f>
+        <v>12707323</v>
+      </c>
+      <c r="I20" s="26">
+        <f t="shared" si="1"/>
+        <v>0.80145310854915808</v>
+      </c>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="37">
+        <f>[14]Паспорт!$E$31</f>
+        <v>1615056</v>
+      </c>
+      <c r="F21" s="37">
+        <f>[14]Паспорт!$F$31</f>
+        <v>1753120</v>
+      </c>
+      <c r="G21" s="69">
+        <f>[14]Паспорт!$I$31</f>
+        <v>0.89564761904761903</v>
+      </c>
+      <c r="H21" s="70">
+        <f>[14]Паспорт!$H$31</f>
+        <v>15046880</v>
+      </c>
+      <c r="I21" s="39">
+        <f t="shared" si="1"/>
+        <v>0.9212466916126677</v>
+      </c>
+      <c r="J21" s="40"/>
+    </row>
+    <row r="22" spans="1:11" s="22" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="37">
         <f>[15]Паспорт!$E$32</f>
         <v>1772226</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F22" s="27">
         <f>[15]Паспорт!$F$32</f>
         <v>1862007</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G22" s="12">
         <f>[15]Паспорт!$I$32</f>
         <v>0.88916625000000005</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H22" s="13">
         <f>[15]Паспорт!$H$32</f>
         <v>14937993</v>
       </c>
-      <c r="I20" s="26">
-        <f>E20/F20</f>
+      <c r="I22" s="26">
+        <f t="shared" si="1"/>
         <v>0.95178267321229193</v>
       </c>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <f>A20+1</f>
-        <v>17</v>
-      </c>
-      <c r="B21" s="46" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E23" s="27">
         <f>[16]Лист1!$E$32</f>
         <v>1423626</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F23" s="27">
         <f>[16]Лист1!$F$32</f>
         <v>1582238</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G23" s="12">
         <f>[16]Лист1!$I$32</f>
         <v>0.87442555555555557</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H23" s="13">
         <f>[16]Лист1!$H$32</f>
         <v>11017762</v>
       </c>
-      <c r="I21" s="26">
-        <f>E21/F21</f>
+      <c r="I23" s="26">
+        <f t="shared" si="1"/>
         <v>0.89975465132299948</v>
-      </c>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" s="22" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
-        <f>A21+1</f>
-        <v>18</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="27">
-        <f>[13]Паспорт!$E$32</f>
-        <v>2251092</v>
-      </c>
-      <c r="F22" s="27">
-        <f>[13]Паспорт!$F$32</f>
-        <v>2430801</v>
-      </c>
-      <c r="G22" s="12">
-        <f>100%-F22/[13]Паспорт!$A$21</f>
-        <v>0.86643950549450555</v>
-      </c>
-      <c r="H22" s="13">
-        <f>[13]Паспорт!$A$21-F22</f>
-        <v>15769199</v>
-      </c>
-      <c r="I22" s="26">
-        <f>E22/F22</f>
-        <v>0.92607004851487229</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
-        <f>A22+1</f>
-        <v>19</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="37">
-        <f>[12]Паспорт!$E$32</f>
-        <v>2282400</v>
-      </c>
-      <c r="F23" s="27">
-        <f>[12]Паспорт!$F$32</f>
-        <v>2374283</v>
-      </c>
-      <c r="G23" s="12">
-        <f>[12]Паспорт!$I$32</f>
-        <v>0.85867363095238092</v>
-      </c>
-      <c r="H23" s="13">
-        <f>[12]Паспорт!$H$32</f>
-        <v>14425717</v>
-      </c>
-      <c r="I23" s="26">
-        <f>E23/F23</f>
-        <v>0.96130073794909876</v>
       </c>
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
-        <f>A23+1</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="27">
-        <f>[14]Паспорт!$E$31</f>
-        <v>2379828</v>
+        <f>[17]Паспорт!$E$32</f>
+        <v>2251092</v>
       </c>
       <c r="F24" s="27">
-        <f>[14]Паспорт!$F$31</f>
-        <v>2473246</v>
+        <f>[17]Паспорт!$F$32</f>
+        <v>2430801</v>
       </c>
       <c r="G24" s="12">
-        <f>100%-F24/[14]Паспорт!$A$20</f>
-        <v>0.85278297619047616</v>
+        <f>100%-F24/[17]Паспорт!$A$21</f>
+        <v>0.86643950549450555</v>
       </c>
       <c r="H24" s="13">
-        <f>[14]Паспорт!$A$20-F24</f>
-        <v>14326754</v>
+        <f>[17]Паспорт!$A$21-F24</f>
+        <v>15769199</v>
       </c>
       <c r="I24" s="26">
-        <f>E24/F24</f>
-        <v>0.96222858542983591</v>
+        <f t="shared" si="1"/>
+        <v>0.92607004851487229</v>
       </c>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
-        <f>A24+1</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E25" s="27">
-        <f>[17]Паспорт!$E$32</f>
-        <v>2853648</v>
+        <f>[18]Паспорт!$E$31</f>
+        <v>2379828</v>
       </c>
       <c r="F25" s="27">
-        <f>[17]Паспорт!$F$32</f>
-        <v>3021559</v>
+        <f>[18]Паспорт!$F$31</f>
+        <v>2473246</v>
       </c>
       <c r="G25" s="12">
-        <f>100%-F25/[17]Паспорт!$A$21</f>
-        <v>0.82014529761904764</v>
+        <f>100%-F25/[18]Паспорт!$A$20</f>
+        <v>0.85278297619047616</v>
       </c>
       <c r="H25" s="13">
-        <f>[17]Паспорт!$A$21-F25</f>
-        <v>13778441</v>
+        <f>[18]Паспорт!$A$20-F25</f>
+        <v>14326754</v>
       </c>
       <c r="I25" s="26">
-        <f>E25/F25</f>
-        <v>0.94442901826507442</v>
+        <f t="shared" si="1"/>
+        <v>0.96222858542983591</v>
       </c>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
-        <f>A25+1</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="51">
-        <f>[18]Лист1!$E$33</f>
-        <v>2880934</v>
-      </c>
-      <c r="F26" s="51">
-        <f>[18]Лист1!$F$33</f>
-        <v>3213050</v>
-      </c>
-      <c r="G26" s="72">
-        <f>100%-F26/[18]Лист1!$A$22</f>
-        <v>0.80874702380952379</v>
-      </c>
-      <c r="H26" s="73">
-        <f>[18]Лист1!$A$22-F26</f>
-        <v>13586950</v>
-      </c>
-      <c r="I26" s="53">
-        <f>E26/F26</f>
-        <v>0.89663528423149341</v>
-      </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="18"/>
+      <c r="B26" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="27">
+        <f>[19]Паспорт!$E$32</f>
+        <v>2853648</v>
+      </c>
+      <c r="F26" s="27">
+        <f>[19]Паспорт!$F$32</f>
+        <v>3021559</v>
+      </c>
+      <c r="G26" s="12">
+        <f>100%-F26/[19]Паспорт!$A$21</f>
+        <v>0.82014529761904764</v>
+      </c>
+      <c r="H26" s="13">
+        <f>[19]Паспорт!$A$21-F26</f>
+        <v>13778441</v>
+      </c>
+      <c r="I26" s="26">
+        <f t="shared" si="1"/>
+        <v>0.94442901826507442</v>
+      </c>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
-        <f>A26+1</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="33">
-        <f>[19]Паспорт!$E$31</f>
-        <v>2673204</v>
-      </c>
-      <c r="F27" s="24">
-        <f>[19]Паспорт!$F$31</f>
-        <v>3078104</v>
-      </c>
-      <c r="G27" s="29">
-        <f>100%-F27/[19]Паспорт!$A$20</f>
-        <v>0.80012311688311688</v>
-      </c>
-      <c r="H27" s="30">
-        <f>[19]Паспорт!$A$20-F27</f>
-        <v>12321896</v>
-      </c>
-      <c r="I27" s="26">
-        <f>E27/F27</f>
-        <v>0.8684579858250403</v>
-      </c>
-      <c r="J27" s="11"/>
+      <c r="B27" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="51">
+        <f>[20]Лист1!$E$33</f>
+        <v>2880934</v>
+      </c>
+      <c r="F27" s="51">
+        <f>[20]Лист1!$F$33</f>
+        <v>3213050</v>
+      </c>
+      <c r="G27" s="72">
+        <f>100%-F27/[20]Лист1!$A$22</f>
+        <v>0.80874702380952379</v>
+      </c>
+      <c r="H27" s="73">
+        <f>[20]Лист1!$A$22-F27</f>
+        <v>13586950</v>
+      </c>
+      <c r="I27" s="53">
+        <f t="shared" si="1"/>
+        <v>0.89663528423149341</v>
+      </c>
+      <c r="J27" s="54"/>
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
-        <f>A27+1</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="15"/>
       <c r="E28" s="33">
-        <f>[20]Паспорт!$E$32</f>
-        <v>2939946</v>
+        <f>[21]Паспорт!$E$31</f>
+        <v>2673204</v>
       </c>
       <c r="F28" s="24">
-        <f>[20]Паспорт!$F$32</f>
-        <v>3219779</v>
+        <f>[21]Паспорт!$F$31</f>
+        <v>3078104</v>
       </c>
       <c r="G28" s="29">
-        <f>100%-F28/[20]Паспорт!$A$21</f>
-        <v>0.79092344155844152</v>
+        <f>100%-F28/[21]Паспорт!$A$20</f>
+        <v>0.80012311688311688</v>
       </c>
       <c r="H28" s="30">
-        <f>[20]Паспорт!$A$21-F28</f>
-        <v>12180221</v>
+        <f>[21]Паспорт!$A$20-F28</f>
+        <v>12321896</v>
       </c>
       <c r="I28" s="26">
-        <f>E28/F28</f>
-        <v>0.91308937663112899</v>
+        <f t="shared" si="1"/>
+        <v>0.8684579858250403</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
-        <f>A28+1</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>10</v>
@@ -4525,142 +4614,137 @@
       <c r="D29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="37">
+        <f>[22]Паспорт!$E$32</f>
+        <v>3360960</v>
+      </c>
       <c r="F29" s="27">
-        <v>3080000</v>
+        <f>[22]Паспорт!$F$32</f>
+        <v>3487599</v>
       </c>
       <c r="G29" s="12">
-        <f>100%-F29/14000000</f>
-        <v>0.78</v>
+        <f>[22]Паспорт!$I$32</f>
+        <v>0.79240482142857149</v>
       </c>
       <c r="H29" s="13">
-        <f>14000000-F29</f>
-        <v>10920000</v>
+        <f>[22]Паспорт!$H$32</f>
+        <v>13312401</v>
       </c>
       <c r="I29" s="26">
-        <f>E29/F29</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.96368877270580711</v>
       </c>
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
-        <f>A29+1</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B30" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="33">
-        <f>[21]Паспорт!$E$32</f>
-        <v>3401284</v>
-      </c>
-      <c r="F30" s="33">
-        <f>[21]Паспорт!$F$32</f>
-        <v>3627561</v>
-      </c>
-      <c r="G30" s="44">
-        <f>100%-F30/[21]Паспорт!$A$21</f>
-        <v>0.76444409090909093</v>
-      </c>
-      <c r="H30" s="34">
-        <f>[21]Паспорт!$A$21-F30</f>
-        <v>11772439</v>
-      </c>
-      <c r="I30" s="39">
-        <f>E30/F30</f>
-        <v>0.93762282701793298</v>
-      </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="42"/>
+      <c r="B30" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27">
+        <v>3080000</v>
+      </c>
+      <c r="G30" s="12">
+        <f>100%-F30/14000000</f>
+        <v>0.78</v>
+      </c>
+      <c r="H30" s="13">
+        <f>14000000-F30</f>
+        <v>10920000</v>
+      </c>
+      <c r="I30" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
-        <f>A30+1</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="28">
-        <f>[22]Лист1!$E$32</f>
-        <v>1841664</v>
-      </c>
-      <c r="F31" s="24">
-        <f>[22]Лист1!$F$32</f>
-        <v>4196198</v>
-      </c>
-      <c r="G31" s="29">
-        <f>100%-F31/[22]Лист1!$A$21</f>
-        <v>0.75022630952380953</v>
-      </c>
-      <c r="H31" s="30">
-        <f>[22]Лист1!$A$21-F31</f>
-        <v>12603802</v>
-      </c>
-      <c r="I31" s="26">
-        <f>E31/F31</f>
-        <v>0.43888872736701173</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="16"/>
+      <c r="B31" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="33">
+        <f>[23]Паспорт!$E$32</f>
+        <v>3401284</v>
+      </c>
+      <c r="F31" s="33">
+        <f>[23]Паспорт!$F$32</f>
+        <v>3627561</v>
+      </c>
+      <c r="G31" s="44">
+        <f>100%-F31/[23]Паспорт!$A$21</f>
+        <v>0.76444409090909093</v>
+      </c>
+      <c r="H31" s="34">
+        <f>[23]Паспорт!$A$21-F31</f>
+        <v>11772439</v>
+      </c>
+      <c r="I31" s="39">
+        <f t="shared" si="1"/>
+        <v>0.93762282701793298</v>
+      </c>
+      <c r="J31" s="40"/>
+      <c r="K31" s="42"/>
     </row>
     <row r="32" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
-        <f>A31+1</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="27">
-        <f>[23]Лист1!$E$30</f>
-        <v>4109952</v>
-      </c>
-      <c r="F32" s="27">
-        <f>[23]Лист1!$F$30</f>
-        <v>4708790</v>
-      </c>
-      <c r="G32" s="12">
-        <f>100%-F32/[23]Лист1!$A$19</f>
-        <v>0.74127527472527466</v>
-      </c>
-      <c r="H32" s="13">
-        <f>[23]Лист1!$A$19-F32</f>
-        <v>13491210</v>
+        <v>41</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="33">
+        <f>[24]Паспорт!$E$32</f>
+        <v>3508836</v>
+      </c>
+      <c r="F32" s="24">
+        <f>[24]Паспорт!$F$32</f>
+        <v>3815129</v>
+      </c>
+      <c r="G32" s="29">
+        <f>100%-F32/[24]Паспорт!$A$21</f>
+        <v>0.75226435064935071</v>
+      </c>
+      <c r="H32" s="30">
+        <f>[24]Паспорт!$A$21-F32</f>
+        <v>11584871</v>
       </c>
       <c r="I32" s="26">
-        <f>E32/F32</f>
-        <v>0.87282550294236949</v>
+        <f t="shared" si="1"/>
+        <v>0.91971621405200188</v>
       </c>
       <c r="J32" s="11"/>
-      <c r="K32"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
-        <f>A32+1</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>10</v>
@@ -4669,35 +4753,35 @@
         <v>11</v>
       </c>
       <c r="E33" s="28">
-        <f>[24]Лист1!$E$31</f>
-        <v>2529144</v>
+        <f>[25]Лист1!$E$32</f>
+        <v>1841664</v>
       </c>
       <c r="F33" s="24">
-        <f>[24]Лист1!$F$31</f>
-        <v>3332388</v>
+        <f>[25]Лист1!$F$32</f>
+        <v>4196198</v>
       </c>
       <c r="G33" s="29">
-        <f>100%-F33/[24]Лист1!$A$20</f>
-        <v>0.7355247619047619</v>
+        <f>100%-F33/[25]Лист1!$A$21</f>
+        <v>0.75022630952380953</v>
       </c>
       <c r="H33" s="30">
-        <f>[24]Лист1!$A$20-F33</f>
-        <v>9267612</v>
+        <f>[25]Лист1!$A$21-F33</f>
+        <v>12603802</v>
       </c>
       <c r="I33" s="26">
-        <f>E33/F33</f>
-        <v>0.75895844061375806</v>
+        <f t="shared" si="1"/>
+        <v>0.43888872736701173</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" s="14" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
-        <f>A33+1</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>10</v>
@@ -4705,35 +4789,36 @@
       <c r="D34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="28">
-        <f>[25]Лист1!$E$31</f>
-        <v>1361360</v>
-      </c>
-      <c r="F34" s="24">
-        <f>[25]Лист1!$F$31</f>
-        <v>4846035</v>
-      </c>
-      <c r="G34" s="29">
-        <f>[25]Лист1!$I$31</f>
-        <v>0.71154553571428569</v>
-      </c>
-      <c r="H34" s="30">
-        <f>[25]Лист1!$H$31</f>
-        <v>11953965</v>
+      <c r="E34" s="27">
+        <f>[26]Лист1!$E$30</f>
+        <v>4109952</v>
+      </c>
+      <c r="F34" s="27">
+        <f>[26]Лист1!$F$30</f>
+        <v>4708790</v>
+      </c>
+      <c r="G34" s="12">
+        <f>100%-F34/[26]Лист1!$A$19</f>
+        <v>0.74127527472527466</v>
+      </c>
+      <c r="H34" s="13">
+        <f>[26]Лист1!$A$19-F34</f>
+        <v>13491210</v>
       </c>
       <c r="I34" s="26">
-        <f>E34/F34</f>
-        <v>0.28092244484408385</v>
+        <f t="shared" si="1"/>
+        <v>0.87282550294236949</v>
       </c>
       <c r="J34" s="11"/>
+      <c r="K34"/>
     </row>
     <row r="35" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
-        <f>A34+1</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>10</v>
@@ -4741,69 +4826,73 @@
       <c r="D35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="37">
-        <f>[26]Паспорт!$E$32</f>
-        <v>4859136</v>
-      </c>
-      <c r="F35" s="27">
-        <f>[26]Паспорт!$F$32</f>
-        <v>5068528</v>
-      </c>
-      <c r="G35" s="12">
-        <f>[26]Паспорт!$I$32</f>
-        <v>0.69830190476190479</v>
-      </c>
-      <c r="H35" s="13">
-        <f>[26]Паспорт!$H$32</f>
-        <v>11731472</v>
+      <c r="E35" s="28">
+        <f>[27]Лист1!$E$31</f>
+        <v>2529144</v>
+      </c>
+      <c r="F35" s="24">
+        <f>[27]Лист1!$F$31</f>
+        <v>3332388</v>
+      </c>
+      <c r="G35" s="29">
+        <f>100%-F35/[27]Лист1!$A$20</f>
+        <v>0.7355247619047619</v>
+      </c>
+      <c r="H35" s="30">
+        <f>[27]Лист1!$A$20-F35</f>
+        <v>9267612</v>
       </c>
       <c r="I35" s="26">
-        <f>E35/F35</f>
-        <v>0.95868780837355538</v>
+        <f t="shared" si="1"/>
+        <v>0.75895844061375806</v>
       </c>
       <c r="J35" s="11"/>
-      <c r="K35" s="14"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
-        <f>A35+1</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B36" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="37">
-        <f>[27]Лист1!$E$33</f>
-        <v>6044050</v>
-      </c>
-      <c r="F36" s="32">
-        <f>[27]Лист1!$F$33</f>
-        <v>6475979</v>
-      </c>
-      <c r="G36" s="69">
-        <f>[27]Лист1!$I$33</f>
-        <v>0.64417697802197804</v>
-      </c>
-      <c r="H36" s="70">
-        <f>[27]Лист1!$H$33</f>
-        <v>11724021</v>
-      </c>
-      <c r="I36" s="39">
-        <f>E36/F36</f>
-        <v>0.93330290292788165</v>
-      </c>
-      <c r="J36" s="40"/>
+      <c r="B36" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="28">
+        <f>[28]Лист1!$E$31</f>
+        <v>1361360</v>
+      </c>
+      <c r="F36" s="24">
+        <f>[28]Лист1!$F$31</f>
+        <v>4846035</v>
+      </c>
+      <c r="G36" s="29">
+        <f>[28]Лист1!$I$31</f>
+        <v>0.71154553571428569</v>
+      </c>
+      <c r="H36" s="30">
+        <f>[28]Лист1!$H$31</f>
+        <v>11953965</v>
+      </c>
+      <c r="I36" s="26">
+        <f t="shared" si="1"/>
+        <v>0.28092244484408385</v>
+      </c>
+      <c r="J36" s="11"/>
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
-        <f>A36+1</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>10</v>
@@ -4811,106 +4900,102 @@
       <c r="D37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="27">
-        <f>[28]Лист1!$E$30</f>
-        <v>7698145</v>
+      <c r="E37" s="37">
+        <f>[29]Паспорт!$E$37</f>
+        <v>5327904</v>
       </c>
       <c r="F37" s="27">
-        <f>[28]Лист1!$F$30</f>
-        <v>8363755</v>
+        <f>[29]Паспорт!$F$37</f>
+        <v>5557379</v>
       </c>
       <c r="G37" s="12">
-        <f>100%-F37/[28]Лист1!$A$19</f>
-        <v>0.55747328042328048</v>
+        <f>[29]Паспорт!$I$37</f>
+        <v>0.669203630952381</v>
       </c>
       <c r="H37" s="13">
-        <f>[28]Лист1!$A$19-F37</f>
-        <v>10536245</v>
+        <f>[29]Паспорт!$H$37</f>
+        <v>11242621</v>
       </c>
       <c r="I37" s="26">
-        <f>E37/F37</f>
-        <v>0.92041732451512503</v>
+        <f t="shared" ref="I37:I55" si="4">E37/F37</f>
+        <v>0.95870805284289595</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" s="41" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
-        <f>A37+1</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B38" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="27">
-        <f>[29]Лист1!$E$32</f>
-        <v>6515718</v>
-      </c>
-      <c r="F38" s="27">
-        <f>[29]Лист1!$F$32</f>
-        <v>6867053</v>
-      </c>
-      <c r="G38" s="12">
-        <f>100%-F38/[29]Лист1!$A$21</f>
-        <v>0.55408746753246751</v>
-      </c>
-      <c r="H38" s="13">
-        <f>[29]Лист1!$A$21-F38</f>
-        <v>8532947</v>
-      </c>
-      <c r="I38" s="26">
-        <f>E38/F38</f>
-        <v>0.94883758724448464</v>
-      </c>
-      <c r="J38" s="11"/>
+      <c r="B38" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="37">
+        <f>[30]Лист1!$E$33</f>
+        <v>6044050</v>
+      </c>
+      <c r="F38" s="32">
+        <f>[30]Лист1!$F$33</f>
+        <v>6475979</v>
+      </c>
+      <c r="G38" s="69">
+        <f>[30]Лист1!$I$33</f>
+        <v>0.64417697802197804</v>
+      </c>
+      <c r="H38" s="70">
+        <f>[30]Лист1!$H$33</f>
+        <v>11724021</v>
+      </c>
+      <c r="I38" s="39">
+        <f t="shared" si="4"/>
+        <v>0.93330290292788165</v>
+      </c>
+      <c r="J38" s="40"/>
       <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
-        <f>A38+1</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B39" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="36" t="s">
+      <c r="B39" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="37">
-        <f>[30]Паспорт!$E$31</f>
-        <v>7401744</v>
-      </c>
-      <c r="F39" s="37">
-        <f>[30]Паспорт!$F$31</f>
-        <v>7685939</v>
-      </c>
-      <c r="G39" s="69">
-        <f>[30]Паспорт!$I$31</f>
-        <v>0.54250363095238097</v>
-      </c>
-      <c r="H39" s="70">
-        <f>[30]Паспорт!$H$31</f>
-        <v>9114061</v>
+      <c r="E39" s="27">
+        <f>[31]Лист1!$E$30</f>
+        <v>7698145</v>
+      </c>
+      <c r="F39" s="27">
+        <f>[31]Лист1!$F$30</f>
+        <v>8363755</v>
+      </c>
+      <c r="G39" s="12">
+        <f>100%-F39/[31]Лист1!$A$19</f>
+        <v>0.55747328042328048</v>
+      </c>
+      <c r="H39" s="13">
+        <f>[31]Лист1!$A$19-F39</f>
+        <v>10536245</v>
       </c>
       <c r="I39" s="26">
-        <f>E39/F39</f>
-        <v>0.96302403649053159</v>
-      </c>
-      <c r="J39" s="40"/>
+        <f t="shared" si="4"/>
+        <v>0.92041732451512503</v>
+      </c>
+      <c r="J39" s="11"/>
       <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
-        <f>A39+1</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B40" s="46" t="s">
@@ -4923,23 +5008,23 @@
         <v>11</v>
       </c>
       <c r="E40" s="33">
-        <f>[31]Паспорт!$E$32</f>
+        <f>[32]Паспорт!$E$32</f>
         <v>7189065</v>
       </c>
       <c r="F40" s="33">
-        <f>[31]Паспорт!$F$32</f>
+        <f>[32]Паспорт!$F$32</f>
         <v>7718319</v>
       </c>
       <c r="G40" s="31">
-        <f>100%-F40/[31]Паспорт!$A$21</f>
+        <f>100%-F40/[32]Паспорт!$A$21</f>
         <v>0.54057624999999998</v>
       </c>
       <c r="H40" s="30">
-        <f>[31]Паспорт!$A$21-F40</f>
+        <f>[32]Паспорт!$A$21-F40</f>
         <v>9081681</v>
       </c>
       <c r="I40" s="26">
-        <f>E40/F40</f>
+        <f t="shared" si="4"/>
         <v>0.93142885128225461</v>
       </c>
       <c r="J40" s="11"/>
@@ -4947,7 +5032,7 @@
     </row>
     <row r="41" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
-        <f>A40+1</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B41" s="46" t="s">
@@ -4958,23 +5043,23 @@
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="27">
-        <f>[32]Паспорт!$E$32</f>
+        <f>[33]Паспорт!$E$32</f>
         <v>7801200</v>
       </c>
       <c r="F41" s="27">
-        <f>[32]Паспорт!$F$32</f>
+        <f>[33]Паспорт!$F$32</f>
         <v>8210574</v>
       </c>
       <c r="G41" s="12">
-        <f>100%-F41/[32]Паспорт!$A$21</f>
+        <f>100%-F41/[33]Паспорт!$A$21</f>
         <v>0.51127535714285721</v>
       </c>
       <c r="H41" s="13">
-        <f>[32]Паспорт!$A$21-F41</f>
+        <f>[33]Паспорт!$A$21-F41</f>
         <v>8589426</v>
       </c>
       <c r="I41" s="26">
-        <f>E41/F41</f>
+        <f t="shared" si="4"/>
         <v>0.95014063572169249</v>
       </c>
       <c r="J41" s="11"/>
@@ -4982,85 +5067,85 @@
     </row>
     <row r="42" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
-        <f>A41+1</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="33">
-        <f>[34]Паспорт!$E$32</f>
-        <v>9890430</v>
-      </c>
-      <c r="F42" s="24">
-        <f>[34]Паспорт!$F$32</f>
-        <v>10532265</v>
-      </c>
-      <c r="G42" s="29">
-        <f>[34]Паспорт!$I$32</f>
-        <v>0.37307946428571426</v>
-      </c>
-      <c r="H42" s="30">
-        <f>[34]Паспорт!$H$32</f>
-        <v>6267735</v>
+        <v>13</v>
+      </c>
+      <c r="E42" s="27">
+        <f>[34]Лист1!$E$35</f>
+        <v>7145088</v>
+      </c>
+      <c r="F42" s="27">
+        <f>[34]Лист1!$F$35</f>
+        <v>7528758</v>
+      </c>
+      <c r="G42" s="12">
+        <f>100%-F42/[34]Лист1!$A$21</f>
+        <v>0.5111196103896104</v>
+      </c>
+      <c r="H42" s="13">
+        <f>[34]Лист1!$A$21-F42</f>
+        <v>7871242</v>
       </c>
       <c r="I42" s="26">
-        <f>E42/F42</f>
-        <v>0.93906011669854494</v>
+        <f t="shared" si="4"/>
+        <v>0.9490394033119407</v>
       </c>
       <c r="J42" s="11"/>
-      <c r="K42" s="16"/>
+      <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
-        <f>A42+1</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B43" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="24">
-        <f>[35]Лист1!$E$39</f>
-        <v>11248736</v>
-      </c>
-      <c r="F43" s="24">
-        <f>[35]Лист1!$F$39</f>
-        <v>12230442</v>
-      </c>
-      <c r="G43" s="25">
-        <f>100%-F43/[35]Лист1!$A$25</f>
-        <v>0.32799769230769227</v>
-      </c>
-      <c r="H43" s="24">
-        <f>[35]Лист1!$A$25-F43</f>
-        <v>5969558</v>
+      <c r="E43" s="37">
+        <f>[35]Паспорт!$E$31</f>
+        <v>8431920</v>
+      </c>
+      <c r="F43" s="37">
+        <f>[35]Паспорт!$F$31</f>
+        <v>8763155</v>
+      </c>
+      <c r="G43" s="38">
+        <f>[35]Паспорт!$I$31</f>
+        <v>0.4783836309523809</v>
+      </c>
+      <c r="H43" s="43">
+        <f>[35]Паспорт!$H$31</f>
+        <v>8036845</v>
       </c>
       <c r="I43" s="26">
-        <f>E43/F43</f>
-        <v>0.91973258202769781</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="16"/>
+        <f t="shared" si="4"/>
+        <v>0.96220139892538703</v>
+      </c>
+      <c r="J43" s="40"/>
+      <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
-        <f>A43+1</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>10</v>
@@ -5068,36 +5153,36 @@
       <c r="D44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="28">
-        <f>[36]Лист1!$E$35</f>
-        <v>5961565</v>
+      <c r="E44" s="33">
+        <f>[36]Паспорт!$E$32</f>
+        <v>9890430</v>
       </c>
       <c r="F44" s="24">
-        <f>[36]Лист1!$F$35</f>
-        <v>9807693</v>
-      </c>
-      <c r="G44" s="26">
-        <f>100%-F44/[36]Лист1!$A$24</f>
-        <v>0.29945049999999995</v>
+        <f>[36]Паспорт!$F$32</f>
+        <v>10532265</v>
+      </c>
+      <c r="G44" s="25">
+        <f>[36]Паспорт!$I$32</f>
+        <v>0.37307946428571426</v>
       </c>
       <c r="H44" s="24">
-        <f>[36]Лист1!$A$24-F44</f>
-        <v>4192307</v>
+        <f>[36]Паспорт!$H$32</f>
+        <v>6267735</v>
       </c>
       <c r="I44" s="26">
-        <f>E44/F44</f>
-        <v>0.60784580023049251</v>
+        <f t="shared" si="4"/>
+        <v>0.93906011669854494</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="16"/>
     </row>
     <row r="45" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
-        <f>A44+1</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>10</v>
@@ -5105,36 +5190,36 @@
       <c r="D45" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="32">
-        <f>[37]Лист1!$E$31</f>
-        <v>6585300</v>
-      </c>
-      <c r="F45" s="27">
-        <f>[37]Лист1!$F$31</f>
-        <v>10601261</v>
-      </c>
-      <c r="G45" s="19">
-        <f>100%-F45/[37]Лист1!$A$20</f>
-        <v>0.24276707142857146</v>
-      </c>
-      <c r="H45" s="20">
-        <f>[37]Лист1!$A$20-F45</f>
-        <v>3398739</v>
+      <c r="E45" s="24">
+        <f>[37]Лист1!$E$39</f>
+        <v>11248736</v>
+      </c>
+      <c r="F45" s="24">
+        <f>[37]Лист1!$F$39</f>
+        <v>12230442</v>
+      </c>
+      <c r="G45" s="25">
+        <f>100%-F45/[37]Лист1!$A$25</f>
+        <v>0.32799769230769227</v>
+      </c>
+      <c r="H45" s="24">
+        <f>[37]Лист1!$A$25-F45</f>
+        <v>5969558</v>
       </c>
       <c r="I45" s="26">
-        <f>E45/F45</f>
-        <v>0.62118081990434915</v>
+        <f t="shared" si="4"/>
+        <v>0.91973258202769781</v>
       </c>
       <c r="J45" s="11"/>
-      <c r="K45" s="14"/>
+      <c r="K45" s="16"/>
     </row>
     <row r="46" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="23">
-        <f>A45+1</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>10</v>
@@ -5142,36 +5227,36 @@
       <c r="D46" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="37">
-        <f>[33]Паспорт!$E$32</f>
-        <v>13283472</v>
-      </c>
-      <c r="F46" s="27">
-        <f>[33]Паспорт!$F$32</f>
-        <v>13862300</v>
-      </c>
-      <c r="G46" s="19">
-        <f>[33]Паспорт!$I$32</f>
-        <v>0.17486309523809518</v>
-      </c>
-      <c r="H46" s="20">
-        <f>[33]Паспорт!$H$32</f>
-        <v>2937700</v>
+      <c r="E46" s="28">
+        <f>[38]Лист1!$E$35</f>
+        <v>5961565</v>
+      </c>
+      <c r="F46" s="24">
+        <f>[38]Лист1!$F$35</f>
+        <v>9807693</v>
+      </c>
+      <c r="G46" s="26">
+        <f>100%-F46/[38]Лист1!$A$24</f>
+        <v>0.29945049999999995</v>
+      </c>
+      <c r="H46" s="24">
+        <f>[38]Лист1!$A$24-F46</f>
+        <v>4192307</v>
       </c>
       <c r="I46" s="26">
-        <f>E46/F46</f>
-        <v>0.95824444716966162</v>
+        <f t="shared" si="4"/>
+        <v>0.60784580023049251</v>
       </c>
       <c r="J46" s="11"/>
-      <c r="K46" s="14"/>
+      <c r="K46" s="16"/>
     </row>
     <row r="47" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23">
-        <f>A46+1</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>10</v>
@@ -5179,36 +5264,36 @@
       <c r="D47" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="37">
-        <f>[39]Паспорт!$E$38</f>
-        <v>13806936</v>
+      <c r="E47" s="32">
+        <f>[39]Лист1!$E$31</f>
+        <v>6585300</v>
       </c>
       <c r="F47" s="27">
-        <f>[39]Паспорт!$F$38</f>
-        <v>14281531</v>
+        <f>[39]Лист1!$F$31</f>
+        <v>10601261</v>
       </c>
       <c r="G47" s="19">
-        <f>[39]Паспорт!$I$38</f>
-        <v>0.14990886904761902</v>
+        <f>100%-F47/[39]Лист1!$A$20</f>
+        <v>0.24276707142857146</v>
       </c>
       <c r="H47" s="20">
-        <f>[39]Паспорт!$H$38</f>
-        <v>2518469</v>
+        <f>[39]Лист1!$A$20-F47</f>
+        <v>3398739</v>
       </c>
       <c r="I47" s="26">
-        <f>E47/F47</f>
-        <v>0.96676861885465926</v>
+        <f t="shared" si="4"/>
+        <v>0.62118081990434915</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="14"/>
     </row>
     <row r="48" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23">
-        <f>A47+1</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>10</v>
@@ -5216,145 +5301,145 @@
       <c r="D48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="27">
-        <f>[41]Лист1!$E$50</f>
-        <v>16268914</v>
+      <c r="E48" s="37">
+        <f>[40]Паспорт!$E$38</f>
+        <v>14343336</v>
       </c>
       <c r="F48" s="27">
-        <f>[41]Лист1!$F$50</f>
-        <v>17588921</v>
+        <f>[40]Паспорт!$F$38</f>
+        <v>14834520</v>
       </c>
       <c r="G48" s="19">
-        <f>100%-F48/[41]Лист1!$A$25</f>
-        <v>6.9369259259259297E-2</v>
+        <f>[40]Паспорт!$I$38</f>
+        <v>0.11699285714285712</v>
       </c>
       <c r="H48" s="20">
-        <f>[41]Лист1!$A$25-F48</f>
-        <v>1311079</v>
+        <f>[40]Паспорт!$H$38</f>
+        <v>1965480</v>
       </c>
       <c r="I48" s="26">
-        <f>E48/F48</f>
-        <v>0.92495236063656205</v>
+        <f t="shared" si="4"/>
+        <v>0.96688912078044997</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="37">
+        <f>[41]Паспорт!$E$35</f>
+        <v>14750608</v>
+      </c>
+      <c r="F49" s="27">
+        <f>[41]Паспорт!$F$35</f>
+        <v>15391166</v>
+      </c>
+      <c r="G49" s="19">
+        <f>[41]Паспорт!$I$35</f>
+        <v>8.3859166666666596E-2</v>
+      </c>
+      <c r="H49" s="20">
+        <f>[41]Паспорт!$H$35</f>
+        <v>1408834</v>
+      </c>
+      <c r="I49" s="26">
+        <f t="shared" si="4"/>
+        <v>0.95838145076208003</v>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23">
         <f>A48+1</f>
         <v>45</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B50" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="27">
+      <c r="D50" s="15"/>
+      <c r="E50" s="27">
         <f>[42]Лист1!$E$31</f>
         <v>15138400</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F50" s="27">
         <f>[42]Лист1!$F$31</f>
         <v>15759091</v>
       </c>
-      <c r="G49" s="19">
-        <f>100%-F49/[42]Лист1!$A$20</f>
+      <c r="G50" s="19">
+        <f>100%-F50/[42]Лист1!$A$20</f>
         <v>6.1958869047619047E-2</v>
       </c>
-      <c r="H49" s="20">
-        <f>[42]Лист1!$A$20-F49</f>
+      <c r="H50" s="20">
+        <f>[42]Лист1!$A$20-F50</f>
         <v>1040909</v>
       </c>
-      <c r="I49" s="26">
-        <f>E49/F49</f>
+      <c r="I50" s="26">
+        <f t="shared" si="4"/>
         <v>0.9606137815943826</v>
       </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="14"/>
-    </row>
-    <row r="50" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
-        <f>A49+1</f>
-        <v>46</v>
-      </c>
-      <c r="B50" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="33">
-        <f>[38]Лист1!$E$32</f>
-        <v>15466990</v>
-      </c>
-      <c r="F50" s="33">
-        <f>[38]Лист1!$F$32</f>
-        <v>15915971</v>
-      </c>
-      <c r="G50" s="78">
-        <f>[38]Лист1!$I$32</f>
-        <v>5.2620773809523791E-2</v>
-      </c>
-      <c r="H50" s="33">
-        <f>[38]Лист1!$H$32</f>
-        <v>884029</v>
-      </c>
-      <c r="I50" s="39">
-        <f>E50/F50</f>
-        <v>0.97179053668795956</v>
-      </c>
-      <c r="J50" s="40"/>
-      <c r="K50" s="16"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="23">
         <f>A50+1</f>
-        <v>47</v>
-      </c>
-      <c r="B51" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="103" t="s">
+      <c r="D51" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="32">
-        <f>[40]Лист1!$E$35</f>
+      <c r="E51" s="67">
+        <f>[43]Лист1!$E$35</f>
         <v>12037830</v>
       </c>
-      <c r="F51" s="32">
-        <f>[40]Лист1!$F$35</f>
+      <c r="F51" s="67">
+        <f>[43]Лист1!$F$35</f>
         <v>16823645</v>
       </c>
-      <c r="G51" s="104">
-        <f>100%-F51/[40]Лист1!$A$21</f>
+      <c r="G51" s="68">
+        <f>100%-F51/[43]Лист1!$A$21</f>
         <v>-1.407440476190569E-3</v>
       </c>
-      <c r="H51" s="105">
-        <f>[40]Лист1!$A$21-F51</f>
+      <c r="H51" s="66">
+        <f>[43]Лист1!$A$21-F51</f>
         <v>-23645</v>
       </c>
-      <c r="I51" s="106">
-        <f>E51/F51</f>
+      <c r="I51" s="64">
+        <f t="shared" si="4"/>
         <v>0.71553043350593759</v>
       </c>
-      <c r="J51" s="107"/>
+      <c r="J51" s="65"/>
       <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23">
         <f>A51+1</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C52" s="60" t="s">
         <v>10</v>
@@ -5362,36 +5447,36 @@
       <c r="D52" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="62">
-        <f>[43]Паспорт!$E$31</f>
-        <v>16584750</v>
-      </c>
-      <c r="F52" s="62">
-        <f>[43]Паспорт!$F$31</f>
-        <v>17141946</v>
-      </c>
-      <c r="G52" s="63">
-        <f>[43]Паспорт!$I$31</f>
-        <v>-2.0353928571428481E-2</v>
+      <c r="E52" s="67">
+        <f>[44]Лист1!$E$33</f>
+        <v>9121896</v>
+      </c>
+      <c r="F52" s="67">
+        <f>[44]Лист1!$F$33</f>
+        <v>17665467</v>
+      </c>
+      <c r="G52" s="68">
+        <f>[44]Лист1!$I$33</f>
+        <v>-5.1515892857142864E-2</v>
       </c>
       <c r="H52" s="66">
-        <f>[43]Паспорт!$H$31</f>
-        <v>-341946</v>
+        <f>[44]Лист1!$H$33</f>
+        <v>-865467</v>
       </c>
       <c r="I52" s="64">
-        <f>E52/F52</f>
-        <v>0.96749517236841143</v>
+        <f t="shared" si="4"/>
+        <v>0.51636880021343334</v>
       </c>
       <c r="J52" s="65"/>
-      <c r="K52" s="16"/>
+      <c r="K52" s="14"/>
     </row>
     <row r="53" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23">
         <f>A52+1</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C53" s="60" t="s">
         <v>10</v>
@@ -5400,24 +5485,24 @@
         <v>11</v>
       </c>
       <c r="E53" s="67">
-        <f>[44]Лист1!$E$36</f>
-        <v>14320272</v>
+        <f>[45]Лист1!$E$54</f>
+        <v>18561530</v>
       </c>
       <c r="F53" s="67">
-        <f>[44]Лист1!$F$36</f>
-        <v>17268245</v>
+        <f>[45]Лист1!$F$54</f>
+        <v>19984201</v>
       </c>
       <c r="G53" s="68">
-        <f>100%-F53/[44]Лист1!$A$19</f>
-        <v>-2.7871726190476176E-2</v>
+        <f>100%-F53/[45]Лист1!$A$25</f>
+        <v>-5.7365132275132291E-2</v>
       </c>
       <c r="H53" s="66">
-        <f>[44]Лист1!$A$19-F53</f>
-        <v>-468245</v>
+        <f>[45]Лист1!$A$25-F53</f>
+        <v>-1084201</v>
       </c>
       <c r="I53" s="64">
-        <f>E53/F53</f>
-        <v>0.82928357803586872</v>
+        <f t="shared" si="4"/>
+        <v>0.92881021362825567</v>
       </c>
       <c r="J53" s="65"/>
       <c r="K53" s="14"/>
@@ -5425,10 +5510,10 @@
     <row r="54" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23">
         <f>A53+1</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C54" s="60" t="s">
         <v>10</v>
@@ -5436,33 +5521,33 @@
       <c r="D54" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="67">
-        <f>[45]Лист1!$E$33</f>
-        <v>9121896</v>
-      </c>
-      <c r="F54" s="67">
-        <f>[45]Лист1!$F$33</f>
-        <v>17665467</v>
-      </c>
-      <c r="G54" s="68">
-        <f>[45]Лист1!$I$33</f>
-        <v>-5.1515892857142864E-2</v>
-      </c>
-      <c r="H54" s="66">
-        <f>[45]Лист1!$H$33</f>
-        <v>-865467</v>
+      <c r="E54" s="62">
+        <f>[46]Лист1!$E$35</f>
+        <v>17619903</v>
+      </c>
+      <c r="F54" s="62">
+        <f>[46]Лист1!$F$35</f>
+        <v>18109510</v>
+      </c>
+      <c r="G54" s="63">
+        <f>[46]Лист1!$I$35</f>
+        <v>-7.7947023809523897E-2</v>
+      </c>
+      <c r="H54" s="62">
+        <f>[46]Лист1!$H$35</f>
+        <v>-1309510</v>
       </c>
       <c r="I54" s="64">
-        <f>E54/F54</f>
-        <v>0.51636880021343334</v>
+        <f t="shared" si="4"/>
+        <v>0.97296409455584387</v>
       </c>
       <c r="J54" s="65"/>
-      <c r="K54" s="14"/>
+      <c r="K54" s="16"/>
     </row>
     <row r="55" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23">
         <f>A54+1</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="59" t="s">
         <v>67</v>
@@ -5474,24 +5559,24 @@
         <v>11</v>
       </c>
       <c r="E55" s="67">
-        <f>[46]Паспорт!$E$35</f>
-        <v>48337963</v>
+        <f>[47]Паспорт!$E$35</f>
+        <v>53674243</v>
       </c>
       <c r="F55" s="67">
-        <f>[46]Паспорт!$F$35</f>
-        <v>49959239</v>
+        <f>[47]Паспорт!$F$35</f>
+        <v>55464953</v>
       </c>
       <c r="G55" s="68">
-        <f>[46]Паспорт!$I$35</f>
-        <v>-0.30102184895833339</v>
+        <f>[47]Паспорт!$I$35</f>
+        <v>-0.44439981770833348</v>
       </c>
       <c r="H55" s="66">
-        <f>[46]Паспорт!$H$35</f>
-        <v>-11559239</v>
+        <f>[47]Паспорт!$H$35</f>
+        <v>-17064953</v>
       </c>
       <c r="I55" s="64">
-        <f>E55/F55</f>
-        <v>0.96754802450053334</v>
+        <f t="shared" si="4"/>
+        <v>0.96771456743143724</v>
       </c>
       <c r="J55" s="65"/>
       <c r="K55" s="14"/>
@@ -5538,7 +5623,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B3" sqref="B3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5555,16 +5640,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="89" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -5573,19 +5658,19 @@
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="92" t="s">
+      <c r="H1" s="88"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="91"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5598,7 +5683,7 @@
       <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="93"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="71">
@@ -5614,19 +5699,19 @@
         <v>11</v>
       </c>
       <c r="E3" s="62">
-        <f>[43]Паспорт!$E$31</f>
+        <f>[48]Паспорт!$E$31</f>
         <v>16584750</v>
       </c>
       <c r="F3" s="62">
-        <f>[43]Паспорт!$F$31</f>
+        <f>[48]Паспорт!$F$31</f>
         <v>17141946</v>
       </c>
       <c r="G3" s="63">
-        <f>[43]Паспорт!$I$31</f>
+        <f>[48]Паспорт!$I$31</f>
         <v>-2.0353928571428481E-2</v>
       </c>
       <c r="H3" s="66">
-        <f>[43]Паспорт!$H$31</f>
+        <f>[48]Паспорт!$H$31</f>
         <v>-341946</v>
       </c>
       <c r="I3" s="64">
@@ -5649,19 +5734,19 @@
         <v>11</v>
       </c>
       <c r="E4" s="67">
-        <f>[44]Лист1!$E$36</f>
+        <f>[49]Лист1!$E$36</f>
         <v>14320272</v>
       </c>
       <c r="F4" s="67">
-        <f>[44]Лист1!$F$36</f>
+        <f>[49]Лист1!$F$36</f>
         <v>17268245</v>
       </c>
       <c r="G4" s="68">
-        <f>100%-F4/[44]Лист1!$A$19</f>
+        <f>100%-F4/[49]Лист1!$A$19</f>
         <v>-2.7871726190476176E-2</v>
       </c>
       <c r="H4" s="66">
-        <f>[44]Лист1!$A$19-F4</f>
+        <f>[49]Лист1!$A$19-F4</f>
         <v>-468245</v>
       </c>
       <c r="I4" s="64">
@@ -5684,10 +5769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5707,16 +5792,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="89" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -5725,22 +5810,22 @@
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="96" t="s">
+      <c r="H1" s="88"/>
+      <c r="I1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="91"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5753,9 +5838,9 @@
       <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -5772,11 +5857,11 @@
         <v>11</v>
       </c>
       <c r="E3" s="51">
-        <f>[47]Лист1!$E$32</f>
+        <f>[50]Лист1!$E$32</f>
         <v>8848812</v>
       </c>
       <c r="F3" s="51">
-        <f>[47]Лист1!$F$32</f>
+        <f>[50]Лист1!$F$32</f>
         <v>18119313</v>
       </c>
       <c r="G3" s="72">
@@ -5810,19 +5895,19 @@
         <v>11</v>
       </c>
       <c r="E4" s="51">
-        <f>[48]Лист1!$E$36</f>
+        <f>[51]Лист1!$E$36</f>
         <v>20298152</v>
       </c>
       <c r="F4" s="51">
-        <f>[48]Лист1!$F$36</f>
+        <f>[51]Лист1!$F$36</f>
         <v>21209022</v>
       </c>
       <c r="G4" s="52">
-        <f>100%-F4/[48]Лист1!$A$20</f>
+        <f>100%-F4/[51]Лист1!$A$20</f>
         <v>-0.26244178571428578</v>
       </c>
       <c r="H4" s="51">
-        <f>[48]Лист1!$A$20-F4</f>
+        <f>[51]Лист1!$A$20-F4</f>
         <v>-4409022</v>
       </c>
       <c r="I4" s="74">
@@ -5847,19 +5932,19 @@
         <v>11</v>
       </c>
       <c r="E5" s="55">
-        <f>[49]Лист1!$E$39</f>
+        <f>[52]Лист1!$E$39</f>
         <v>13948077</v>
       </c>
       <c r="F5" s="55">
-        <f>[49]Лист1!$F$39</f>
+        <f>[52]Лист1!$F$39</f>
         <v>19061212</v>
       </c>
       <c r="G5" s="56">
-        <f>100%-F5/[49]Лист1!$A$20</f>
+        <f>100%-F5/[52]Лист1!$A$20</f>
         <v>-0.13459595238095234</v>
       </c>
       <c r="H5" s="57">
-        <f>[49]Лист1!$A$20-F5</f>
+        <f>[52]Лист1!$A$20-F5</f>
         <v>-2261212</v>
       </c>
       <c r="I5" s="53">
@@ -5882,24 +5967,94 @@
         <v>11</v>
       </c>
       <c r="E6" s="51">
-        <f>[50]Лист1!$E$37</f>
+        <f>[53]Лист1!$E$37</f>
         <v>14802518</v>
       </c>
       <c r="F6" s="51">
-        <f>[50]Лист1!$F$37</f>
+        <f>[53]Лист1!$F$37</f>
         <v>16166846</v>
       </c>
       <c r="G6" s="52">
-        <f>[50]Лист1!$I$37</f>
+        <f>[53]Лист1!$I$37</f>
         <v>3.7687738095237955E-2</v>
       </c>
       <c r="H6" s="51">
-        <f>[50]Лист1!$H$37</f>
+        <f>[53]Лист1!$H$37</f>
         <v>633154</v>
       </c>
       <c r="I6" s="53">
         <f t="shared" ref="I6" si="1">E6/F6</f>
         <v>0.91560951344498487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="71">
+        <f t="shared" ref="A7:A8" si="2">A6+1</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="51">
+        <f>[48]Паспорт!$E$31</f>
+        <v>16584750</v>
+      </c>
+      <c r="F7" s="51">
+        <f>[48]Паспорт!$F$31</f>
+        <v>17141946</v>
+      </c>
+      <c r="G7" s="52">
+        <f>[48]Паспорт!$I$31</f>
+        <v>-2.0353928571428481E-2</v>
+      </c>
+      <c r="H7" s="57">
+        <f>[48]Паспорт!$H$31</f>
+        <v>-341946</v>
+      </c>
+      <c r="I7" s="53">
+        <f>E7/F7</f>
+        <v>0.96749517236841143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="71">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="55">
+        <f>[49]Лист1!$E$36</f>
+        <v>14320272</v>
+      </c>
+      <c r="F8" s="55">
+        <f>[49]Лист1!$F$36</f>
+        <v>17268245</v>
+      </c>
+      <c r="G8" s="56">
+        <f>100%-F8/[49]Лист1!$A$19</f>
+        <v>-2.7871726190476176E-2</v>
+      </c>
+      <c r="H8" s="57">
+        <f>[49]Лист1!$A$19-F8</f>
+        <v>-468245</v>
+      </c>
+      <c r="I8" s="53">
+        <f t="shared" ref="I8" si="3">E8/F8</f>
+        <v>0.82928357803586872</v>
       </c>
     </row>
   </sheetData>
